--- a/src/data/WisdomIndexes.xlsx
+++ b/src/data/WisdomIndexes.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="AN" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="MN" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="MN-AtI" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10589" uniqueCount="4385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10879" uniqueCount="4587">
   <si>
     <t xml:space="preserve">Action (kamma)</t>
   </si>
@@ -13177,6 +13178,612 @@
   </si>
   <si>
     <t xml:space="preserve">MN152.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nibbāna; ~ is not a “source” or “ground” from which phenomena (dhamma) arise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Āsava; The Buddha’s principal teaching on ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions; ~ not worth asking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoniso manasikāra; As a means to ending the Āsava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fear; In the wilderness, the Buddha comes face-to-face with his ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilderness; In the ~, the Buddha comes face-to-face with his fear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kilesa; ~ are like dirty stains on an otherwise clean cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aging; Description of ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aging; Understanding of ~ as a basis for Right View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Āsava; Understanding of ~ as a basis for Right View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avijjā; Understanding of ~ as a basis for Right View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death; Understanding of ~ as a basis for Right View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jāti; Understanding of ~ as a basis for Right View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kusala; Understanding ~ and its opposite as the basis for Right View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nama-rūpa; Understanding of ~ as a basis for Right View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phassa; Understanding of ~ as a basis for Right View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right View; What is Right View?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saḷāyatana; Understanding of ~ as a basis for Right View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saṅkhāra; Understanding of ~ as a basis for Right View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taṇhā; Understanding of ~ as a basis for Right View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Four Noble Truths; Understanding of ~ as a basis for Right View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upādāna; Understanding of ~ as a basis for Right View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vedanā; Understanding of ~ as a basis for Right View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viññāṇa; Understanding of ~ as a basis for Right View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body; Thirty-one parts of the ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascetic practices; The Buddha describes the ~ he practiced as a bodhisatta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ādīnava; ~ of feeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ādīnava; ~ of form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ādīnava; ~ of sensuality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensuality; The allures and drawbacks of ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pain; ~ can’t be used to purify oneself of past misdeeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anusaya; With the end of the categories of objectification, the ~ come to an end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ill-will; The sources of conflict and hostility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papañca; As a cause of conflict in the mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habitual patterns of thought; Stopping of ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tevijjā; Descriptions of ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thought; Habitual ways of thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ādīnava; ~ of unskillful thoughts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admonishment; Making oneself easy to admonish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khanti; How to develop ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettā; Maintain thoughts of ~ no matter how others address you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speech; Five aspects of suitable ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diṭṭhi; Even the view “I have no self” is wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dukkha; The Buddha teaches only ~ and its cessation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teaching the Dhamma; The Buddha teaches only dukkha and its cessation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Four Noble Truths; Relationship to the Khandha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restraint; Like dressing a wound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wise person; What the ~ and the fool have in common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiri; As a quality that distinguishes the true contemplative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderation; ~ in eating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nīvaraṇa; Abandoning the ~ is a quality that distinguishes the true contemplative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ottappa; As a quality that distinguishes the true contemplative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restraint; As a quality that distinguishes the true contemplative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sīla; As a quality that distinguishes the true contemplative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wakefulness; As a quality that distinguishes the true contemplative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamma; Actions of body, speech, and mind determine one’s future course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paññā; Eye of ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right View; Conditions for the arising of ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anusaya; Three ~ in relationship to pleasant, painful, and neutral feeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensuality; Dangers of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brahmavihāra; Practice of ~ as a door to the Deathless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deathless; Eleven modes of practice that lead to the deathless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhāna; Formless attainments leading to Nibbāna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamma; Act like a dog, and that’s what you’ll become</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speech; The criteria for deciding what is worth saying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speech; The criteria for determining whether something should be said</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happiness; There are many kinds and degrees of ~; which one do you want?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasure; The many kinds of pleasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admonishment; The Buddha’s strong words to his son Rahula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamma; Reflect on your actions before, during, and after</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sīla; The Buddha’s instructions to his young son</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speech; Reflect on your speech, before, during, and after speaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diṭṭhi; The many kinds of ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samādhi; ~ is a progressive practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saddhā; ~ underlies the practice all the way to the Deathless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arahant; Fate of ~ after death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diṭṭhi; The thicket of wrong ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire imagery; Fire as an illustration of the destiny of a fully Awakened being</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions; How the Buddha handles difficult ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happiness; True ~ lies beyond the realm of sensual pleasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children; Childish innocence should not be confused with wisdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-harming, Non-violence; Isn’t all there is to the Buddhist path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monastic Life; Permission from one’s parents is a prerequisite for ordination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parents; Permission from one’s ~ is a prerequisite for ordination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-harming, Non-violence; The story of Angulimala the bandit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death; ~ of son</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caste system; Caste (i.e. race, social class, national identity, etc.) does not determine one’s virtue or spiritual potential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teaching the Dhamma; How to choose—and learn from—a teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viriya; Needed for final attainment of truth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamma; Past unskillful ~ can’t be “burned away” through ascetic practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamma; Present happiness depends on both past and present ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meditation; The danger of overestimating one’s progress in ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sīla; Claiming to be enlightened does not justify unrestrained behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meditation; Formless attainments leading to Nibbāna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monastic Life; Gradual training for monks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samādhi; Not every state of ~ is wholesome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakkāya-diṭṭhi; How ~ comes about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrity; What is a person of ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream-entry; How to recognize—and become—a person of integrity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhāna; How insight can be developed during or immediately after ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vipassanā; How ~ can be developed during or immediately after jhāna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Āsava; ~ and right view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diṭṭhi; What is wrong ~?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Immersion; The central role of ~ in the Eightfold Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speech; Its relation to the other factors of the path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ānāpānassati; The Buddha’s principal teaching on ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilderness; As a suitable place for meditation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kāyagatāsati; The Buddha’s principal teaching on ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emptiness; Meditation practice that leads to the “entry into ~,” the doorway to liberation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emptiness; Practical aspects of developing a meditative dwelling in ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desire; Does the ~ for Awakening get in the way of Awakening?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saṁvega; Who knows?—tomorrow, death may come</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The present; This present is all there is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamma; How ~ accounts for the fortune and misfortune of beings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murder; Fate of those who commit ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebirth; Causes of favorable or unfavorable ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamma; A more detailed explanation of ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emotion; The source of ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saḷāyatana; Relation between the ~ and the emotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teaching the Dhamma; Three kinds of mindfulness meditation for becoming a fit teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adhiṭṭhāna; Four determinations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death; ~ by a runaway cow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhātu; The Buddha’s explanation of the ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death; Sāriputta’s teachings to a dying Anāthapiṇḍika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pain; Sāriputta’s teachings to a dying Anāthapiṇḍika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sīla; Sāriputta’s teachings to a dying Anāthapiṇḍika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nibbāna; ~ is the goal; there’s nothing beyond it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anattā; Contemplation of the six senses in terms of ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phassa; As the conjunction of sense-base + sensory object + sense consciousness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakkāya-diṭṭhi; How to develop ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakkāya-diṭṭhi; How to relinquish ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saḷāyatana; Contemplation of ~ in terms of not-self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodhipakkhiya-dhamma; ~ and their relation to the six senses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vipassanā; As direct knowledge of the six sense bases (saḷāyatana)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asubha; Mastery of ~ is a quality to be developed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upekkhā; ~ with respect to the sense faculties</t>
   </si>
 </sst>
 </file>
@@ -13370,11 +13977,11 @@
   </sheetPr>
   <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.5"/>
   </cols>
@@ -14245,11 +14852,11 @@
   </sheetPr>
   <dimension ref="A1:B2694"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1530" activeCellId="0" sqref="B1530"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.01"/>
@@ -35826,14 +36433,14 @@
   </sheetPr>
   <dimension ref="A1:B3181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2259" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2318" activeCellId="0" sqref="B2318"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2362" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2360" activeCellId="0" sqref="B2360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="41.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="20.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="3" width="11.52"/>
   </cols>
   <sheetData>
@@ -51854,7 +52461,7 @@
       </c>
     </row>
     <row r="2003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2003" s="2" t="s">
+      <c r="A2003" s="4" t="s">
         <v>3467</v>
       </c>
       <c r="B2003" s="3" t="s">
@@ -51862,7 +52469,7 @@
       </c>
     </row>
     <row r="2004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2004" s="2" t="s">
+      <c r="A2004" s="4" t="s">
         <v>3467</v>
       </c>
       <c r="B2004" s="3" t="s">
@@ -51870,7 +52477,7 @@
       </c>
     </row>
     <row r="2005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2005" s="2" t="s">
+      <c r="A2005" s="4" t="s">
         <v>3468</v>
       </c>
       <c r="B2005" s="3" t="s">
@@ -51878,7 +52485,7 @@
       </c>
     </row>
     <row r="2006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2006" s="2" t="s">
+      <c r="A2006" s="4" t="s">
         <v>3468</v>
       </c>
       <c r="B2006" s="3" t="s">
@@ -51886,7 +52493,7 @@
       </c>
     </row>
     <row r="2007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2007" s="2" t="s">
+      <c r="A2007" s="4" t="s">
         <v>3469</v>
       </c>
       <c r="B2007" s="3" t="s">
@@ -51894,7 +52501,7 @@
       </c>
     </row>
     <row r="2008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2008" s="2" t="s">
+      <c r="A2008" s="4" t="s">
         <v>3470</v>
       </c>
       <c r="B2008" s="3" t="s">
@@ -51902,7 +52509,7 @@
       </c>
     </row>
     <row r="2009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2009" s="2" t="s">
+      <c r="A2009" s="4" t="s">
         <v>3471</v>
       </c>
       <c r="B2009" s="3" t="s">
@@ -51910,7 +52517,7 @@
       </c>
     </row>
     <row r="2010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2010" s="2" t="s">
+      <c r="A2010" s="4" t="s">
         <v>3472</v>
       </c>
       <c r="B2010" s="3" t="s">
@@ -51918,7 +52525,7 @@
       </c>
     </row>
     <row r="2011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2011" s="2" t="s">
+      <c r="A2011" s="4" t="s">
         <v>3473</v>
       </c>
       <c r="B2011" s="3" t="s">
@@ -51926,7 +52533,7 @@
       </c>
     </row>
     <row r="2012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2012" s="2" t="s">
+      <c r="A2012" s="4" t="s">
         <v>3475</v>
       </c>
       <c r="B2012" s="3" t="s">
@@ -54542,7 +55149,7 @@
       </c>
     </row>
     <row r="2339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2339" s="2" t="s">
+      <c r="A2339" s="4" t="s">
         <v>3725</v>
       </c>
       <c r="B2339" s="3" t="s">
@@ -54550,7 +55157,7 @@
       </c>
     </row>
     <row r="2340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2340" s="2" t="s">
+      <c r="A2340" s="4" t="s">
         <v>3725</v>
       </c>
       <c r="B2340" s="3" t="s">
@@ -54558,7 +55165,7 @@
       </c>
     </row>
     <row r="2341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2341" s="2" t="s">
+      <c r="A2341" s="4" t="s">
         <v>3726</v>
       </c>
       <c r="B2341" s="3" t="s">
@@ -54566,7 +55173,7 @@
       </c>
     </row>
     <row r="2342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2342" s="2" t="s">
+      <c r="A2342" s="4" t="s">
         <v>3727</v>
       </c>
       <c r="B2342" s="3" t="s">
@@ -54574,7 +55181,7 @@
       </c>
     </row>
     <row r="2343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2343" s="2" t="s">
+      <c r="A2343" s="4" t="s">
         <v>3727</v>
       </c>
       <c r="B2343" s="3" t="s">
@@ -54582,7 +55189,7 @@
       </c>
     </row>
     <row r="2344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2344" s="2" t="s">
+      <c r="A2344" s="4" t="s">
         <v>3727</v>
       </c>
       <c r="B2344" s="3" t="s">
@@ -54590,7 +55197,7 @@
       </c>
     </row>
     <row r="2345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2345" s="2" t="s">
+      <c r="A2345" s="4" t="s">
         <v>3727</v>
       </c>
       <c r="B2345" s="3" t="s">
@@ -54598,7 +55205,7 @@
       </c>
     </row>
     <row r="2346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2346" s="2" t="s">
+      <c r="A2346" s="4" t="s">
         <v>3729</v>
       </c>
       <c r="B2346" s="3" t="s">
@@ -54606,7 +55213,7 @@
       </c>
     </row>
     <row r="2347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2347" s="2" t="s">
+      <c r="A2347" s="4" t="s">
         <v>3730</v>
       </c>
       <c r="B2347" s="3" t="s">
@@ -54614,7 +55221,7 @@
       </c>
     </row>
     <row r="2348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2348" s="2" t="s">
+      <c r="A2348" s="4" t="s">
         <v>3731</v>
       </c>
       <c r="B2348" s="3" t="s">
@@ -54622,7 +55229,7 @@
       </c>
     </row>
     <row r="2349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2349" s="2" t="s">
+      <c r="A2349" s="4" t="s">
         <v>3732</v>
       </c>
       <c r="B2349" s="3" t="s">
@@ -54630,7 +55237,7 @@
       </c>
     </row>
     <row r="2350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2350" s="2" t="s">
+      <c r="A2350" s="4" t="s">
         <v>3734</v>
       </c>
       <c r="B2350" s="3" t="s">
@@ -54638,7 +55245,7 @@
       </c>
     </row>
     <row r="2351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2351" s="2" t="s">
+      <c r="A2351" s="4" t="s">
         <v>3735</v>
       </c>
       <c r="B2351" s="3" t="s">
@@ -54646,7 +55253,7 @@
       </c>
     </row>
     <row r="2352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2352" s="2" t="s">
+      <c r="A2352" s="4" t="s">
         <v>3737</v>
       </c>
       <c r="B2352" s="3" t="s">
@@ -54654,7 +55261,7 @@
       </c>
     </row>
     <row r="2353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2353" s="2" t="s">
+      <c r="A2353" s="4" t="s">
         <v>3738</v>
       </c>
       <c r="B2353" s="3" t="s">
@@ -54662,7 +55269,7 @@
       </c>
     </row>
     <row r="2354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2354" s="2" t="s">
+      <c r="A2354" s="4" t="s">
         <v>3738</v>
       </c>
       <c r="B2354" s="3" t="s">
@@ -54670,7 +55277,7 @@
       </c>
     </row>
     <row r="2355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2355" s="2" t="s">
+      <c r="A2355" s="4" t="s">
         <v>3739</v>
       </c>
       <c r="B2355" s="3" t="s">
@@ -54678,7 +55285,7 @@
       </c>
     </row>
     <row r="2356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2356" s="2" t="s">
+      <c r="A2356" s="4" t="s">
         <v>3739</v>
       </c>
       <c r="B2356" s="3" t="s">
@@ -54686,7 +55293,7 @@
       </c>
     </row>
     <row r="2357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2357" s="2" t="s">
+      <c r="A2357" s="4" t="s">
         <v>3742</v>
       </c>
       <c r="B2357" s="3" t="s">
@@ -54694,7 +55301,7 @@
       </c>
     </row>
     <row r="2358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2358" s="2" t="s">
+      <c r="A2358" s="4" t="s">
         <v>3743</v>
       </c>
       <c r="B2358" s="3" t="s">
@@ -54702,7 +55309,7 @@
       </c>
     </row>
     <row r="2359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2359" s="2" t="s">
+      <c r="A2359" s="4" t="s">
         <v>3743</v>
       </c>
       <c r="B2359" s="3" t="s">
@@ -54710,7 +55317,7 @@
       </c>
     </row>
     <row r="2360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2360" s="2" t="s">
+      <c r="A2360" s="4" t="s">
         <v>3743</v>
       </c>
       <c r="B2360" s="3" t="s">
@@ -54718,7 +55325,7 @@
       </c>
     </row>
     <row r="2361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2361" s="2" t="s">
+      <c r="A2361" s="4" t="s">
         <v>3745</v>
       </c>
       <c r="B2361" s="3" t="s">
@@ -61294,4 +61901,1191 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B145"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B97" activeCellId="0" sqref="B97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>4423</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>4423</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>4429</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>4429</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>4429</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>4440</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>4440</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>4440</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>4444</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>4446</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>4446</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>4459</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>4459</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>4462</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>4464</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>4471</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>4474</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>4474</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>4477</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>4477</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>4480</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>4480</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>4480</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>4480</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>4485</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>4501</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>4501</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>4504</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>4510</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>4520</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>4520</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>4522</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>4524</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>4527</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>4528</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>4529</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>4528</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>4531</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>4531</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>4534</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>4529</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>4539</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>4545</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>4547</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>4550</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>4559</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>4571</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>4581</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>4581</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>4584</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>4584</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>4586</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/data/WisdomIndexes.xlsx
+++ b/src/data/WisdomIndexes.xlsx
@@ -13981,7 +13981,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.5"/>
   </cols>
@@ -14856,9 +14856,9 @@
       <selection pane="topLeft" activeCell="B1530" activeCellId="0" sqref="B1530"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.01"/>
   </cols>
   <sheetData>
@@ -36433,8 +36433,8 @@
   </sheetPr>
   <dimension ref="A1:B3181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2362" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2360" activeCellId="0" sqref="B2360"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2430" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2469" activeCellId="0" sqref="B2469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -55469,7 +55469,7 @@
       </c>
     </row>
     <row r="2379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2379" s="2" t="s">
+      <c r="A2379" s="4" t="s">
         <v>3760</v>
       </c>
       <c r="B2379" s="3" t="s">
@@ -55477,7 +55477,7 @@
       </c>
     </row>
     <row r="2380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2380" s="2" t="s">
+      <c r="A2380" s="4" t="s">
         <v>3762</v>
       </c>
       <c r="B2380" s="3" t="s">
@@ -55485,7 +55485,7 @@
       </c>
     </row>
     <row r="2381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2381" s="2" t="s">
+      <c r="A2381" s="4" t="s">
         <v>3763</v>
       </c>
       <c r="B2381" s="3" t="s">
@@ -55493,7 +55493,7 @@
       </c>
     </row>
     <row r="2382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2382" s="2" t="s">
+      <c r="A2382" s="4" t="s">
         <v>3764</v>
       </c>
       <c r="B2382" s="3" t="s">
@@ -55501,7 +55501,7 @@
       </c>
     </row>
     <row r="2383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2383" s="2" t="s">
+      <c r="A2383" s="4" t="s">
         <v>3764</v>
       </c>
       <c r="B2383" s="3" t="s">
@@ -55509,7 +55509,7 @@
       </c>
     </row>
     <row r="2384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2384" s="2" t="s">
+      <c r="A2384" s="4" t="s">
         <v>3765</v>
       </c>
       <c r="B2384" s="3" t="s">
@@ -55517,7 +55517,7 @@
       </c>
     </row>
     <row r="2385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2385" s="2" t="s">
+      <c r="A2385" s="4" t="s">
         <v>3766</v>
       </c>
       <c r="B2385" s="3" t="s">
@@ -55525,7 +55525,7 @@
       </c>
     </row>
     <row r="2386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2386" s="2" t="s">
+      <c r="A2386" s="4" t="s">
         <v>3766</v>
       </c>
       <c r="B2386" s="3" t="s">
@@ -55533,7 +55533,7 @@
       </c>
     </row>
     <row r="2387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2387" s="2" t="s">
+      <c r="A2387" s="4" t="s">
         <v>3768</v>
       </c>
       <c r="B2387" s="3" t="s">
@@ -55541,7 +55541,7 @@
       </c>
     </row>
     <row r="2388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2388" s="2" t="s">
+      <c r="A2388" s="4" t="s">
         <v>3769</v>
       </c>
       <c r="B2388" s="3" t="s">
@@ -55549,7 +55549,7 @@
       </c>
     </row>
     <row r="2389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2389" s="2" t="s">
+      <c r="A2389" s="4" t="s">
         <v>3770</v>
       </c>
       <c r="B2389" s="3" t="s">
@@ -55557,7 +55557,7 @@
       </c>
     </row>
     <row r="2390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2390" s="2" t="s">
+      <c r="A2390" s="4" t="s">
         <v>3771</v>
       </c>
       <c r="B2390" s="3" t="s">
@@ -55565,7 +55565,7 @@
       </c>
     </row>
     <row r="2391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2391" s="2" t="s">
+      <c r="A2391" s="4" t="s">
         <v>3772</v>
       </c>
       <c r="B2391" s="3" t="s">
@@ -55573,7 +55573,7 @@
       </c>
     </row>
     <row r="2392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2392" s="2" t="s">
+      <c r="A2392" s="4" t="s">
         <v>3773</v>
       </c>
       <c r="B2392" s="3" t="s">
@@ -55581,7 +55581,7 @@
       </c>
     </row>
     <row r="2393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2393" s="2" t="s">
+      <c r="A2393" s="4" t="s">
         <v>3774</v>
       </c>
       <c r="B2393" s="3" t="s">
@@ -55589,7 +55589,7 @@
       </c>
     </row>
     <row r="2394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2394" s="2" t="s">
+      <c r="A2394" s="4" t="s">
         <v>3775</v>
       </c>
       <c r="B2394" s="3" t="s">
@@ -55597,7 +55597,7 @@
       </c>
     </row>
     <row r="2395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2395" s="2" t="s">
+      <c r="A2395" s="4" t="s">
         <v>3775</v>
       </c>
       <c r="B2395" s="3" t="s">
@@ -55605,7 +55605,7 @@
       </c>
     </row>
     <row r="2396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2396" s="2" t="s">
+      <c r="A2396" s="4" t="s">
         <v>3775</v>
       </c>
       <c r="B2396" s="3" t="s">
@@ -55613,7 +55613,7 @@
       </c>
     </row>
     <row r="2397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2397" s="2" t="s">
+      <c r="A2397" s="4" t="s">
         <v>3776</v>
       </c>
       <c r="B2397" s="3" t="s">
@@ -55621,7 +55621,7 @@
       </c>
     </row>
     <row r="2398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2398" s="2" t="s">
+      <c r="A2398" s="4" t="s">
         <v>3776</v>
       </c>
       <c r="B2398" s="3" t="s">
@@ -55629,7 +55629,7 @@
       </c>
     </row>
     <row r="2399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2399" s="2" t="s">
+      <c r="A2399" s="4" t="s">
         <v>3776</v>
       </c>
       <c r="B2399" s="3" t="s">
@@ -55637,7 +55637,7 @@
       </c>
     </row>
     <row r="2400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2400" s="2" t="s">
+      <c r="A2400" s="4" t="s">
         <v>3776</v>
       </c>
       <c r="B2400" s="3" t="s">
@@ -55645,7 +55645,7 @@
       </c>
     </row>
     <row r="2401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2401" s="2" t="s">
+      <c r="A2401" s="4" t="s">
         <v>3776</v>
       </c>
       <c r="B2401" s="3" t="s">
@@ -55653,7 +55653,7 @@
       </c>
     </row>
     <row r="2402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2402" s="2" t="s">
+      <c r="A2402" s="4" t="s">
         <v>3777</v>
       </c>
       <c r="B2402" s="3" t="s">
@@ -55661,7 +55661,7 @@
       </c>
     </row>
     <row r="2403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2403" s="2" t="s">
+      <c r="A2403" s="4" t="s">
         <v>3777</v>
       </c>
       <c r="B2403" s="3" t="s">
@@ -55901,7 +55901,7 @@
       </c>
     </row>
     <row r="2433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2433" s="2" t="s">
+      <c r="A2433" s="4" t="s">
         <v>3793</v>
       </c>
       <c r="B2433" s="3" t="s">
@@ -55909,7 +55909,7 @@
       </c>
     </row>
     <row r="2434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2434" s="2" t="s">
+      <c r="A2434" s="4" t="s">
         <v>3795</v>
       </c>
       <c r="B2434" s="3" t="s">
@@ -55917,7 +55917,7 @@
       </c>
     </row>
     <row r="2435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2435" s="2" t="s">
+      <c r="A2435" s="4" t="s">
         <v>3796</v>
       </c>
       <c r="B2435" s="3" t="s">
@@ -55925,7 +55925,7 @@
       </c>
     </row>
     <row r="2436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2436" s="2" t="s">
+      <c r="A2436" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="B2436" s="3" t="s">
@@ -55933,7 +55933,7 @@
       </c>
     </row>
     <row r="2437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2437" s="2" t="s">
+      <c r="A2437" s="4" t="s">
         <v>3799</v>
       </c>
       <c r="B2437" s="3" t="s">
@@ -55941,7 +55941,7 @@
       </c>
     </row>
     <row r="2438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2438" s="2" t="s">
+      <c r="A2438" s="4" t="s">
         <v>3800</v>
       </c>
       <c r="B2438" s="3" t="s">
@@ -55949,7 +55949,7 @@
       </c>
     </row>
     <row r="2439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2439" s="2" t="s">
+      <c r="A2439" s="4" t="s">
         <v>3801</v>
       </c>
       <c r="B2439" s="3" t="s">
@@ -56061,7 +56061,7 @@
       </c>
     </row>
     <row r="2453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2453" s="2" t="s">
+      <c r="A2453" s="4" t="s">
         <v>3818</v>
       </c>
       <c r="B2453" s="3" t="s">
@@ -56069,7 +56069,7 @@
       </c>
     </row>
     <row r="2454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2454" s="2" t="s">
+      <c r="A2454" s="4" t="s">
         <v>3818</v>
       </c>
       <c r="B2454" s="3" t="s">
@@ -56077,7 +56077,7 @@
       </c>
     </row>
     <row r="2455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2455" s="2" t="s">
+      <c r="A2455" s="4" t="s">
         <v>3820</v>
       </c>
       <c r="B2455" s="3" t="s">
@@ -56085,7 +56085,7 @@
       </c>
     </row>
     <row r="2456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2456" s="2" t="s">
+      <c r="A2456" s="4" t="s">
         <v>3820</v>
       </c>
       <c r="B2456" s="3" t="s">
@@ -56093,7 +56093,7 @@
       </c>
     </row>
     <row r="2457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2457" s="2" t="s">
+      <c r="A2457" s="4" t="s">
         <v>3820</v>
       </c>
       <c r="B2457" s="3" t="s">
@@ -56101,7 +56101,7 @@
       </c>
     </row>
     <row r="2458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2458" s="2" t="s">
+      <c r="A2458" s="4" t="s">
         <v>3820</v>
       </c>
       <c r="B2458" s="3" t="s">
@@ -56109,7 +56109,7 @@
       </c>
     </row>
     <row r="2459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2459" s="2" t="s">
+      <c r="A2459" s="4" t="s">
         <v>3820</v>
       </c>
       <c r="B2459" s="3" t="s">
@@ -56117,7 +56117,7 @@
       </c>
     </row>
     <row r="2460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2460" s="2" t="s">
+      <c r="A2460" s="4" t="s">
         <v>3822</v>
       </c>
       <c r="B2460" s="3" t="s">
@@ -56125,7 +56125,7 @@
       </c>
     </row>
     <row r="2461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2461" s="2" t="s">
+      <c r="A2461" s="4" t="s">
         <v>3823</v>
       </c>
       <c r="B2461" s="3" t="s">
@@ -56133,7 +56133,7 @@
       </c>
     </row>
     <row r="2462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2462" s="2" t="s">
+      <c r="A2462" s="4" t="s">
         <v>3825</v>
       </c>
       <c r="B2462" s="3" t="s">
@@ -56141,7 +56141,7 @@
       </c>
     </row>
     <row r="2463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2463" s="2" t="s">
+      <c r="A2463" s="4" t="s">
         <v>3826</v>
       </c>
       <c r="B2463" s="3" t="s">
@@ -56149,7 +56149,7 @@
       </c>
     </row>
     <row r="2464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2464" s="2" t="s">
+      <c r="A2464" s="4" t="s">
         <v>3827</v>
       </c>
       <c r="B2464" s="3" t="s">
@@ -56157,7 +56157,7 @@
       </c>
     </row>
     <row r="2465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2465" s="2" t="s">
+      <c r="A2465" s="4" t="s">
         <v>3829</v>
       </c>
       <c r="B2465" s="3" t="s">
@@ -56165,7 +56165,7 @@
       </c>
     </row>
     <row r="2466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2466" s="2" t="s">
+      <c r="A2466" s="4" t="s">
         <v>3829</v>
       </c>
       <c r="B2466" s="3" t="s">
@@ -56173,7 +56173,7 @@
       </c>
     </row>
     <row r="2467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2467" s="2" t="s">
+      <c r="A2467" s="4" t="s">
         <v>3830</v>
       </c>
       <c r="B2467" s="3" t="s">
@@ -56181,7 +56181,7 @@
       </c>
     </row>
     <row r="2468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2468" s="2" t="s">
+      <c r="A2468" s="4" t="s">
         <v>3830</v>
       </c>
       <c r="B2468" s="3" t="s">
@@ -56189,7 +56189,7 @@
       </c>
     </row>
     <row r="2469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2469" s="2" t="s">
+      <c r="A2469" s="4" t="s">
         <v>3830</v>
       </c>
       <c r="B2469" s="3" t="s">
@@ -56197,7 +56197,7 @@
       </c>
     </row>
     <row r="2470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2470" s="2" t="s">
+      <c r="A2470" s="4" t="s">
         <v>3831</v>
       </c>
       <c r="B2470" s="3" t="s">
@@ -56205,7 +56205,7 @@
       </c>
     </row>
     <row r="2471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2471" s="2" t="s">
+      <c r="A2471" s="4" t="s">
         <v>3832</v>
       </c>
       <c r="B2471" s="3" t="s">
@@ -56213,7 +56213,7 @@
       </c>
     </row>
     <row r="2472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2472" s="2" t="s">
+      <c r="A2472" s="4" t="s">
         <v>3833</v>
       </c>
       <c r="B2472" s="3" t="s">
@@ -61911,10 +61911,10 @@
   <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B97" activeCellId="0" sqref="B97"/>
+      <selection pane="topLeft" activeCell="B104" activeCellId="0" sqref="B104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
   </cols>

--- a/src/data/WisdomIndexes.xlsx
+++ b/src/data/WisdomIndexes.xlsx
@@ -13978,8 +13978,8 @@
   </sheetPr>
   <dimension ref="A1:B3181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2503" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2516" activeCellId="0" sqref="B2516"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2617" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2660" activeCellId="0" sqref="B2660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34382,7 +34382,7 @@
       </c>
     </row>
     <row r="2550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2550" s="1" t="s">
+      <c r="A2550" s="3" t="s">
         <v>2204</v>
       </c>
       <c r="B2550" s="2" t="s">
@@ -34606,7 +34606,7 @@
       </c>
     </row>
     <row r="2578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2578" s="1" t="s">
+      <c r="A2578" s="3" t="s">
         <v>2239</v>
       </c>
       <c r="B2578" s="2" t="s">
@@ -34614,7 +34614,7 @@
       </c>
     </row>
     <row r="2579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2579" s="1" t="s">
+      <c r="A2579" s="3" t="s">
         <v>2239</v>
       </c>
       <c r="B2579" s="2" t="s">
@@ -34622,7 +34622,7 @@
       </c>
     </row>
     <row r="2580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2580" s="1" t="s">
+      <c r="A2580" s="3" t="s">
         <v>2241</v>
       </c>
       <c r="B2580" s="2" t="s">
@@ -34630,7 +34630,7 @@
       </c>
     </row>
     <row r="2581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2581" s="1" t="s">
+      <c r="A2581" s="3" t="s">
         <v>2241</v>
       </c>
       <c r="B2581" s="2" t="s">
@@ -34638,7 +34638,7 @@
       </c>
     </row>
     <row r="2582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2582" s="1" t="s">
+      <c r="A2582" s="3" t="s">
         <v>2242</v>
       </c>
       <c r="B2582" s="2" t="s">
@@ -34646,7 +34646,7 @@
       </c>
     </row>
     <row r="2583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2583" s="1" t="s">
+      <c r="A2583" s="3" t="s">
         <v>2243</v>
       </c>
       <c r="B2583" s="2" t="s">
@@ -34654,7 +34654,7 @@
       </c>
     </row>
     <row r="2584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2584" s="1" t="s">
+      <c r="A2584" s="3" t="s">
         <v>2244</v>
       </c>
       <c r="B2584" s="2" t="s">
@@ -34662,7 +34662,7 @@
       </c>
     </row>
     <row r="2585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2585" s="1" t="s">
+      <c r="A2585" s="3" t="s">
         <v>2245</v>
       </c>
       <c r="B2585" s="2" t="s">
@@ -34670,7 +34670,7 @@
       </c>
     </row>
     <row r="2586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2586" s="1" t="s">
+      <c r="A2586" s="3" t="s">
         <v>2246</v>
       </c>
       <c r="B2586" s="2" t="s">
@@ -34678,7 +34678,7 @@
       </c>
     </row>
     <row r="2587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2587" s="1" t="s">
+      <c r="A2587" s="3" t="s">
         <v>2247</v>
       </c>
       <c r="B2587" s="2" t="s">
@@ -34686,7 +34686,7 @@
       </c>
     </row>
     <row r="2588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2588" s="1" t="s">
+      <c r="A2588" s="3" t="s">
         <v>2247</v>
       </c>
       <c r="B2588" s="2" t="s">
@@ -34694,7 +34694,7 @@
       </c>
     </row>
     <row r="2589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2589" s="1" t="s">
+      <c r="A2589" s="3" t="s">
         <v>2247</v>
       </c>
       <c r="B2589" s="2" t="s">
@@ -34702,7 +34702,7 @@
       </c>
     </row>
     <row r="2590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2590" s="1" t="s">
+      <c r="A2590" s="3" t="s">
         <v>2247</v>
       </c>
       <c r="B2590" s="2" t="s">
@@ -34710,7 +34710,7 @@
       </c>
     </row>
     <row r="2591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2591" s="1" t="s">
+      <c r="A2591" s="3" t="s">
         <v>2247</v>
       </c>
       <c r="B2591" s="2" t="s">
@@ -34718,7 +34718,7 @@
       </c>
     </row>
     <row r="2592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2592" s="1" t="s">
+      <c r="A2592" s="3" t="s">
         <v>2247</v>
       </c>
       <c r="B2592" s="2" t="s">
@@ -34726,7 +34726,7 @@
       </c>
     </row>
     <row r="2593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2593" s="1" t="s">
+      <c r="A2593" s="3" t="s">
         <v>2248</v>
       </c>
       <c r="B2593" s="2" t="s">
@@ -34734,7 +34734,7 @@
       </c>
     </row>
     <row r="2594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2594" s="1" t="s">
+      <c r="A2594" s="3" t="s">
         <v>2248</v>
       </c>
       <c r="B2594" s="2" t="s">
@@ -34742,7 +34742,7 @@
       </c>
     </row>
     <row r="2595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2595" s="1" t="s">
+      <c r="A2595" s="3" t="s">
         <v>2248</v>
       </c>
       <c r="B2595" s="2" t="s">
@@ -34750,7 +34750,7 @@
       </c>
     </row>
     <row r="2596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2596" s="1" t="s">
+      <c r="A2596" s="3" t="s">
         <v>2249</v>
       </c>
       <c r="B2596" s="2" t="s">
@@ -34758,7 +34758,7 @@
       </c>
     </row>
     <row r="2597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2597" s="1" t="s">
+      <c r="A2597" s="3" t="s">
         <v>2250</v>
       </c>
       <c r="B2597" s="2" t="s">
@@ -34766,7 +34766,7 @@
       </c>
     </row>
     <row r="2598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2598" s="1" t="s">
+      <c r="A2598" s="3" t="s">
         <v>2251</v>
       </c>
       <c r="B2598" s="2" t="s">
@@ -34774,7 +34774,7 @@
       </c>
     </row>
     <row r="2599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2599" s="1" t="s">
+      <c r="A2599" s="3" t="s">
         <v>2251</v>
       </c>
       <c r="B2599" s="2" t="s">
@@ -34782,7 +34782,7 @@
       </c>
     </row>
     <row r="2600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2600" s="1" t="s">
+      <c r="A2600" s="3" t="s">
         <v>2252</v>
       </c>
       <c r="B2600" s="2" t="s">
@@ -34790,7 +34790,7 @@
       </c>
     </row>
     <row r="2601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2601" s="1" t="s">
+      <c r="A2601" s="3" t="s">
         <v>2253</v>
       </c>
       <c r="B2601" s="2" t="s">
@@ -34798,7 +34798,7 @@
       </c>
     </row>
     <row r="2602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2602" s="1" t="s">
+      <c r="A2602" s="3" t="s">
         <v>2253</v>
       </c>
       <c r="B2602" s="2" t="s">
@@ -34806,7 +34806,7 @@
       </c>
     </row>
     <row r="2603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2603" s="1" t="s">
+      <c r="A2603" s="3" t="s">
         <v>2253</v>
       </c>
       <c r="B2603" s="2" t="s">
@@ -34814,7 +34814,7 @@
       </c>
     </row>
     <row r="2604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2604" s="1" t="s">
+      <c r="A2604" s="3" t="s">
         <v>2254</v>
       </c>
       <c r="B2604" s="2" t="s">
@@ -34822,7 +34822,7 @@
       </c>
     </row>
     <row r="2605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2605" s="1" t="s">
+      <c r="A2605" s="3" t="s">
         <v>2255</v>
       </c>
       <c r="B2605" s="2" t="s">
@@ -34830,7 +34830,7 @@
       </c>
     </row>
     <row r="2606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2606" s="1" t="s">
+      <c r="A2606" s="3" t="s">
         <v>2256</v>
       </c>
       <c r="B2606" s="2" t="s">
@@ -34838,7 +34838,7 @@
       </c>
     </row>
     <row r="2607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2607" s="1" t="s">
+      <c r="A2607" s="3" t="s">
         <v>2257</v>
       </c>
       <c r="B2607" s="2" t="s">
@@ -34846,7 +34846,7 @@
       </c>
     </row>
     <row r="2608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2608" s="1" t="s">
+      <c r="A2608" s="3" t="s">
         <v>2258</v>
       </c>
       <c r="B2608" s="2" t="s">
@@ -34854,7 +34854,7 @@
       </c>
     </row>
     <row r="2609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2609" s="1" t="s">
+      <c r="A2609" s="3" t="s">
         <v>2259</v>
       </c>
       <c r="B2609" s="2" t="s">
@@ -34862,7 +34862,7 @@
       </c>
     </row>
     <row r="2610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2610" s="1" t="s">
+      <c r="A2610" s="3" t="s">
         <v>2260</v>
       </c>
       <c r="B2610" s="2" t="s">
@@ -34870,7 +34870,7 @@
       </c>
     </row>
     <row r="2611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2611" s="1" t="s">
+      <c r="A2611" s="3" t="s">
         <v>2262</v>
       </c>
       <c r="B2611" s="2" t="s">
@@ -34878,7 +34878,7 @@
       </c>
     </row>
     <row r="2612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2612" s="1" t="s">
+      <c r="A2612" s="3" t="s">
         <v>2263</v>
       </c>
       <c r="B2612" s="2" t="s">
@@ -34886,7 +34886,7 @@
       </c>
     </row>
     <row r="2613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2613" s="1" t="s">
+      <c r="A2613" s="3" t="s">
         <v>2265</v>
       </c>
       <c r="B2613" s="2" t="s">
@@ -34894,7 +34894,7 @@
       </c>
     </row>
     <row r="2614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2614" s="1" t="s">
+      <c r="A2614" s="3" t="s">
         <v>2267</v>
       </c>
       <c r="B2614" s="2" t="s">
@@ -34902,7 +34902,7 @@
       </c>
     </row>
     <row r="2615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2615" s="1" t="s">
+      <c r="A2615" s="3" t="s">
         <v>2268</v>
       </c>
       <c r="B2615" s="2" t="s">
@@ -34910,7 +34910,7 @@
       </c>
     </row>
     <row r="2616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2616" s="1" t="s">
+      <c r="A2616" s="3" t="s">
         <v>2270</v>
       </c>
       <c r="B2616" s="2" t="s">
@@ -34918,7 +34918,7 @@
       </c>
     </row>
     <row r="2617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2617" s="1" t="s">
+      <c r="A2617" s="3" t="s">
         <v>2272</v>
       </c>
       <c r="B2617" s="2" t="s">
@@ -34926,7 +34926,7 @@
       </c>
     </row>
     <row r="2618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2618" s="1" t="s">
+      <c r="A2618" s="3" t="s">
         <v>2272</v>
       </c>
       <c r="B2618" s="2" t="s">
@@ -34934,7 +34934,7 @@
       </c>
     </row>
     <row r="2619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2619" s="1" t="s">
+      <c r="A2619" s="3" t="s">
         <v>2272</v>
       </c>
       <c r="B2619" s="2" t="s">
@@ -35150,7 +35150,7 @@
       </c>
     </row>
     <row r="2646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2646" s="1" t="s">
+      <c r="A2646" s="3" t="s">
         <v>2297</v>
       </c>
       <c r="B2646" s="2" t="s">
@@ -35158,7 +35158,7 @@
       </c>
     </row>
     <row r="2647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2647" s="1" t="s">
+      <c r="A2647" s="3" t="s">
         <v>2298</v>
       </c>
       <c r="B2647" s="2" t="s">
@@ -35166,7 +35166,7 @@
       </c>
     </row>
     <row r="2648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2648" s="1" t="s">
+      <c r="A2648" s="3" t="s">
         <v>2299</v>
       </c>
       <c r="B2648" s="2" t="s">
@@ -35174,7 +35174,7 @@
       </c>
     </row>
     <row r="2649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2649" s="1" t="s">
+      <c r="A2649" s="3" t="s">
         <v>2300</v>
       </c>
       <c r="B2649" s="2" t="s">
@@ -35182,7 +35182,7 @@
       </c>
     </row>
     <row r="2650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2650" s="1" t="s">
+      <c r="A2650" s="3" t="s">
         <v>2301</v>
       </c>
       <c r="B2650" s="2" t="s">
@@ -35190,7 +35190,7 @@
       </c>
     </row>
     <row r="2651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2651" s="1" t="s">
+      <c r="A2651" s="3" t="s">
         <v>2302</v>
       </c>
       <c r="B2651" s="2" t="s">
@@ -35198,7 +35198,7 @@
       </c>
     </row>
     <row r="2652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2652" s="1" t="s">
+      <c r="A2652" s="3" t="s">
         <v>2303</v>
       </c>
       <c r="B2652" s="2" t="s">
@@ -35206,7 +35206,7 @@
       </c>
     </row>
     <row r="2653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2653" s="1" t="s">
+      <c r="A2653" s="3" t="s">
         <v>2304</v>
       </c>
       <c r="B2653" s="2" t="s">
@@ -35214,7 +35214,7 @@
       </c>
     </row>
     <row r="2654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2654" s="1" t="s">
+      <c r="A2654" s="3" t="s">
         <v>2305</v>
       </c>
       <c r="B2654" s="2" t="s">
@@ -35222,7 +35222,7 @@
       </c>
     </row>
     <row r="2655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2655" s="1" t="s">
+      <c r="A2655" s="3" t="s">
         <v>2306</v>
       </c>
       <c r="B2655" s="2" t="s">
@@ -35230,7 +35230,7 @@
       </c>
     </row>
     <row r="2656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2656" s="1" t="s">
+      <c r="A2656" s="3" t="s">
         <v>2307</v>
       </c>
       <c r="B2656" s="2" t="s">
@@ -35238,7 +35238,7 @@
       </c>
     </row>
     <row r="2657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2657" s="1" t="s">
+      <c r="A2657" s="3" t="s">
         <v>2307</v>
       </c>
       <c r="B2657" s="2" t="s">
@@ -35246,7 +35246,7 @@
       </c>
     </row>
     <row r="2658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2658" s="1" t="s">
+      <c r="A2658" s="3" t="s">
         <v>2307</v>
       </c>
       <c r="B2658" s="2" t="s">
@@ -39459,7 +39459,7 @@
       <selection pane="topLeft" activeCell="B106" activeCellId="0" sqref="B106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
   </cols>
@@ -40646,7 +40646,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.5"/>
   </cols>
@@ -41521,7 +41521,7 @@
       <selection pane="topLeft" activeCell="B1530" activeCellId="0" sqref="B1530"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.01"/>

--- a/src/data/WisdomIndexes.xlsx
+++ b/src/data/WisdomIndexes.xlsx
@@ -13978,8 +13978,8 @@
   </sheetPr>
   <dimension ref="A1:B3181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2617" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2660" activeCellId="0" sqref="B2660"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2656" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2668" activeCellId="0" sqref="B2665:C2668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35390,7 +35390,7 @@
       </c>
     </row>
     <row r="2676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2676" s="1" t="s">
+      <c r="A2676" s="3" t="s">
         <v>2329</v>
       </c>
       <c r="B2676" s="2" t="s">
@@ -35398,7 +35398,7 @@
       </c>
     </row>
     <row r="2677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2677" s="1" t="s">
+      <c r="A2677" s="3" t="s">
         <v>2329</v>
       </c>
       <c r="B2677" s="2" t="s">
@@ -35406,7 +35406,7 @@
       </c>
     </row>
     <row r="2678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2678" s="1" t="s">
+      <c r="A2678" s="3" t="s">
         <v>2329</v>
       </c>
       <c r="B2678" s="2" t="s">
@@ -35414,7 +35414,7 @@
       </c>
     </row>
     <row r="2679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2679" s="1" t="s">
+      <c r="A2679" s="3" t="s">
         <v>2329</v>
       </c>
       <c r="B2679" s="2" t="s">
@@ -35422,7 +35422,7 @@
       </c>
     </row>
     <row r="2680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2680" s="1" t="s">
+      <c r="A2680" s="3" t="s">
         <v>2329</v>
       </c>
       <c r="B2680" s="2" t="s">
@@ -35430,7 +35430,7 @@
       </c>
     </row>
     <row r="2681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2681" s="1" t="s">
+      <c r="A2681" s="3" t="s">
         <v>2329</v>
       </c>
       <c r="B2681" s="2" t="s">
@@ -35438,7 +35438,7 @@
       </c>
     </row>
     <row r="2682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2682" s="1" t="s">
+      <c r="A2682" s="3" t="s">
         <v>2330</v>
       </c>
       <c r="B2682" s="2" t="s">
@@ -35446,7 +35446,7 @@
       </c>
     </row>
     <row r="2683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2683" s="1" t="s">
+      <c r="A2683" s="3" t="s">
         <v>2330</v>
       </c>
       <c r="B2683" s="2" t="s">
@@ -35454,7 +35454,7 @@
       </c>
     </row>
     <row r="2684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2684" s="1" t="s">
+      <c r="A2684" s="3" t="s">
         <v>2331</v>
       </c>
       <c r="B2684" s="2" t="s">
@@ -35462,7 +35462,7 @@
       </c>
     </row>
     <row r="2685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2685" s="1" t="s">
+      <c r="A2685" s="3" t="s">
         <v>2331</v>
       </c>
       <c r="B2685" s="2" t="s">
@@ -35470,7 +35470,7 @@
       </c>
     </row>
     <row r="2686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2686" s="1" t="s">
+      <c r="A2686" s="3" t="s">
         <v>2332</v>
       </c>
       <c r="B2686" s="2" t="s">
@@ -35478,7 +35478,7 @@
       </c>
     </row>
     <row r="2687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2687" s="1" t="s">
+      <c r="A2687" s="3" t="s">
         <v>2333</v>
       </c>
       <c r="B2687" s="2" t="s">
@@ -35486,7 +35486,7 @@
       </c>
     </row>
     <row r="2688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2688" s="1" t="s">
+      <c r="A2688" s="3" t="s">
         <v>2334</v>
       </c>
       <c r="B2688" s="2" t="s">
@@ -35494,7 +35494,7 @@
       </c>
     </row>
     <row r="2689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2689" s="1" t="s">
+      <c r="A2689" s="3" t="s">
         <v>2335</v>
       </c>
       <c r="B2689" s="2" t="s">
@@ -35502,7 +35502,7 @@
       </c>
     </row>
     <row r="2690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2690" s="1" t="s">
+      <c r="A2690" s="3" t="s">
         <v>2336</v>
       </c>
       <c r="B2690" s="2" t="s">
@@ -35510,7 +35510,7 @@
       </c>
     </row>
     <row r="2691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2691" s="1" t="s">
+      <c r="A2691" s="3" t="s">
         <v>2336</v>
       </c>
       <c r="B2691" s="2" t="s">
@@ -35518,7 +35518,7 @@
       </c>
     </row>
     <row r="2692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2692" s="1" t="s">
+      <c r="A2692" s="3" t="s">
         <v>2338</v>
       </c>
       <c r="B2692" s="2" t="s">
@@ -35526,7 +35526,7 @@
       </c>
     </row>
     <row r="2693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2693" s="1" t="s">
+      <c r="A2693" s="3" t="s">
         <v>2339</v>
       </c>
       <c r="B2693" s="2" t="s">
@@ -35534,7 +35534,7 @@
       </c>
     </row>
     <row r="2694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2694" s="1" t="s">
+      <c r="A2694" s="3" t="s">
         <v>2339</v>
       </c>
       <c r="B2694" s="2" t="s">
@@ -35542,7 +35542,7 @@
       </c>
     </row>
     <row r="2695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2695" s="1" t="s">
+      <c r="A2695" s="3" t="s">
         <v>2340</v>
       </c>
       <c r="B2695" s="2" t="s">
@@ -35550,7 +35550,7 @@
       </c>
     </row>
     <row r="2696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2696" s="1" t="s">
+      <c r="A2696" s="3" t="s">
         <v>2341</v>
       </c>
       <c r="B2696" s="2" t="s">
@@ -35558,7 +35558,7 @@
       </c>
     </row>
     <row r="2697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2697" s="1" t="s">
+      <c r="A2697" s="3" t="s">
         <v>2342</v>
       </c>
       <c r="B2697" s="2" t="s">
@@ -35566,7 +35566,7 @@
       </c>
     </row>
     <row r="2698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2698" s="1" t="s">
+      <c r="A2698" s="3" t="s">
         <v>2343</v>
       </c>
       <c r="B2698" s="2" t="s">
@@ -35574,7 +35574,7 @@
       </c>
     </row>
     <row r="2699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2699" s="1" t="s">
+      <c r="A2699" s="3" t="s">
         <v>2344</v>
       </c>
       <c r="B2699" s="2" t="s">
@@ -35582,7 +35582,7 @@
       </c>
     </row>
     <row r="2700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2700" s="1" t="s">
+      <c r="A2700" s="3" t="s">
         <v>2345</v>
       </c>
       <c r="B2700" s="2" t="s">
@@ -35590,7 +35590,7 @@
       </c>
     </row>
     <row r="2701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2701" s="1" t="s">
+      <c r="A2701" s="3" t="s">
         <v>2346</v>
       </c>
       <c r="B2701" s="2" t="s">
@@ -35598,7 +35598,7 @@
       </c>
     </row>
     <row r="2702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2702" s="1" t="s">
+      <c r="A2702" s="3" t="s">
         <v>2347</v>
       </c>
       <c r="B2702" s="2" t="s">
@@ -35606,7 +35606,7 @@
       </c>
     </row>
     <row r="2703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2703" s="1" t="s">
+      <c r="A2703" s="3" t="s">
         <v>2349</v>
       </c>
       <c r="B2703" s="2" t="s">
@@ -35614,7 +35614,7 @@
       </c>
     </row>
     <row r="2704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2704" s="1" t="s">
+      <c r="A2704" s="3" t="s">
         <v>2349</v>
       </c>
       <c r="B2704" s="2" t="s">
@@ -35622,7 +35622,7 @@
       </c>
     </row>
     <row r="2705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2705" s="1" t="s">
+      <c r="A2705" s="3" t="s">
         <v>2350</v>
       </c>
       <c r="B2705" s="2" t="s">
@@ -35630,7 +35630,7 @@
       </c>
     </row>
     <row r="2706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2706" s="1" t="s">
+      <c r="A2706" s="3" t="s">
         <v>2352</v>
       </c>
       <c r="B2706" s="2" t="s">
@@ -35638,7 +35638,7 @@
       </c>
     </row>
     <row r="2707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2707" s="1" t="s">
+      <c r="A2707" s="3" t="s">
         <v>2354</v>
       </c>
       <c r="B2707" s="2" t="s">
@@ -35646,7 +35646,7 @@
       </c>
     </row>
     <row r="2708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2708" s="1" t="s">
+      <c r="A2708" s="3" t="s">
         <v>2355</v>
       </c>
       <c r="B2708" s="2" t="s">
@@ -39456,10 +39456,10 @@
   <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B106" activeCellId="0" sqref="B106"/>
+      <selection pane="topLeft" activeCell="B106" activeCellId="1" sqref="B2665:C2668 B106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
   </cols>
@@ -40643,10 +40643,10 @@
   <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="B2665:C2668 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.5"/>
   </cols>
@@ -41518,10 +41518,10 @@
   <dimension ref="A1:B2694"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1530" activeCellId="0" sqref="B1530"/>
+      <selection pane="topLeft" activeCell="B1530" activeCellId="1" sqref="B2665:C2668 B1530"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.01"/>

--- a/src/data/WisdomIndexes.xlsx
+++ b/src/data/WisdomIndexes.xlsx
@@ -7165,7 +7165,7 @@
     <t xml:space="preserve">MN125.32</t>
   </si>
   <si>
-    <t xml:space="preserve">Bhikkhu tamed death</t>
+    <t xml:space="preserve">living in </t>
   </si>
   <si>
     <t xml:space="preserve">MN126.4</t>
@@ -13978,8 +13978,8 @@
   </sheetPr>
   <dimension ref="A1:B3181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2656" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2668" activeCellId="0" sqref="B2665:C2668"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2803" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2813" activeCellId="0" sqref="B2813"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35710,7 +35710,7 @@
       </c>
     </row>
     <row r="2716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2716" s="1" t="s">
+      <c r="A2716" s="3" t="s">
         <v>2364</v>
       </c>
       <c r="B2716" s="2" t="s">
@@ -35862,7 +35862,7 @@
       </c>
     </row>
     <row r="2735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2735" s="1" t="s">
+      <c r="A2735" s="3" t="s">
         <v>2381</v>
       </c>
       <c r="B2735" s="2" t="s">
@@ -35870,7 +35870,7 @@
       </c>
     </row>
     <row r="2736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2736" s="1" t="s">
+      <c r="A2736" s="3" t="s">
         <v>2382</v>
       </c>
       <c r="B2736" s="2" t="s">
@@ -35878,7 +35878,7 @@
       </c>
     </row>
     <row r="2737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2737" s="1" t="s">
+      <c r="A2737" s="3" t="s">
         <v>2382</v>
       </c>
       <c r="B2737" s="2" t="s">
@@ -35886,7 +35886,7 @@
       </c>
     </row>
     <row r="2738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2738" s="1" t="s">
+      <c r="A2738" s="3" t="s">
         <v>2384</v>
       </c>
       <c r="B2738" s="2" t="s">
@@ -35894,7 +35894,7 @@
       </c>
     </row>
     <row r="2739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2739" s="1" t="s">
+      <c r="A2739" s="3" t="s">
         <v>2384</v>
       </c>
       <c r="B2739" s="2" t="s">
@@ -35902,7 +35902,7 @@
       </c>
     </row>
     <row r="2740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2740" s="1" t="s">
+      <c r="A2740" s="3" t="s">
         <v>2384</v>
       </c>
       <c r="B2740" s="2" t="s">
@@ -36014,7 +36014,7 @@
       </c>
     </row>
     <row r="2754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2754" s="1" t="s">
+      <c r="A2754" s="3" t="s">
         <v>2395</v>
       </c>
       <c r="B2754" s="2" t="s">
@@ -36022,7 +36022,7 @@
       </c>
     </row>
     <row r="2755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2755" s="1" t="s">
+      <c r="A2755" s="3" t="s">
         <v>2396</v>
       </c>
       <c r="B2755" s="2" t="s">
@@ -36030,7 +36030,7 @@
       </c>
     </row>
     <row r="2756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2756" s="1" t="s">
+      <c r="A2756" s="3" t="s">
         <v>2397</v>
       </c>
       <c r="B2756" s="2" t="s">
@@ -36038,7 +36038,7 @@
       </c>
     </row>
     <row r="2757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2757" s="1" t="s">
+      <c r="A2757" s="3" t="s">
         <v>2398</v>
       </c>
       <c r="B2757" s="2" t="s">
@@ -36046,7 +36046,7 @@
       </c>
     </row>
     <row r="2758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2758" s="1" t="s">
+      <c r="A2758" s="3" t="s">
         <v>2399</v>
       </c>
       <c r="B2758" s="2" t="s">
@@ -36054,7 +36054,7 @@
       </c>
     </row>
     <row r="2759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2759" s="1" t="s">
+      <c r="A2759" s="3" t="s">
         <v>2399</v>
       </c>
       <c r="B2759" s="2" t="s">
@@ -36062,7 +36062,7 @@
       </c>
     </row>
     <row r="2760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2760" s="1" t="s">
+      <c r="A2760" s="3" t="s">
         <v>2400</v>
       </c>
       <c r="B2760" s="2" t="s">
@@ -36070,7 +36070,7 @@
       </c>
     </row>
     <row r="2761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2761" s="1" t="s">
+      <c r="A2761" s="3" t="s">
         <v>2401</v>
       </c>
       <c r="B2761" s="2" t="s">
@@ -36078,7 +36078,7 @@
       </c>
     </row>
     <row r="2762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2762" s="1" t="s">
+      <c r="A2762" s="3" t="s">
         <v>2403</v>
       </c>
       <c r="B2762" s="2" t="s">
@@ -36086,7 +36086,7 @@
       </c>
     </row>
     <row r="2763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2763" s="1" t="s">
+      <c r="A2763" s="3" t="s">
         <v>2405</v>
       </c>
       <c r="B2763" s="2" t="s">
@@ -36094,7 +36094,7 @@
       </c>
     </row>
     <row r="2764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2764" s="1" t="s">
+      <c r="A2764" s="3" t="s">
         <v>2406</v>
       </c>
       <c r="B2764" s="2" t="s">
@@ -36102,7 +36102,7 @@
       </c>
     </row>
     <row r="2765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2765" s="1" t="s">
+      <c r="A2765" s="3" t="s">
         <v>2407</v>
       </c>
       <c r="B2765" s="2" t="s">
@@ -36110,7 +36110,7 @@
       </c>
     </row>
     <row r="2766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2766" s="1" t="s">
+      <c r="A2766" s="3" t="s">
         <v>2409</v>
       </c>
       <c r="B2766" s="2" t="s">
@@ -36118,7 +36118,7 @@
       </c>
     </row>
     <row r="2767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2767" s="1" t="s">
+      <c r="A2767" s="3" t="s">
         <v>2411</v>
       </c>
       <c r="B2767" s="2" t="s">
@@ -36126,7 +36126,7 @@
       </c>
     </row>
     <row r="2768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2768" s="1" t="s">
+      <c r="A2768" s="3" t="s">
         <v>2412</v>
       </c>
       <c r="B2768" s="2" t="s">
@@ -36134,7 +36134,7 @@
       </c>
     </row>
     <row r="2769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2769" s="1" t="s">
+      <c r="A2769" s="3" t="s">
         <v>2413</v>
       </c>
       <c r="B2769" s="2" t="s">
@@ -36142,7 +36142,7 @@
       </c>
     </row>
     <row r="2770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2770" s="1" t="s">
+      <c r="A2770" s="3" t="s">
         <v>2414</v>
       </c>
       <c r="B2770" s="2" t="s">
@@ -36150,7 +36150,7 @@
       </c>
     </row>
     <row r="2771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2771" s="1" t="s">
+      <c r="A2771" s="3" t="s">
         <v>2415</v>
       </c>
       <c r="B2771" s="2" t="s">
@@ -36342,7 +36342,7 @@
       </c>
     </row>
     <row r="2795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2795" s="1" t="s">
+      <c r="A2795" s="3" t="s">
         <v>2448</v>
       </c>
       <c r="B2795" s="2" t="s">
@@ -36350,7 +36350,7 @@
       </c>
     </row>
     <row r="2796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2796" s="1" t="s">
+      <c r="A2796" s="3" t="s">
         <v>2448</v>
       </c>
       <c r="B2796" s="2" t="s">
@@ -36358,7 +36358,7 @@
       </c>
     </row>
     <row r="2797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2797" s="1" t="s">
+      <c r="A2797" s="3" t="s">
         <v>2448</v>
       </c>
       <c r="B2797" s="2" t="s">
@@ -36366,7 +36366,7 @@
       </c>
     </row>
     <row r="2798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2798" s="1" t="s">
+      <c r="A2798" s="3" t="s">
         <v>2448</v>
       </c>
       <c r="B2798" s="2" t="s">
@@ -36374,7 +36374,7 @@
       </c>
     </row>
     <row r="2799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2799" s="1" t="s">
+      <c r="A2799" s="3" t="s">
         <v>2448</v>
       </c>
       <c r="B2799" s="2" t="s">
@@ -36382,7 +36382,7 @@
       </c>
     </row>
     <row r="2800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2800" s="1" t="s">
+      <c r="A2800" s="3" t="s">
         <v>2448</v>
       </c>
       <c r="B2800" s="2" t="s">
@@ -36390,7 +36390,7 @@
       </c>
     </row>
     <row r="2801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2801" s="1" t="s">
+      <c r="A2801" s="3" t="s">
         <v>2448</v>
       </c>
       <c r="B2801" s="2" t="s">
@@ -36398,7 +36398,7 @@
       </c>
     </row>
     <row r="2802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2802" s="1" t="s">
+      <c r="A2802" s="3" t="s">
         <v>2449</v>
       </c>
       <c r="B2802" s="2" t="s">
@@ -36406,7 +36406,7 @@
       </c>
     </row>
     <row r="2803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2803" s="1" t="s">
+      <c r="A2803" s="3" t="s">
         <v>2450</v>
       </c>
       <c r="B2803" s="2" t="s">
@@ -36414,7 +36414,7 @@
       </c>
     </row>
     <row r="2804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2804" s="1" t="s">
+      <c r="A2804" s="3" t="s">
         <v>2451</v>
       </c>
       <c r="B2804" s="2" t="s">
@@ -36422,7 +36422,7 @@
       </c>
     </row>
     <row r="2805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2805" s="1" t="s">
+      <c r="A2805" s="3" t="s">
         <v>2451</v>
       </c>
       <c r="B2805" s="2" t="s">
@@ -36430,7 +36430,7 @@
       </c>
     </row>
     <row r="2806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2806" s="1" t="s">
+      <c r="A2806" s="3" t="s">
         <v>2452</v>
       </c>
       <c r="B2806" s="2" t="s">
@@ -36438,7 +36438,7 @@
       </c>
     </row>
     <row r="2807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2807" s="1" t="s">
+      <c r="A2807" s="3" t="s">
         <v>2453</v>
       </c>
       <c r="B2807" s="2" t="s">
@@ -36446,7 +36446,7 @@
       </c>
     </row>
     <row r="2808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2808" s="1" t="s">
+      <c r="A2808" s="3" t="s">
         <v>2454</v>
       </c>
       <c r="B2808" s="2" t="s">
@@ -36454,7 +36454,7 @@
       </c>
     </row>
     <row r="2809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2809" s="1" t="s">
+      <c r="A2809" s="3" t="s">
         <v>2455</v>
       </c>
       <c r="B2809" s="2" t="s">
@@ -36510,7 +36510,7 @@
       </c>
     </row>
     <row r="2816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2816" s="1" t="s">
+      <c r="A2816" s="3" t="s">
         <v>2460</v>
       </c>
       <c r="B2816" s="2" t="s">
@@ -36518,7 +36518,7 @@
       </c>
     </row>
     <row r="2817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2817" s="1" t="s">
+      <c r="A2817" s="3" t="s">
         <v>2461</v>
       </c>
       <c r="B2817" s="2" t="s">
@@ -36526,7 +36526,7 @@
       </c>
     </row>
     <row r="2818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2818" s="1" t="s">
+      <c r="A2818" s="3" t="s">
         <v>2463</v>
       </c>
       <c r="B2818" s="2" t="s">
@@ -36534,7 +36534,7 @@
       </c>
     </row>
     <row r="2819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2819" s="1" t="s">
+      <c r="A2819" s="3" t="s">
         <v>2463</v>
       </c>
       <c r="B2819" s="2" t="s">
@@ -36542,7 +36542,7 @@
       </c>
     </row>
     <row r="2820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2820" s="1" t="s">
+      <c r="A2820" s="3" t="s">
         <v>2465</v>
       </c>
       <c r="B2820" s="2" t="s">
@@ -39456,10 +39456,10 @@
   <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B106" activeCellId="1" sqref="B2665:C2668 B106"/>
+      <selection pane="topLeft" activeCell="B106" activeCellId="0" sqref="B106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
   </cols>
@@ -40643,10 +40643,10 @@
   <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="B2665:C2668 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.5"/>
   </cols>
@@ -41518,10 +41518,10 @@
   <dimension ref="A1:B2694"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1530" activeCellId="1" sqref="B2665:C2668 B1530"/>
+      <selection pane="topLeft" activeCell="B1530" activeCellId="0" sqref="B1530"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.01"/>

--- a/src/data/WisdomIndexes.xlsx
+++ b/src/data/WisdomIndexes.xlsx
@@ -13798,7 +13798,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -13819,14 +13818,12 @@
       <sz val="10"/>
       <name val="Fira Sans"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFF00"/>
       <name val="Fira Sans"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -13838,8 +13835,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3E2723"/>
-        <bgColor rgb="FF5D4037"/>
+        <fgColor rgb="FF2B0060"/>
+        <bgColor rgb="FF000080"/>
       </patternFill>
     </fill>
   </fills>
@@ -13919,7 +13916,7 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF2B0060"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
@@ -13960,11 +13957,11 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF5D4037"/>
+      <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF3E2723"/>
+      <rgbColor rgb="FF5D4037"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -13978,8 +13975,8 @@
   </sheetPr>
   <dimension ref="A1:B3181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2803" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2813" activeCellId="0" sqref="B2813"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2923" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2984" activeCellId="0" sqref="A2984"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36558,7 +36555,7 @@
       </c>
     </row>
     <row r="2822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2822" s="1" t="s">
+      <c r="A2822" s="3" t="s">
         <v>2467</v>
       </c>
       <c r="B2822" s="2" t="s">
@@ -36566,7 +36563,7 @@
       </c>
     </row>
     <row r="2823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2823" s="1" t="s">
+      <c r="A2823" s="3" t="s">
         <v>2469</v>
       </c>
       <c r="B2823" s="2" t="s">
@@ -36574,7 +36571,7 @@
       </c>
     </row>
     <row r="2824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2824" s="1" t="s">
+      <c r="A2824" s="3" t="s">
         <v>2469</v>
       </c>
       <c r="B2824" s="2" t="s">
@@ -36582,7 +36579,7 @@
       </c>
     </row>
     <row r="2825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2825" s="1" t="s">
+      <c r="A2825" s="3" t="s">
         <v>2471</v>
       </c>
       <c r="B2825" s="2" t="s">
@@ -36590,7 +36587,7 @@
       </c>
     </row>
     <row r="2826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2826" s="1" t="s">
+      <c r="A2826" s="3" t="s">
         <v>2473</v>
       </c>
       <c r="B2826" s="2" t="s">
@@ -36598,7 +36595,7 @@
       </c>
     </row>
     <row r="2827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2827" s="1" t="s">
+      <c r="A2827" s="3" t="s">
         <v>2474</v>
       </c>
       <c r="B2827" s="2" t="s">
@@ -36606,7 +36603,7 @@
       </c>
     </row>
     <row r="2828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2828" s="1" t="s">
+      <c r="A2828" s="3" t="s">
         <v>2474</v>
       </c>
       <c r="B2828" s="2" t="s">
@@ -36614,7 +36611,7 @@
       </c>
     </row>
     <row r="2829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2829" s="1" t="s">
+      <c r="A2829" s="3" t="s">
         <v>2476</v>
       </c>
       <c r="B2829" s="2" t="s">
@@ -36622,7 +36619,7 @@
       </c>
     </row>
     <row r="2830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2830" s="1" t="s">
+      <c r="A2830" s="3" t="s">
         <v>2477</v>
       </c>
       <c r="B2830" s="2" t="s">
@@ -36630,7 +36627,7 @@
       </c>
     </row>
     <row r="2831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2831" s="1" t="s">
+      <c r="A2831" s="3" t="s">
         <v>2477</v>
       </c>
       <c r="B2831" s="2" t="s">
@@ -36638,7 +36635,7 @@
       </c>
     </row>
     <row r="2832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2832" s="1" t="s">
+      <c r="A2832" s="3" t="s">
         <v>2479</v>
       </c>
       <c r="B2832" s="2" t="s">
@@ -36646,7 +36643,7 @@
       </c>
     </row>
     <row r="2833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2833" s="1" t="s">
+      <c r="A2833" s="3" t="s">
         <v>2479</v>
       </c>
       <c r="B2833" s="2" t="s">
@@ -36654,7 +36651,7 @@
       </c>
     </row>
     <row r="2834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2834" s="1" t="s">
+      <c r="A2834" s="3" t="s">
         <v>2480</v>
       </c>
       <c r="B2834" s="2" t="s">
@@ -36662,7 +36659,7 @@
       </c>
     </row>
     <row r="2835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2835" s="1" t="s">
+      <c r="A2835" s="3" t="s">
         <v>2480</v>
       </c>
       <c r="B2835" s="2" t="s">
@@ -36670,7 +36667,7 @@
       </c>
     </row>
     <row r="2836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2836" s="1" t="s">
+      <c r="A2836" s="3" t="s">
         <v>2482</v>
       </c>
       <c r="B2836" s="2" t="s">
@@ -36678,7 +36675,7 @@
       </c>
     </row>
     <row r="2837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2837" s="1" t="s">
+      <c r="A2837" s="3" t="s">
         <v>2484</v>
       </c>
       <c r="B2837" s="2" t="s">
@@ -36686,7 +36683,7 @@
       </c>
     </row>
     <row r="2838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2838" s="1" t="s">
+      <c r="A2838" s="3" t="s">
         <v>2485</v>
       </c>
       <c r="B2838" s="2" t="s">
@@ -36694,7 +36691,7 @@
       </c>
     </row>
     <row r="2839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2839" s="1" t="s">
+      <c r="A2839" s="3" t="s">
         <v>2487</v>
       </c>
       <c r="B2839" s="2" t="s">
@@ -36702,7 +36699,7 @@
       </c>
     </row>
     <row r="2840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2840" s="1" t="s">
+      <c r="A2840" s="3" t="s">
         <v>2487</v>
       </c>
       <c r="B2840" s="2" t="s">
@@ -36710,7 +36707,7 @@
       </c>
     </row>
     <row r="2841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2841" s="1" t="s">
+      <c r="A2841" s="3" t="s">
         <v>2488</v>
       </c>
       <c r="B2841" s="2" t="s">
@@ -36718,7 +36715,7 @@
       </c>
     </row>
     <row r="2842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2842" s="1" t="s">
+      <c r="A2842" s="3" t="s">
         <v>2488</v>
       </c>
       <c r="B2842" s="2" t="s">
@@ -36726,7 +36723,7 @@
       </c>
     </row>
     <row r="2843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2843" s="1" t="s">
+      <c r="A2843" s="3" t="s">
         <v>2489</v>
       </c>
       <c r="B2843" s="2" t="s">
@@ -36734,7 +36731,7 @@
       </c>
     </row>
     <row r="2844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2844" s="1" t="s">
+      <c r="A2844" s="3" t="s">
         <v>2489</v>
       </c>
       <c r="B2844" s="2" t="s">
@@ -36742,7 +36739,7 @@
       </c>
     </row>
     <row r="2845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2845" s="1" t="s">
+      <c r="A2845" s="3" t="s">
         <v>2489</v>
       </c>
       <c r="B2845" s="2" t="s">
@@ -36750,7 +36747,7 @@
       </c>
     </row>
     <row r="2846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2846" s="1" t="s">
+      <c r="A2846" s="3" t="s">
         <v>2490</v>
       </c>
       <c r="B2846" s="2" t="s">
@@ -36758,7 +36755,7 @@
       </c>
     </row>
     <row r="2847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2847" s="1" t="s">
+      <c r="A2847" s="3" t="s">
         <v>2491</v>
       </c>
       <c r="B2847" s="2" t="s">
@@ -36766,7 +36763,7 @@
       </c>
     </row>
     <row r="2848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2848" s="1" t="s">
+      <c r="A2848" s="3" t="s">
         <v>2493</v>
       </c>
       <c r="B2848" s="2" t="s">
@@ -36846,7 +36843,7 @@
       </c>
     </row>
     <row r="2858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2858" s="1" t="s">
+      <c r="A2858" s="3" t="s">
         <v>2503</v>
       </c>
       <c r="B2858" s="2" t="s">
@@ -36854,7 +36851,7 @@
       </c>
     </row>
     <row r="2859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2859" s="1" t="s">
+      <c r="A2859" s="3" t="s">
         <v>2504</v>
       </c>
       <c r="B2859" s="2" t="s">
@@ -36862,7 +36859,7 @@
       </c>
     </row>
     <row r="2860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2860" s="1" t="s">
+      <c r="A2860" s="3" t="s">
         <v>2506</v>
       </c>
       <c r="B2860" s="2" t="s">
@@ -36870,7 +36867,7 @@
       </c>
     </row>
     <row r="2861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2861" s="1" t="s">
+      <c r="A2861" s="3" t="s">
         <v>2507</v>
       </c>
       <c r="B2861" s="2" t="s">
@@ -36878,7 +36875,7 @@
       </c>
     </row>
     <row r="2862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2862" s="1" t="s">
+      <c r="A2862" s="3" t="s">
         <v>2508</v>
       </c>
       <c r="B2862" s="2" t="s">
@@ -36886,7 +36883,7 @@
       </c>
     </row>
     <row r="2863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2863" s="1" t="s">
+      <c r="A2863" s="3" t="s">
         <v>2508</v>
       </c>
       <c r="B2863" s="2" t="s">
@@ -36894,7 +36891,7 @@
       </c>
     </row>
     <row r="2864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2864" s="1" t="s">
+      <c r="A2864" s="3" t="s">
         <v>2508</v>
       </c>
       <c r="B2864" s="2" t="s">
@@ -36902,7 +36899,7 @@
       </c>
     </row>
     <row r="2865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2865" s="1" t="s">
+      <c r="A2865" s="3" t="s">
         <v>2508</v>
       </c>
       <c r="B2865" s="2" t="s">
@@ -36910,7 +36907,7 @@
       </c>
     </row>
     <row r="2866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2866" s="1" t="s">
+      <c r="A2866" s="3" t="s">
         <v>2510</v>
       </c>
       <c r="B2866" s="2" t="s">
@@ -36918,7 +36915,7 @@
       </c>
     </row>
     <row r="2867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2867" s="1" t="s">
+      <c r="A2867" s="3" t="s">
         <v>2512</v>
       </c>
       <c r="B2867" s="2" t="s">
@@ -36926,7 +36923,7 @@
       </c>
     </row>
     <row r="2868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2868" s="1" t="s">
+      <c r="A2868" s="3" t="s">
         <v>2513</v>
       </c>
       <c r="B2868" s="2" t="s">
@@ -36934,7 +36931,7 @@
       </c>
     </row>
     <row r="2869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2869" s="1" t="s">
+      <c r="A2869" s="3" t="s">
         <v>2514</v>
       </c>
       <c r="B2869" s="2" t="s">
@@ -36942,7 +36939,7 @@
       </c>
     </row>
     <row r="2870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2870" s="1" t="s">
+      <c r="A2870" s="3" t="s">
         <v>2515</v>
       </c>
       <c r="B2870" s="2" t="s">
@@ -36950,7 +36947,7 @@
       </c>
     </row>
     <row r="2871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2871" s="1" t="s">
+      <c r="A2871" s="3" t="s">
         <v>2517</v>
       </c>
       <c r="B2871" s="2" t="s">
@@ -36958,7 +36955,7 @@
       </c>
     </row>
     <row r="2872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2872" s="1" t="s">
+      <c r="A2872" s="3" t="s">
         <v>2518</v>
       </c>
       <c r="B2872" s="2" t="s">
@@ -36966,7 +36963,7 @@
       </c>
     </row>
     <row r="2873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2873" s="1" t="s">
+      <c r="A2873" s="3" t="s">
         <v>2518</v>
       </c>
       <c r="B2873" s="2" t="s">
@@ -36974,7 +36971,7 @@
       </c>
     </row>
     <row r="2874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2874" s="1" t="s">
+      <c r="A2874" s="3" t="s">
         <v>2519</v>
       </c>
       <c r="B2874" s="2" t="s">
@@ -36982,7 +36979,7 @@
       </c>
     </row>
     <row r="2875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2875" s="1" t="s">
+      <c r="A2875" s="3" t="s">
         <v>2519</v>
       </c>
       <c r="B2875" s="2" t="s">
@@ -36990,7 +36987,7 @@
       </c>
     </row>
     <row r="2876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2876" s="1" t="s">
+      <c r="A2876" s="3" t="s">
         <v>2521</v>
       </c>
       <c r="B2876" s="2" t="s">
@@ -36998,7 +36995,7 @@
       </c>
     </row>
     <row r="2877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2877" s="1" t="s">
+      <c r="A2877" s="3" t="s">
         <v>2521</v>
       </c>
       <c r="B2877" s="2" t="s">
@@ -37006,7 +37003,7 @@
       </c>
     </row>
     <row r="2878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2878" s="1" t="s">
+      <c r="A2878" s="3" t="s">
         <v>2523</v>
       </c>
       <c r="B2878" s="2" t="s">
@@ -37014,7 +37011,7 @@
       </c>
     </row>
     <row r="2879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2879" s="1" t="s">
+      <c r="A2879" s="3" t="s">
         <v>2524</v>
       </c>
       <c r="B2879" s="2" t="s">
@@ -37022,7 +37019,7 @@
       </c>
     </row>
     <row r="2880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2880" s="1" t="s">
+      <c r="A2880" s="3" t="s">
         <v>2525</v>
       </c>
       <c r="B2880" s="2" t="s">
@@ -37030,7 +37027,7 @@
       </c>
     </row>
     <row r="2881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2881" s="1" t="s">
+      <c r="A2881" s="3" t="s">
         <v>2526</v>
       </c>
       <c r="B2881" s="2" t="s">
@@ -37038,7 +37035,7 @@
       </c>
     </row>
     <row r="2882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2882" s="1" t="s">
+      <c r="A2882" s="3" t="s">
         <v>2527</v>
       </c>
       <c r="B2882" s="2" t="s">
@@ -37046,7 +37043,7 @@
       </c>
     </row>
     <row r="2883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2883" s="1" t="s">
+      <c r="A2883" s="3" t="s">
         <v>2528</v>
       </c>
       <c r="B2883" s="2" t="s">
@@ -37054,7 +37051,7 @@
       </c>
     </row>
     <row r="2884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2884" s="1" t="s">
+      <c r="A2884" s="3" t="s">
         <v>2529</v>
       </c>
       <c r="B2884" s="2" t="s">
@@ -37062,7 +37059,7 @@
       </c>
     </row>
     <row r="2885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2885" s="1" t="s">
+      <c r="A2885" s="3" t="s">
         <v>2529</v>
       </c>
       <c r="B2885" s="2" t="s">
@@ -37070,7 +37067,7 @@
       </c>
     </row>
     <row r="2886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2886" s="1" t="s">
+      <c r="A2886" s="3" t="s">
         <v>2529</v>
       </c>
       <c r="B2886" s="2" t="s">
@@ -37078,7 +37075,7 @@
       </c>
     </row>
     <row r="2887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2887" s="1" t="s">
+      <c r="A2887" s="3" t="s">
         <v>2529</v>
       </c>
       <c r="B2887" s="2" t="s">
@@ -37086,7 +37083,7 @@
       </c>
     </row>
     <row r="2888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2888" s="1" t="s">
+      <c r="A2888" s="3" t="s">
         <v>2529</v>
       </c>
       <c r="B2888" s="2" t="s">
@@ -37094,7 +37091,7 @@
       </c>
     </row>
     <row r="2889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2889" s="1" t="s">
+      <c r="A2889" s="3" t="s">
         <v>2532</v>
       </c>
       <c r="B2889" s="2" t="s">
@@ -37102,7 +37099,7 @@
       </c>
     </row>
     <row r="2890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2890" s="1" t="s">
+      <c r="A2890" s="3" t="s">
         <v>2534</v>
       </c>
       <c r="B2890" s="2" t="s">
@@ -37110,7 +37107,7 @@
       </c>
     </row>
     <row r="2891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2891" s="1" t="s">
+      <c r="A2891" s="3" t="s">
         <v>2534</v>
       </c>
       <c r="B2891" s="2" t="s">
@@ -37118,7 +37115,7 @@
       </c>
     </row>
     <row r="2892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2892" s="1" t="s">
+      <c r="A2892" s="3" t="s">
         <v>2534</v>
       </c>
       <c r="B2892" s="2" t="s">
@@ -37126,7 +37123,7 @@
       </c>
     </row>
     <row r="2893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2893" s="1" t="s">
+      <c r="A2893" s="3" t="s">
         <v>2534</v>
       </c>
       <c r="B2893" s="2" t="s">
@@ -37134,7 +37131,7 @@
       </c>
     </row>
     <row r="2894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2894" s="1" t="s">
+      <c r="A2894" s="3" t="s">
         <v>2535</v>
       </c>
       <c r="B2894" s="2" t="s">
@@ -37254,7 +37251,7 @@
       </c>
     </row>
     <row r="2909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2909" s="1" t="s">
+      <c r="A2909" s="3" t="s">
         <v>2548</v>
       </c>
       <c r="B2909" s="2" t="s">
@@ -37262,7 +37259,7 @@
       </c>
     </row>
     <row r="2910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2910" s="1" t="s">
+      <c r="A2910" s="3" t="s">
         <v>2549</v>
       </c>
       <c r="B2910" s="2" t="s">
@@ -37270,7 +37267,7 @@
       </c>
     </row>
     <row r="2911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2911" s="1" t="s">
+      <c r="A2911" s="3" t="s">
         <v>2549</v>
       </c>
       <c r="B2911" s="2" t="s">
@@ -37278,7 +37275,7 @@
       </c>
     </row>
     <row r="2912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2912" s="1" t="s">
+      <c r="A2912" s="3" t="s">
         <v>2550</v>
       </c>
       <c r="B2912" s="2" t="s">
@@ -37286,7 +37283,7 @@
       </c>
     </row>
     <row r="2913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2913" s="1" t="s">
+      <c r="A2913" s="3" t="s">
         <v>2550</v>
       </c>
       <c r="B2913" s="2" t="s">
@@ -37294,7 +37291,7 @@
       </c>
     </row>
     <row r="2914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2914" s="1" t="s">
+      <c r="A2914" s="3" t="s">
         <v>2550</v>
       </c>
       <c r="B2914" s="2" t="s">
@@ -37302,7 +37299,7 @@
       </c>
     </row>
     <row r="2915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2915" s="1" t="s">
+      <c r="A2915" s="3" t="s">
         <v>2550</v>
       </c>
       <c r="B2915" s="2" t="s">
@@ -37310,7 +37307,7 @@
       </c>
     </row>
     <row r="2916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2916" s="1" t="s">
+      <c r="A2916" s="3" t="s">
         <v>2550</v>
       </c>
       <c r="B2916" s="2" t="s">
@@ -37318,7 +37315,7 @@
       </c>
     </row>
     <row r="2917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2917" s="1" t="s">
+      <c r="A2917" s="3" t="s">
         <v>2551</v>
       </c>
       <c r="B2917" s="2" t="s">
@@ -37326,7 +37323,7 @@
       </c>
     </row>
     <row r="2918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2918" s="1" t="s">
+      <c r="A2918" s="3" t="s">
         <v>2552</v>
       </c>
       <c r="B2918" s="2" t="s">
@@ -37334,7 +37331,7 @@
       </c>
     </row>
     <row r="2919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2919" s="1" t="s">
+      <c r="A2919" s="3" t="s">
         <v>2553</v>
       </c>
       <c r="B2919" s="2" t="s">
@@ -37342,7 +37339,7 @@
       </c>
     </row>
     <row r="2920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2920" s="1" t="s">
+      <c r="A2920" s="3" t="s">
         <v>2554</v>
       </c>
       <c r="B2920" s="2" t="s">
@@ -37350,7 +37347,7 @@
       </c>
     </row>
     <row r="2921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2921" s="1" t="s">
+      <c r="A2921" s="3" t="s">
         <v>2554</v>
       </c>
       <c r="B2921" s="2" t="s">
@@ -37358,7 +37355,7 @@
       </c>
     </row>
     <row r="2922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2922" s="1" t="s">
+      <c r="A2922" s="3" t="s">
         <v>2554</v>
       </c>
       <c r="B2922" s="2" t="s">
@@ -37366,7 +37363,7 @@
       </c>
     </row>
     <row r="2923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2923" s="1" t="s">
+      <c r="A2923" s="3" t="s">
         <v>2554</v>
       </c>
       <c r="B2923" s="2" t="s">
@@ -37374,7 +37371,7 @@
       </c>
     </row>
     <row r="2924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2924" s="1" t="s">
+      <c r="A2924" s="3" t="s">
         <v>2554</v>
       </c>
       <c r="B2924" s="2" t="s">
@@ -37382,7 +37379,7 @@
       </c>
     </row>
     <row r="2925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2925" s="1" t="s">
+      <c r="A2925" s="3" t="s">
         <v>2554</v>
       </c>
       <c r="B2925" s="2" t="s">
@@ -37390,7 +37387,7 @@
       </c>
     </row>
     <row r="2926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2926" s="1" t="s">
+      <c r="A2926" s="3" t="s">
         <v>2554</v>
       </c>
       <c r="B2926" s="2" t="s">
@@ -37398,7 +37395,7 @@
       </c>
     </row>
     <row r="2927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2927" s="1" t="s">
+      <c r="A2927" s="3" t="s">
         <v>2554</v>
       </c>
       <c r="B2927" s="2" t="s">
@@ -37406,7 +37403,7 @@
       </c>
     </row>
     <row r="2928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2928" s="1" t="s">
+      <c r="A2928" s="3" t="s">
         <v>2554</v>
       </c>
       <c r="B2928" s="2" t="s">
@@ -37414,7 +37411,7 @@
       </c>
     </row>
     <row r="2929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2929" s="1" t="s">
+      <c r="A2929" s="3" t="s">
         <v>2555</v>
       </c>
       <c r="B2929" s="2" t="s">
@@ -37422,7 +37419,7 @@
       </c>
     </row>
     <row r="2930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2930" s="1" t="s">
+      <c r="A2930" s="3" t="s">
         <v>2556</v>
       </c>
       <c r="B2930" s="2" t="s">
@@ -37430,7 +37427,7 @@
       </c>
     </row>
     <row r="2931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2931" s="1" t="s">
+      <c r="A2931" s="3" t="s">
         <v>2557</v>
       </c>
       <c r="B2931" s="2" t="s">
@@ -37854,7 +37851,7 @@
       </c>
     </row>
     <row r="2984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2984" s="1" t="s">
+      <c r="A2984" s="3" t="s">
         <v>2592</v>
       </c>
       <c r="B2984" s="2" t="s">
@@ -37862,7 +37859,7 @@
       </c>
     </row>
     <row r="2985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2985" s="1" t="s">
+      <c r="A2985" s="3" t="s">
         <v>2592</v>
       </c>
       <c r="B2985" s="2" t="s">
@@ -37870,7 +37867,7 @@
       </c>
     </row>
     <row r="2986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2986" s="1" t="s">
+      <c r="A2986" s="3" t="s">
         <v>2594</v>
       </c>
       <c r="B2986" s="2" t="s">
@@ -37878,7 +37875,7 @@
       </c>
     </row>
     <row r="2987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2987" s="1" t="s">
+      <c r="A2987" s="3" t="s">
         <v>2595</v>
       </c>
       <c r="B2987" s="2" t="s">
@@ -37886,7 +37883,7 @@
       </c>
     </row>
     <row r="2988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2988" s="1" t="s">
+      <c r="A2988" s="3" t="s">
         <v>2596</v>
       </c>
       <c r="B2988" s="2" t="s">
@@ -37894,7 +37891,7 @@
       </c>
     </row>
     <row r="2989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2989" s="1" t="s">
+      <c r="A2989" s="3" t="s">
         <v>2597</v>
       </c>
       <c r="B2989" s="2" t="s">
@@ -37902,7 +37899,7 @@
       </c>
     </row>
     <row r="2990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2990" s="1" t="s">
+      <c r="A2990" s="3" t="s">
         <v>2598</v>
       </c>
       <c r="B2990" s="2" t="s">
@@ -37910,7 +37907,7 @@
       </c>
     </row>
     <row r="2991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2991" s="1" t="s">
+      <c r="A2991" s="3" t="s">
         <v>2599</v>
       </c>
       <c r="B2991" s="2" t="s">
@@ -37918,7 +37915,7 @@
       </c>
     </row>
     <row r="2992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2992" s="1" t="s">
+      <c r="A2992" s="3" t="s">
         <v>2600</v>
       </c>
       <c r="B2992" s="2" t="s">
@@ -37926,7 +37923,7 @@
       </c>
     </row>
     <row r="2993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2993" s="1" t="s">
+      <c r="A2993" s="3" t="s">
         <v>2601</v>
       </c>
       <c r="B2993" s="2" t="s">
@@ -37934,7 +37931,7 @@
       </c>
     </row>
     <row r="2994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2994" s="1" t="s">
+      <c r="A2994" s="3" t="s">
         <v>2603</v>
       </c>
       <c r="B2994" s="2" t="s">
@@ -37942,7 +37939,7 @@
       </c>
     </row>
     <row r="2995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2995" s="1" t="s">
+      <c r="A2995" s="3" t="s">
         <v>2605</v>
       </c>
       <c r="B2995" s="2" t="s">
@@ -37950,7 +37947,7 @@
       </c>
     </row>
     <row r="2996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2996" s="1" t="s">
+      <c r="A2996" s="3" t="s">
         <v>2606</v>
       </c>
       <c r="B2996" s="2" t="s">
@@ -37958,7 +37955,7 @@
       </c>
     </row>
     <row r="2997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2997" s="1" t="s">
+      <c r="A2997" s="3" t="s">
         <v>2608</v>
       </c>
       <c r="B2997" s="2" t="s">
@@ -37966,7 +37963,7 @@
       </c>
     </row>
     <row r="2998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2998" s="1" t="s">
+      <c r="A2998" s="3" t="s">
         <v>2609</v>
       </c>
       <c r="B2998" s="2" t="s">
@@ -37974,7 +37971,7 @@
       </c>
     </row>
     <row r="2999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2999" s="1" t="s">
+      <c r="A2999" s="3" t="s">
         <v>2609</v>
       </c>
       <c r="B2999" s="2" t="s">
@@ -37982,7 +37979,7 @@
       </c>
     </row>
     <row r="3000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3000" s="1" t="s">
+      <c r="A3000" s="3" t="s">
         <v>2610</v>
       </c>
       <c r="B3000" s="2" t="s">
@@ -37990,7 +37987,7 @@
       </c>
     </row>
     <row r="3001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3001" s="1" t="s">
+      <c r="A3001" s="3" t="s">
         <v>2611</v>
       </c>
       <c r="B3001" s="2" t="s">
@@ -37998,7 +37995,7 @@
       </c>
     </row>
     <row r="3002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3002" s="1" t="s">
+      <c r="A3002" s="3" t="s">
         <v>2612</v>
       </c>
       <c r="B3002" s="2" t="s">
@@ -38006,7 +38003,7 @@
       </c>
     </row>
     <row r="3003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3003" s="1" t="s">
+      <c r="A3003" s="3" t="s">
         <v>2613</v>
       </c>
       <c r="B3003" s="2" t="s">
@@ -38014,7 +38011,7 @@
       </c>
     </row>
     <row r="3004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3004" s="1" t="s">
+      <c r="A3004" s="3" t="s">
         <v>2614</v>
       </c>
       <c r="B3004" s="2" t="s">
@@ -38022,7 +38019,7 @@
       </c>
     </row>
     <row r="3005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3005" s="1" t="s">
+      <c r="A3005" s="3" t="s">
         <v>2615</v>
       </c>
       <c r="B3005" s="2" t="s">
@@ -38030,7 +38027,7 @@
       </c>
     </row>
     <row r="3006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3006" s="1" t="s">
+      <c r="A3006" s="3" t="s">
         <v>2616</v>
       </c>
       <c r="B3006" s="2" t="s">
@@ -38038,7 +38035,7 @@
       </c>
     </row>
     <row r="3007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3007" s="1" t="s">
+      <c r="A3007" s="3" t="s">
         <v>2617</v>
       </c>
       <c r="B3007" s="2" t="s">
@@ -38046,7 +38043,7 @@
       </c>
     </row>
     <row r="3008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3008" s="1" t="s">
+      <c r="A3008" s="3" t="s">
         <v>2618</v>
       </c>
       <c r="B3008" s="2" t="s">
@@ -38054,7 +38051,7 @@
       </c>
     </row>
     <row r="3009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3009" s="1" t="s">
+      <c r="A3009" s="3" t="s">
         <v>2619</v>
       </c>
       <c r="B3009" s="2" t="s">
@@ -38062,7 +38059,7 @@
       </c>
     </row>
     <row r="3010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3010" s="1" t="s">
+      <c r="A3010" s="3" t="s">
         <v>2620</v>
       </c>
       <c r="B3010" s="2" t="s">
@@ -38070,7 +38067,7 @@
       </c>
     </row>
     <row r="3011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3011" s="1" t="s">
+      <c r="A3011" s="3" t="s">
         <v>2620</v>
       </c>
       <c r="B3011" s="2" t="s">
@@ -39455,11 +39452,11 @@
   </sheetPr>
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B106" activeCellId="0" sqref="B106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
   </cols>
@@ -40642,11 +40639,11 @@
   </sheetPr>
   <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.5"/>
   </cols>
@@ -41517,11 +41514,11 @@
   </sheetPr>
   <dimension ref="A1:B2694"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1530" activeCellId="0" sqref="B1530"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.01"/>

--- a/src/data/WisdomIndexes.xlsx
+++ b/src/data/WisdomIndexes.xlsx
@@ -13760,8 +13760,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Fira Sans"/>
+      <color rgb="FF880E4F"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -13853,16 +13853,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -13892,7 +13892,7 @@
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF880E4F"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
@@ -13949,8 +13949,8 @@
   </sheetPr>
   <dimension ref="A1:B3327"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3281" activeCellId="0" sqref="D3281"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3204" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3207" activeCellId="0" sqref="B3207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29977,7 +29977,7 @@
       </c>
     </row>
     <row r="2003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2003" s="3" t="s">
+      <c r="A2003" s="1" t="s">
         <v>1830</v>
       </c>
       <c r="B2003" s="2" t="s">
@@ -29985,7 +29985,7 @@
       </c>
     </row>
     <row r="2004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2004" s="3" t="s">
+      <c r="A2004" s="1" t="s">
         <v>1830</v>
       </c>
       <c r="B2004" s="2" t="s">
@@ -29993,7 +29993,7 @@
       </c>
     </row>
     <row r="2005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2005" s="3" t="s">
+      <c r="A2005" s="1" t="s">
         <v>1831</v>
       </c>
       <c r="B2005" s="2" t="s">
@@ -30001,7 +30001,7 @@
       </c>
     </row>
     <row r="2006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2006" s="3" t="s">
+      <c r="A2006" s="1" t="s">
         <v>1831</v>
       </c>
       <c r="B2006" s="2" t="s">
@@ -30009,7 +30009,7 @@
       </c>
     </row>
     <row r="2007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2007" s="3" t="s">
+      <c r="A2007" s="1" t="s">
         <v>1831</v>
       </c>
       <c r="B2007" s="2" t="s">
@@ -30017,7 +30017,7 @@
       </c>
     </row>
     <row r="2008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2008" s="3" t="s">
+      <c r="A2008" s="1" t="s">
         <v>1832</v>
       </c>
       <c r="B2008" s="2" t="s">
@@ -30025,7 +30025,7 @@
       </c>
     </row>
     <row r="2009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2009" s="3" t="s">
+      <c r="A2009" s="1" t="s">
         <v>1833</v>
       </c>
       <c r="B2009" s="2" t="s">
@@ -30033,7 +30033,7 @@
       </c>
     </row>
     <row r="2010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2010" s="3" t="s">
+      <c r="A2010" s="1" t="s">
         <v>1833</v>
       </c>
       <c r="B2010" s="2" t="s">
@@ -30041,7 +30041,7 @@
       </c>
     </row>
     <row r="2011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2011" s="3" t="s">
+      <c r="A2011" s="1" t="s">
         <v>1834</v>
       </c>
       <c r="B2011" s="2" t="s">
@@ -30049,7 +30049,7 @@
       </c>
     </row>
     <row r="2012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2012" s="3" t="s">
+      <c r="A2012" s="1" t="s">
         <v>1835</v>
       </c>
       <c r="B2012" s="2" t="s">
@@ -31777,7 +31777,7 @@
       </c>
     </row>
     <row r="2228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2228" s="3" t="s">
+      <c r="A2228" s="1" t="s">
         <v>2009</v>
       </c>
       <c r="B2228" s="2" t="s">
@@ -31785,7 +31785,7 @@
       </c>
     </row>
     <row r="2229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2229" s="3" t="s">
+      <c r="A2229" s="1" t="s">
         <v>2010</v>
       </c>
       <c r="B2229" s="2" t="s">
@@ -31793,7 +31793,7 @@
       </c>
     </row>
     <row r="2230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2230" s="3" t="s">
+      <c r="A2230" s="1" t="s">
         <v>2011</v>
       </c>
       <c r="B2230" s="2" t="s">
@@ -31801,7 +31801,7 @@
       </c>
     </row>
     <row r="2231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2231" s="3" t="s">
+      <c r="A2231" s="1" t="s">
         <v>2012</v>
       </c>
       <c r="B2231" s="2" t="s">
@@ -31809,7 +31809,7 @@
       </c>
     </row>
     <row r="2232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2232" s="3" t="s">
+      <c r="A2232" s="1" t="s">
         <v>2013</v>
       </c>
       <c r="B2232" s="2" t="s">
@@ -31817,7 +31817,7 @@
       </c>
     </row>
     <row r="2233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2233" s="3" t="s">
+      <c r="A2233" s="1" t="s">
         <v>2015</v>
       </c>
       <c r="B2233" s="2" t="s">
@@ -31825,7 +31825,7 @@
       </c>
     </row>
     <row r="2234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2234" s="3" t="s">
+      <c r="A2234" s="1" t="s">
         <v>2017</v>
       </c>
       <c r="B2234" s="2" t="s">
@@ -31833,7 +31833,7 @@
       </c>
     </row>
     <row r="2235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2235" s="3" t="s">
+      <c r="A2235" s="1" t="s">
         <v>2018</v>
       </c>
       <c r="B2235" s="2" t="s">
@@ -31841,7 +31841,7 @@
       </c>
     </row>
     <row r="2236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2236" s="3" t="s">
+      <c r="A2236" s="1" t="s">
         <v>2019</v>
       </c>
       <c r="B2236" s="2" t="s">
@@ -31849,7 +31849,7 @@
       </c>
     </row>
     <row r="2237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2237" s="3" t="s">
+      <c r="A2237" s="1" t="s">
         <v>2020</v>
       </c>
       <c r="B2237" s="2" t="s">
@@ -31857,7 +31857,7 @@
       </c>
     </row>
     <row r="2238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2238" s="3" t="s">
+      <c r="A2238" s="1" t="s">
         <v>2020</v>
       </c>
       <c r="B2238" s="2" t="s">
@@ -31865,7 +31865,7 @@
       </c>
     </row>
     <row r="2239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2239" s="3" t="s">
+      <c r="A2239" s="1" t="s">
         <v>2023</v>
       </c>
       <c r="B2239" s="2" t="s">
@@ -31873,7 +31873,7 @@
       </c>
     </row>
     <row r="2240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2240" s="3" t="s">
+      <c r="A2240" s="1" t="s">
         <v>2025</v>
       </c>
       <c r="B2240" s="2" t="s">
@@ -31881,7 +31881,7 @@
       </c>
     </row>
     <row r="2241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2241" s="3" t="s">
+      <c r="A2241" s="1" t="s">
         <v>2025</v>
       </c>
       <c r="B2241" s="2" t="s">
@@ -31889,7 +31889,7 @@
       </c>
     </row>
     <row r="2242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2242" s="3" t="s">
+      <c r="A2242" s="1" t="s">
         <v>2026</v>
       </c>
       <c r="B2242" s="2" t="s">
@@ -31897,7 +31897,7 @@
       </c>
     </row>
     <row r="2243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2243" s="3" t="s">
+      <c r="A2243" s="1" t="s">
         <v>2026</v>
       </c>
       <c r="B2243" s="2" t="s">
@@ -31905,7 +31905,7 @@
       </c>
     </row>
     <row r="2244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2244" s="3" t="s">
+      <c r="A2244" s="1" t="s">
         <v>2026</v>
       </c>
       <c r="B2244" s="2" t="s">
@@ -31913,7 +31913,7 @@
       </c>
     </row>
     <row r="2245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2245" s="3" t="s">
+      <c r="A2245" s="1" t="s">
         <v>2028</v>
       </c>
       <c r="B2245" s="2" t="s">
@@ -31921,7 +31921,7 @@
       </c>
     </row>
     <row r="2246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2246" s="3" t="s">
+      <c r="A2246" s="1" t="s">
         <v>2030</v>
       </c>
       <c r="B2246" s="2" t="s">
@@ -31929,7 +31929,7 @@
       </c>
     </row>
     <row r="2247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2247" s="3" t="s">
+      <c r="A2247" s="1" t="s">
         <v>2031</v>
       </c>
       <c r="B2247" s="2" t="s">
@@ -31937,7 +31937,7 @@
       </c>
     </row>
     <row r="2248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2248" s="3" t="s">
+      <c r="A2248" s="1" t="s">
         <v>2032</v>
       </c>
       <c r="B2248" s="2" t="s">
@@ -31945,7 +31945,7 @@
       </c>
     </row>
     <row r="2249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2249" s="3" t="s">
+      <c r="A2249" s="1" t="s">
         <v>2032</v>
       </c>
       <c r="B2249" s="2" t="s">
@@ -31953,7 +31953,7 @@
       </c>
     </row>
     <row r="2250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2250" s="3" t="s">
+      <c r="A2250" s="1" t="s">
         <v>2032</v>
       </c>
       <c r="B2250" s="2" t="s">
@@ -31961,7 +31961,7 @@
       </c>
     </row>
     <row r="2251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2251" s="3" t="s">
+      <c r="A2251" s="1" t="s">
         <v>2032</v>
       </c>
       <c r="B2251" s="2" t="s">
@@ -31969,7 +31969,7 @@
       </c>
     </row>
     <row r="2252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2252" s="3" t="s">
+      <c r="A2252" s="1" t="s">
         <v>2032</v>
       </c>
       <c r="B2252" s="2" t="s">
@@ -31977,7 +31977,7 @@
       </c>
     </row>
     <row r="2253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2253" s="3" t="s">
+      <c r="A2253" s="1" t="s">
         <v>2032</v>
       </c>
       <c r="B2253" s="2" t="s">
@@ -31985,7 +31985,7 @@
       </c>
     </row>
     <row r="2254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2254" s="3" t="s">
+      <c r="A2254" s="1" t="s">
         <v>2032</v>
       </c>
       <c r="B2254" s="2" t="s">
@@ -31993,7 +31993,7 @@
       </c>
     </row>
     <row r="2255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2255" s="3" t="s">
+      <c r="A2255" s="1" t="s">
         <v>2032</v>
       </c>
       <c r="B2255" s="2" t="s">
@@ -32001,7 +32001,7 @@
       </c>
     </row>
     <row r="2256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2256" s="3" t="s">
+      <c r="A2256" s="1" t="s">
         <v>2033</v>
       </c>
       <c r="B2256" s="2" t="s">
@@ -32009,7 +32009,7 @@
       </c>
     </row>
     <row r="2257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2257" s="3" t="s">
+      <c r="A2257" s="1" t="s">
         <v>2034</v>
       </c>
       <c r="B2257" s="2" t="s">
@@ -32017,7 +32017,7 @@
       </c>
     </row>
     <row r="2258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2258" s="3" t="s">
+      <c r="A2258" s="1" t="s">
         <v>2035</v>
       </c>
       <c r="B2258" s="2" t="s">
@@ -32025,7 +32025,7 @@
       </c>
     </row>
     <row r="2259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2259" s="3" t="s">
+      <c r="A2259" s="1" t="s">
         <v>2036</v>
       </c>
       <c r="B2259" s="2" t="s">
@@ -32033,7 +32033,7 @@
       </c>
     </row>
     <row r="2260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2260" s="3" t="s">
+      <c r="A2260" s="1" t="s">
         <v>2037</v>
       </c>
       <c r="B2260" s="2" t="s">
@@ -32177,7 +32177,7 @@
       </c>
     </row>
     <row r="2278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2278" s="3" t="s">
+      <c r="A2278" s="1" t="s">
         <v>2049</v>
       </c>
       <c r="B2278" s="2" t="s">
@@ -32185,7 +32185,7 @@
       </c>
     </row>
     <row r="2279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2279" s="3" t="s">
+      <c r="A2279" s="1" t="s">
         <v>2050</v>
       </c>
       <c r="B2279" s="2" t="s">
@@ -32193,7 +32193,7 @@
       </c>
     </row>
     <row r="2280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2280" s="3" t="s">
+      <c r="A2280" s="1" t="s">
         <v>2051</v>
       </c>
       <c r="B2280" s="2" t="s">
@@ -32201,7 +32201,7 @@
       </c>
     </row>
     <row r="2281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2281" s="3" t="s">
+      <c r="A2281" s="1" t="s">
         <v>2052</v>
       </c>
       <c r="B2281" s="2" t="s">
@@ -32209,7 +32209,7 @@
       </c>
     </row>
     <row r="2282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2282" s="3" t="s">
+      <c r="A2282" s="1" t="s">
         <v>2053</v>
       </c>
       <c r="B2282" s="2" t="s">
@@ -32217,7 +32217,7 @@
       </c>
     </row>
     <row r="2283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2283" s="3" t="s">
+      <c r="A2283" s="1" t="s">
         <v>2054</v>
       </c>
       <c r="B2283" s="2" t="s">
@@ -32225,7 +32225,7 @@
       </c>
     </row>
     <row r="2284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2284" s="3" t="s">
+      <c r="A2284" s="1" t="s">
         <v>2055</v>
       </c>
       <c r="B2284" s="2" t="s">
@@ -32233,7 +32233,7 @@
       </c>
     </row>
     <row r="2285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2285" s="3" t="s">
+      <c r="A2285" s="1" t="s">
         <v>2055</v>
       </c>
       <c r="B2285" s="2" t="s">
@@ -32241,7 +32241,7 @@
       </c>
     </row>
     <row r="2286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2286" s="3" t="s">
+      <c r="A2286" s="1" t="s">
         <v>2055</v>
       </c>
       <c r="B2286" s="2" t="s">
@@ -32249,7 +32249,7 @@
       </c>
     </row>
     <row r="2287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2287" s="3" t="s">
+      <c r="A2287" s="1" t="s">
         <v>2055</v>
       </c>
       <c r="B2287" s="2" t="s">
@@ -32257,7 +32257,7 @@
       </c>
     </row>
     <row r="2288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2288" s="3" t="s">
+      <c r="A2288" s="1" t="s">
         <v>2055</v>
       </c>
       <c r="B2288" s="2" t="s">
@@ -32265,7 +32265,7 @@
       </c>
     </row>
     <row r="2289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2289" s="3" t="s">
+      <c r="A2289" s="1" t="s">
         <v>2055</v>
       </c>
       <c r="B2289" s="2" t="s">
@@ -32273,7 +32273,7 @@
       </c>
     </row>
     <row r="2290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2290" s="3" t="s">
+      <c r="A2290" s="1" t="s">
         <v>2055</v>
       </c>
       <c r="B2290" s="2" t="s">
@@ -32281,7 +32281,7 @@
       </c>
     </row>
     <row r="2291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2291" s="3" t="s">
+      <c r="A2291" s="1" t="s">
         <v>2055</v>
       </c>
       <c r="B2291" s="2" t="s">
@@ -32289,7 +32289,7 @@
       </c>
     </row>
     <row r="2292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2292" s="3" t="s">
+      <c r="A2292" s="1" t="s">
         <v>2057</v>
       </c>
       <c r="B2292" s="2" t="s">
@@ -32297,7 +32297,7 @@
       </c>
     </row>
     <row r="2293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2293" s="3" t="s">
+      <c r="A2293" s="1" t="s">
         <v>2058</v>
       </c>
       <c r="B2293" s="2" t="s">
@@ -32305,7 +32305,7 @@
       </c>
     </row>
     <row r="2294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2294" s="3" t="s">
+      <c r="A2294" s="1" t="s">
         <v>2059</v>
       </c>
       <c r="B2294" s="2" t="s">
@@ -32313,7 +32313,7 @@
       </c>
     </row>
     <row r="2295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2295" s="3" t="s">
+      <c r="A2295" s="1" t="s">
         <v>2060</v>
       </c>
       <c r="B2295" s="2" t="s">
@@ -32321,7 +32321,7 @@
       </c>
     </row>
     <row r="2296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2296" s="3" t="s">
+      <c r="A2296" s="1" t="s">
         <v>2061</v>
       </c>
       <c r="B2296" s="2" t="s">
@@ -32329,7 +32329,7 @@
       </c>
     </row>
     <row r="2297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2297" s="3" t="s">
+      <c r="A2297" s="1" t="s">
         <v>2062</v>
       </c>
       <c r="B2297" s="2" t="s">
@@ -32337,7 +32337,7 @@
       </c>
     </row>
     <row r="2298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2298" s="3" t="s">
+      <c r="A2298" s="1" t="s">
         <v>2063</v>
       </c>
       <c r="B2298" s="2" t="s">
@@ -32345,7 +32345,7 @@
       </c>
     </row>
     <row r="2299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2299" s="3" t="s">
+      <c r="A2299" s="1" t="s">
         <v>2063</v>
       </c>
       <c r="B2299" s="2" t="s">
@@ -32353,7 +32353,7 @@
       </c>
     </row>
     <row r="2300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2300" s="3" t="s">
+      <c r="A2300" s="1" t="s">
         <v>2063</v>
       </c>
       <c r="B2300" s="2" t="s">
@@ -32361,7 +32361,7 @@
       </c>
     </row>
     <row r="2301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2301" s="3" t="s">
+      <c r="A2301" s="1" t="s">
         <v>2063</v>
       </c>
       <c r="B2301" s="2" t="s">
@@ -32369,7 +32369,7 @@
       </c>
     </row>
     <row r="2302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2302" s="3" t="s">
+      <c r="A2302" s="1" t="s">
         <v>2063</v>
       </c>
       <c r="B2302" s="2" t="s">
@@ -32377,7 +32377,7 @@
       </c>
     </row>
     <row r="2303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2303" s="3" t="s">
+      <c r="A2303" s="1" t="s">
         <v>2065</v>
       </c>
       <c r="B2303" s="2" t="s">
@@ -32385,7 +32385,7 @@
       </c>
     </row>
     <row r="2304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2304" s="3" t="s">
+      <c r="A2304" s="1" t="s">
         <v>2066</v>
       </c>
       <c r="B2304" s="2" t="s">
@@ -32393,7 +32393,7 @@
       </c>
     </row>
     <row r="2305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2305" s="3" t="s">
+      <c r="A2305" s="1" t="s">
         <v>2067</v>
       </c>
       <c r="B2305" s="2" t="s">
@@ -32401,7 +32401,7 @@
       </c>
     </row>
     <row r="2306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2306" s="3" t="s">
+      <c r="A2306" s="1" t="s">
         <v>2068</v>
       </c>
       <c r="B2306" s="2" t="s">
@@ -32409,7 +32409,7 @@
       </c>
     </row>
     <row r="2307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2307" s="3" t="s">
+      <c r="A2307" s="1" t="s">
         <v>2068</v>
       </c>
       <c r="B2307" s="2" t="s">
@@ -32417,7 +32417,7 @@
       </c>
     </row>
     <row r="2308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2308" s="3" t="s">
+      <c r="A2308" s="1" t="s">
         <v>2069</v>
       </c>
       <c r="B2308" s="2" t="s">
@@ -32425,7 +32425,7 @@
       </c>
     </row>
     <row r="2309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2309" s="3" t="s">
+      <c r="A2309" s="1" t="s">
         <v>2070</v>
       </c>
       <c r="B2309" s="2" t="s">
@@ -32433,7 +32433,7 @@
       </c>
     </row>
     <row r="2310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2310" s="3" t="s">
+      <c r="A2310" s="1" t="s">
         <v>2070</v>
       </c>
       <c r="B2310" s="2" t="s">
@@ -32441,7 +32441,7 @@
       </c>
     </row>
     <row r="2311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2311" s="3" t="s">
+      <c r="A2311" s="1" t="s">
         <v>2072</v>
       </c>
       <c r="B2311" s="2" t="s">
@@ -32449,7 +32449,7 @@
       </c>
     </row>
     <row r="2312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2312" s="3" t="s">
+      <c r="A2312" s="1" t="s">
         <v>2073</v>
       </c>
       <c r="B2312" s="2" t="s">
@@ -32457,7 +32457,7 @@
       </c>
     </row>
     <row r="2313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2313" s="3" t="s">
+      <c r="A2313" s="1" t="s">
         <v>2073</v>
       </c>
       <c r="B2313" s="2" t="s">
@@ -32465,7 +32465,7 @@
       </c>
     </row>
     <row r="2314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2314" s="3" t="s">
+      <c r="A2314" s="1" t="s">
         <v>2074</v>
       </c>
       <c r="B2314" s="2" t="s">
@@ -32473,7 +32473,7 @@
       </c>
     </row>
     <row r="2315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2315" s="3" t="s">
+      <c r="A2315" s="1" t="s">
         <v>2075</v>
       </c>
       <c r="B2315" s="2" t="s">
@@ -32481,7 +32481,7 @@
       </c>
     </row>
     <row r="2316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2316" s="3" t="s">
+      <c r="A2316" s="1" t="s">
         <v>2075</v>
       </c>
       <c r="B2316" s="2" t="s">
@@ -32489,7 +32489,7 @@
       </c>
     </row>
     <row r="2317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2317" s="3" t="s">
+      <c r="A2317" s="1" t="s">
         <v>2075</v>
       </c>
       <c r="B2317" s="2" t="s">
@@ -32497,7 +32497,7 @@
       </c>
     </row>
     <row r="2318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2318" s="3" t="s">
+      <c r="A2318" s="1" t="s">
         <v>2076</v>
       </c>
       <c r="B2318" s="2" t="s">
@@ -32665,7 +32665,7 @@
       </c>
     </row>
     <row r="2339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2339" s="3" t="s">
+      <c r="A2339" s="1" t="s">
         <v>2096</v>
       </c>
       <c r="B2339" s="2" t="s">
@@ -32673,7 +32673,7 @@
       </c>
     </row>
     <row r="2340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2340" s="3" t="s">
+      <c r="A2340" s="1" t="s">
         <v>2097</v>
       </c>
       <c r="B2340" s="2" t="s">
@@ -32681,7 +32681,7 @@
       </c>
     </row>
     <row r="2341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2341" s="3" t="s">
+      <c r="A2341" s="1" t="s">
         <v>2098</v>
       </c>
       <c r="B2341" s="2" t="s">
@@ -32689,7 +32689,7 @@
       </c>
     </row>
     <row r="2342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2342" s="3" t="s">
+      <c r="A2342" s="1" t="s">
         <v>2099</v>
       </c>
       <c r="B2342" s="2" t="s">
@@ -32697,7 +32697,7 @@
       </c>
     </row>
     <row r="2343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2343" s="3" t="s">
+      <c r="A2343" s="1" t="s">
         <v>2099</v>
       </c>
       <c r="B2343" s="2" t="s">
@@ -32705,7 +32705,7 @@
       </c>
     </row>
     <row r="2344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2344" s="3" t="s">
+      <c r="A2344" s="1" t="s">
         <v>2099</v>
       </c>
       <c r="B2344" s="2" t="s">
@@ -32713,7 +32713,7 @@
       </c>
     </row>
     <row r="2345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2345" s="3" t="s">
+      <c r="A2345" s="1" t="s">
         <v>2100</v>
       </c>
       <c r="B2345" s="2" t="s">
@@ -32721,7 +32721,7 @@
       </c>
     </row>
     <row r="2346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2346" s="3" t="s">
+      <c r="A2346" s="1" t="s">
         <v>2100</v>
       </c>
       <c r="B2346" s="2" t="s">
@@ -32729,7 +32729,7 @@
       </c>
     </row>
     <row r="2347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2347" s="3" t="s">
+      <c r="A2347" s="1" t="s">
         <v>2100</v>
       </c>
       <c r="B2347" s="2" t="s">
@@ -32737,7 +32737,7 @@
       </c>
     </row>
     <row r="2348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2348" s="3" t="s">
+      <c r="A2348" s="1" t="s">
         <v>2100</v>
       </c>
       <c r="B2348" s="2" t="s">
@@ -32745,7 +32745,7 @@
       </c>
     </row>
     <row r="2349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2349" s="3" t="s">
+      <c r="A2349" s="1" t="s">
         <v>2100</v>
       </c>
       <c r="B2349" s="2" t="s">
@@ -32753,7 +32753,7 @@
       </c>
     </row>
     <row r="2350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2350" s="3" t="s">
+      <c r="A2350" s="1" t="s">
         <v>2101</v>
       </c>
       <c r="B2350" s="2" t="s">
@@ -32761,7 +32761,7 @@
       </c>
     </row>
     <row r="2351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2351" s="3" t="s">
+      <c r="A2351" s="1" t="s">
         <v>2102</v>
       </c>
       <c r="B2351" s="2" t="s">
@@ -32769,7 +32769,7 @@
       </c>
     </row>
     <row r="2352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2352" s="3" t="s">
+      <c r="A2352" s="1" t="s">
         <v>2103</v>
       </c>
       <c r="B2352" s="2" t="s">
@@ -32777,7 +32777,7 @@
       </c>
     </row>
     <row r="2353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2353" s="3" t="s">
+      <c r="A2353" s="1" t="s">
         <v>2104</v>
       </c>
       <c r="B2353" s="2" t="s">
@@ -32785,7 +32785,7 @@
       </c>
     </row>
     <row r="2354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2354" s="3" t="s">
+      <c r="A2354" s="1" t="s">
         <v>2105</v>
       </c>
       <c r="B2354" s="2" t="s">
@@ -32793,7 +32793,7 @@
       </c>
     </row>
     <row r="2355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2355" s="3" t="s">
+      <c r="A2355" s="1" t="s">
         <v>2105</v>
       </c>
       <c r="B2355" s="2" t="s">
@@ -32801,7 +32801,7 @@
       </c>
     </row>
     <row r="2356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2356" s="3" t="s">
+      <c r="A2356" s="1" t="s">
         <v>2105</v>
       </c>
       <c r="B2356" s="2" t="s">
@@ -32809,7 +32809,7 @@
       </c>
     </row>
     <row r="2357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2357" s="3" t="s">
+      <c r="A2357" s="1" t="s">
         <v>2107</v>
       </c>
       <c r="B2357" s="2" t="s">
@@ -32817,7 +32817,7 @@
       </c>
     </row>
     <row r="2358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2358" s="3" t="s">
+      <c r="A2358" s="1" t="s">
         <v>2108</v>
       </c>
       <c r="B2358" s="2" t="s">
@@ -32825,7 +32825,7 @@
       </c>
     </row>
     <row r="2359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2359" s="3" t="s">
+      <c r="A2359" s="1" t="s">
         <v>2109</v>
       </c>
       <c r="B2359" s="2" t="s">
@@ -32833,7 +32833,7 @@
       </c>
     </row>
     <row r="2360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2360" s="3" t="s">
+      <c r="A2360" s="1" t="s">
         <v>2109</v>
       </c>
       <c r="B2360" s="2" t="s">
@@ -32841,7 +32841,7 @@
       </c>
     </row>
     <row r="2361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2361" s="3" t="s">
+      <c r="A2361" s="1" t="s">
         <v>2109</v>
       </c>
       <c r="B2361" s="2" t="s">
@@ -32985,7 +32985,7 @@
       </c>
     </row>
     <row r="2379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2379" s="3" t="s">
+      <c r="A2379" s="1" t="s">
         <v>2122</v>
       </c>
       <c r="B2379" s="2" t="s">
@@ -32993,7 +32993,7 @@
       </c>
     </row>
     <row r="2380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2380" s="3" t="s">
+      <c r="A2380" s="1" t="s">
         <v>2122</v>
       </c>
       <c r="B2380" s="2" t="s">
@@ -33001,7 +33001,7 @@
       </c>
     </row>
     <row r="2381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2381" s="3" t="s">
+      <c r="A2381" s="1" t="s">
         <v>2122</v>
       </c>
       <c r="B2381" s="2" t="s">
@@ -33009,7 +33009,7 @@
       </c>
     </row>
     <row r="2382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2382" s="3" t="s">
+      <c r="A2382" s="1" t="s">
         <v>2122</v>
       </c>
       <c r="B2382" s="2" t="s">
@@ -33017,7 +33017,7 @@
       </c>
     </row>
     <row r="2383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2383" s="3" t="s">
+      <c r="A2383" s="1" t="s">
         <v>2122</v>
       </c>
       <c r="B2383" s="2" t="s">
@@ -33025,7 +33025,7 @@
       </c>
     </row>
     <row r="2384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2384" s="3" t="s">
+      <c r="A2384" s="1" t="s">
         <v>2122</v>
       </c>
       <c r="B2384" s="2" t="s">
@@ -33033,7 +33033,7 @@
       </c>
     </row>
     <row r="2385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2385" s="3" t="s">
+      <c r="A2385" s="1" t="s">
         <v>2122</v>
       </c>
       <c r="B2385" s="2" t="s">
@@ -33041,7 +33041,7 @@
       </c>
     </row>
     <row r="2386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2386" s="3" t="s">
+      <c r="A2386" s="1" t="s">
         <v>2122</v>
       </c>
       <c r="B2386" s="2" t="s">
@@ -33049,7 +33049,7 @@
       </c>
     </row>
     <row r="2387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2387" s="3" t="s">
+      <c r="A2387" s="1" t="s">
         <v>2122</v>
       </c>
       <c r="B2387" s="2" t="s">
@@ -33057,7 +33057,7 @@
       </c>
     </row>
     <row r="2388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2388" s="3" t="s">
+      <c r="A2388" s="1" t="s">
         <v>2123</v>
       </c>
       <c r="B2388" s="2" t="s">
@@ -33065,7 +33065,7 @@
       </c>
     </row>
     <row r="2389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2389" s="3" t="s">
+      <c r="A2389" s="1" t="s">
         <v>2124</v>
       </c>
       <c r="B2389" s="2" t="s">
@@ -33073,7 +33073,7 @@
       </c>
     </row>
     <row r="2390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2390" s="3" t="s">
+      <c r="A2390" s="1" t="s">
         <v>2125</v>
       </c>
       <c r="B2390" s="2" t="s">
@@ -33081,7 +33081,7 @@
       </c>
     </row>
     <row r="2391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2391" s="3" t="s">
+      <c r="A2391" s="1" t="s">
         <v>2125</v>
       </c>
       <c r="B2391" s="2" t="s">
@@ -33089,7 +33089,7 @@
       </c>
     </row>
     <row r="2392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2392" s="3" t="s">
+      <c r="A2392" s="1" t="s">
         <v>2125</v>
       </c>
       <c r="B2392" s="2" t="s">
@@ -33097,7 +33097,7 @@
       </c>
     </row>
     <row r="2393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2393" s="3" t="s">
+      <c r="A2393" s="1" t="s">
         <v>2127</v>
       </c>
       <c r="B2393" s="2" t="s">
@@ -33105,7 +33105,7 @@
       </c>
     </row>
     <row r="2394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2394" s="3" t="s">
+      <c r="A2394" s="1" t="s">
         <v>2129</v>
       </c>
       <c r="B2394" s="2" t="s">
@@ -33113,7 +33113,7 @@
       </c>
     </row>
     <row r="2395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2395" s="3" t="s">
+      <c r="A2395" s="1" t="s">
         <v>2129</v>
       </c>
       <c r="B2395" s="2" t="s">
@@ -33121,7 +33121,7 @@
       </c>
     </row>
     <row r="2396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2396" s="3" t="s">
+      <c r="A2396" s="1" t="s">
         <v>2130</v>
       </c>
       <c r="B2396" s="2" t="s">
@@ -33129,7 +33129,7 @@
       </c>
     </row>
     <row r="2397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2397" s="3" t="s">
+      <c r="A2397" s="1" t="s">
         <v>2130</v>
       </c>
       <c r="B2397" s="2" t="s">
@@ -33137,7 +33137,7 @@
       </c>
     </row>
     <row r="2398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2398" s="3" t="s">
+      <c r="A2398" s="1" t="s">
         <v>2131</v>
       </c>
       <c r="B2398" s="2" t="s">
@@ -33145,7 +33145,7 @@
       </c>
     </row>
     <row r="2399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2399" s="3" t="s">
+      <c r="A2399" s="1" t="s">
         <v>2131</v>
       </c>
       <c r="B2399" s="2" t="s">
@@ -33153,7 +33153,7 @@
       </c>
     </row>
     <row r="2400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2400" s="3" t="s">
+      <c r="A2400" s="1" t="s">
         <v>2132</v>
       </c>
       <c r="B2400" s="2" t="s">
@@ -33161,7 +33161,7 @@
       </c>
     </row>
     <row r="2401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2401" s="3" t="s">
+      <c r="A2401" s="1" t="s">
         <v>2133</v>
       </c>
       <c r="B2401" s="2" t="s">
@@ -33169,7 +33169,7 @@
       </c>
     </row>
     <row r="2402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2402" s="3" t="s">
+      <c r="A2402" s="1" t="s">
         <v>2134</v>
       </c>
       <c r="B2402" s="2" t="s">
@@ -33177,7 +33177,7 @@
       </c>
     </row>
     <row r="2403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2403" s="3" t="s">
+      <c r="A2403" s="1" t="s">
         <v>2136</v>
       </c>
       <c r="B2403" s="2" t="s">
@@ -33417,7 +33417,7 @@
       </c>
     </row>
     <row r="2433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2433" s="3" t="s">
+      <c r="A2433" s="1" t="s">
         <v>2165</v>
       </c>
       <c r="B2433" s="2" t="s">
@@ -33425,7 +33425,7 @@
       </c>
     </row>
     <row r="2434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2434" s="3" t="s">
+      <c r="A2434" s="1" t="s">
         <v>2165</v>
       </c>
       <c r="B2434" s="2" t="s">
@@ -33433,7 +33433,7 @@
       </c>
     </row>
     <row r="2435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2435" s="3" t="s">
+      <c r="A2435" s="1" t="s">
         <v>2167</v>
       </c>
       <c r="B2435" s="2" t="s">
@@ -33441,7 +33441,7 @@
       </c>
     </row>
     <row r="2436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2436" s="3" t="s">
+      <c r="A2436" s="1" t="s">
         <v>2167</v>
       </c>
       <c r="B2436" s="2" t="s">
@@ -33449,7 +33449,7 @@
       </c>
     </row>
     <row r="2437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2437" s="3" t="s">
+      <c r="A2437" s="1" t="s">
         <v>2170</v>
       </c>
       <c r="B2437" s="2" t="s">
@@ -33457,7 +33457,7 @@
       </c>
     </row>
     <row r="2438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2438" s="3" t="s">
+      <c r="A2438" s="1" t="s">
         <v>2171</v>
       </c>
       <c r="B2438" s="2" t="s">
@@ -33465,7 +33465,7 @@
       </c>
     </row>
     <row r="2439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2439" s="3" t="s">
+      <c r="A2439" s="1" t="s">
         <v>2171</v>
       </c>
       <c r="B2439" s="2" t="s">
@@ -33577,7 +33577,7 @@
       </c>
     </row>
     <row r="2453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2453" s="3" t="s">
+      <c r="A2453" s="1" t="s">
         <v>2184</v>
       </c>
       <c r="B2453" s="2" t="s">
@@ -33585,7 +33585,7 @@
       </c>
     </row>
     <row r="2454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2454" s="3" t="s">
+      <c r="A2454" s="1" t="s">
         <v>2184</v>
       </c>
       <c r="B2454" s="2" t="s">
@@ -33593,7 +33593,7 @@
       </c>
     </row>
     <row r="2455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2455" s="3" t="s">
+      <c r="A2455" s="1" t="s">
         <v>2187</v>
       </c>
       <c r="B2455" s="2" t="s">
@@ -33601,7 +33601,7 @@
       </c>
     </row>
     <row r="2456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2456" s="3" t="s">
+      <c r="A2456" s="1" t="s">
         <v>2188</v>
       </c>
       <c r="B2456" s="2" t="s">
@@ -33609,7 +33609,7 @@
       </c>
     </row>
     <row r="2457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2457" s="3" t="s">
+      <c r="A2457" s="1" t="s">
         <v>2188</v>
       </c>
       <c r="B2457" s="2" t="s">
@@ -33617,7 +33617,7 @@
       </c>
     </row>
     <row r="2458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2458" s="3" t="s">
+      <c r="A2458" s="1" t="s">
         <v>2188</v>
       </c>
       <c r="B2458" s="2" t="s">
@@ -33625,7 +33625,7 @@
       </c>
     </row>
     <row r="2459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2459" s="3" t="s">
+      <c r="A2459" s="1" t="s">
         <v>2190</v>
       </c>
       <c r="B2459" s="2" t="s">
@@ -33633,7 +33633,7 @@
       </c>
     </row>
     <row r="2460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2460" s="3" t="s">
+      <c r="A2460" s="1" t="s">
         <v>2191</v>
       </c>
       <c r="B2460" s="2" t="s">
@@ -33641,7 +33641,7 @@
       </c>
     </row>
     <row r="2461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2461" s="3" t="s">
+      <c r="A2461" s="1" t="s">
         <v>2191</v>
       </c>
       <c r="B2461" s="2" t="s">
@@ -33649,7 +33649,7 @@
       </c>
     </row>
     <row r="2462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2462" s="3" t="s">
+      <c r="A2462" s="1" t="s">
         <v>2193</v>
       </c>
       <c r="B2462" s="2" t="s">
@@ -33657,7 +33657,7 @@
       </c>
     </row>
     <row r="2463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2463" s="3" t="s">
+      <c r="A2463" s="1" t="s">
         <v>2194</v>
       </c>
       <c r="B2463" s="2" t="s">
@@ -33665,7 +33665,7 @@
       </c>
     </row>
     <row r="2464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2464" s="3" t="s">
+      <c r="A2464" s="1" t="s">
         <v>2195</v>
       </c>
       <c r="B2464" s="2" t="s">
@@ -33673,7 +33673,7 @@
       </c>
     </row>
     <row r="2465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2465" s="3" t="s">
+      <c r="A2465" s="1" t="s">
         <v>2196</v>
       </c>
       <c r="B2465" s="2" t="s">
@@ -33681,7 +33681,7 @@
       </c>
     </row>
     <row r="2466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2466" s="3" t="s">
+      <c r="A2466" s="1" t="s">
         <v>2196</v>
       </c>
       <c r="B2466" s="2" t="s">
@@ -33689,7 +33689,7 @@
       </c>
     </row>
     <row r="2467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2467" s="3" t="s">
+      <c r="A2467" s="1" t="s">
         <v>2197</v>
       </c>
       <c r="B2467" s="2" t="s">
@@ -33697,7 +33697,7 @@
       </c>
     </row>
     <row r="2468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2468" s="3" t="s">
+      <c r="A2468" s="1" t="s">
         <v>2198</v>
       </c>
       <c r="B2468" s="2" t="s">
@@ -33705,7 +33705,7 @@
       </c>
     </row>
     <row r="2469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2469" s="3" t="s">
+      <c r="A2469" s="1" t="s">
         <v>2199</v>
       </c>
       <c r="B2469" s="2" t="s">
@@ -33713,7 +33713,7 @@
       </c>
     </row>
     <row r="2470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2470" s="3" t="s">
+      <c r="A2470" s="1" t="s">
         <v>2200</v>
       </c>
       <c r="B2470" s="2" t="s">
@@ -33721,7 +33721,7 @@
       </c>
     </row>
     <row r="2471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2471" s="3" t="s">
+      <c r="A2471" s="1" t="s">
         <v>2201</v>
       </c>
       <c r="B2471" s="2" t="s">
@@ -33729,7 +33729,7 @@
       </c>
     </row>
     <row r="2472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2472" s="3" t="s">
+      <c r="A2472" s="1" t="s">
         <v>2202</v>
       </c>
       <c r="B2472" s="2" t="s">
@@ -33825,7 +33825,7 @@
       </c>
     </row>
     <row r="2484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2484" s="3" t="s">
+      <c r="A2484" s="1" t="s">
         <v>2213</v>
       </c>
       <c r="B2484" s="2" t="s">
@@ -33833,7 +33833,7 @@
       </c>
     </row>
     <row r="2485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2485" s="3" t="s">
+      <c r="A2485" s="1" t="s">
         <v>2214</v>
       </c>
       <c r="B2485" s="2" t="s">
@@ -33841,7 +33841,7 @@
       </c>
     </row>
     <row r="2486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2486" s="3" t="s">
+      <c r="A2486" s="1" t="s">
         <v>2216</v>
       </c>
       <c r="B2486" s="2" t="s">
@@ -33849,7 +33849,7 @@
       </c>
     </row>
     <row r="2487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2487" s="3" t="s">
+      <c r="A2487" s="1" t="s">
         <v>2217</v>
       </c>
       <c r="B2487" s="2" t="s">
@@ -33857,7 +33857,7 @@
       </c>
     </row>
     <row r="2488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2488" s="3" t="s">
+      <c r="A2488" s="1" t="s">
         <v>2217</v>
       </c>
       <c r="B2488" s="2" t="s">
@@ -33865,7 +33865,7 @@
       </c>
     </row>
     <row r="2489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2489" s="3" t="s">
+      <c r="A2489" s="1" t="s">
         <v>2219</v>
       </c>
       <c r="B2489" s="2" t="s">
@@ -33873,7 +33873,7 @@
       </c>
     </row>
     <row r="2490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2490" s="3" t="s">
+      <c r="A2490" s="1" t="s">
         <v>2220</v>
       </c>
       <c r="B2490" s="2" t="s">
@@ -33881,7 +33881,7 @@
       </c>
     </row>
     <row r="2491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2491" s="3" t="s">
+      <c r="A2491" s="1" t="s">
         <v>2221</v>
       </c>
       <c r="B2491" s="2" t="s">
@@ -33889,7 +33889,7 @@
       </c>
     </row>
     <row r="2492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2492" s="3" t="s">
+      <c r="A2492" s="1" t="s">
         <v>2222</v>
       </c>
       <c r="B2492" s="2" t="s">
@@ -33897,7 +33897,7 @@
       </c>
     </row>
     <row r="2493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2493" s="3" t="s">
+      <c r="A2493" s="1" t="s">
         <v>2223</v>
       </c>
       <c r="B2493" s="2" t="s">
@@ -33905,7 +33905,7 @@
       </c>
     </row>
     <row r="2494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2494" s="3" t="s">
+      <c r="A2494" s="1" t="s">
         <v>2224</v>
       </c>
       <c r="B2494" s="2" t="s">
@@ -33913,7 +33913,7 @@
       </c>
     </row>
     <row r="2495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2495" s="3" t="s">
+      <c r="A2495" s="1" t="s">
         <v>2225</v>
       </c>
       <c r="B2495" s="2" t="s">
@@ -33921,7 +33921,7 @@
       </c>
     </row>
     <row r="2496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2496" s="3" t="s">
+      <c r="A2496" s="1" t="s">
         <v>2225</v>
       </c>
       <c r="B2496" s="2" t="s">
@@ -33929,7 +33929,7 @@
       </c>
     </row>
     <row r="2497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2497" s="3" t="s">
+      <c r="A2497" s="1" t="s">
         <v>2225</v>
       </c>
       <c r="B2497" s="2" t="s">
@@ -33937,7 +33937,7 @@
       </c>
     </row>
     <row r="2498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2498" s="3" t="s">
+      <c r="A2498" s="1" t="s">
         <v>2226</v>
       </c>
       <c r="B2498" s="2" t="s">
@@ -33945,7 +33945,7 @@
       </c>
     </row>
     <row r="2499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2499" s="3" t="s">
+      <c r="A2499" s="1" t="s">
         <v>2226</v>
       </c>
       <c r="B2499" s="2" t="s">
@@ -33953,7 +33953,7 @@
       </c>
     </row>
     <row r="2500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2500" s="3" t="s">
+      <c r="A2500" s="1" t="s">
         <v>2226</v>
       </c>
       <c r="B2500" s="2" t="s">
@@ -33961,7 +33961,7 @@
       </c>
     </row>
     <row r="2501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2501" s="3" t="s">
+      <c r="A2501" s="1" t="s">
         <v>2226</v>
       </c>
       <c r="B2501" s="2" t="s">
@@ -33969,7 +33969,7 @@
       </c>
     </row>
     <row r="2502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2502" s="3" t="s">
+      <c r="A2502" s="1" t="s">
         <v>2226</v>
       </c>
       <c r="B2502" s="2" t="s">
@@ -33977,7 +33977,7 @@
       </c>
     </row>
     <row r="2503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2503" s="3" t="s">
+      <c r="A2503" s="1" t="s">
         <v>2227</v>
       </c>
       <c r="B2503" s="2" t="s">
@@ -33985,7 +33985,7 @@
       </c>
     </row>
     <row r="2504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2504" s="3" t="s">
+      <c r="A2504" s="1" t="s">
         <v>2227</v>
       </c>
       <c r="B2504" s="2" t="s">
@@ -33993,7 +33993,7 @@
       </c>
     </row>
     <row r="2505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2505" s="3" t="s">
+      <c r="A2505" s="1" t="s">
         <v>2229</v>
       </c>
       <c r="B2505" s="2" t="s">
@@ -34001,7 +34001,7 @@
       </c>
     </row>
     <row r="2506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2506" s="3" t="s">
+      <c r="A2506" s="1" t="s">
         <v>2231</v>
       </c>
       <c r="B2506" s="2" t="s">
@@ -34009,7 +34009,7 @@
       </c>
     </row>
     <row r="2507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2507" s="3" t="s">
+      <c r="A2507" s="1" t="s">
         <v>2231</v>
       </c>
       <c r="B2507" s="2" t="s">
@@ -34017,7 +34017,7 @@
       </c>
     </row>
     <row r="2508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2508" s="3" t="s">
+      <c r="A2508" s="1" t="s">
         <v>2231</v>
       </c>
       <c r="B2508" s="2" t="s">
@@ -34025,7 +34025,7 @@
       </c>
     </row>
     <row r="2509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2509" s="3" t="s">
+      <c r="A2509" s="1" t="s">
         <v>2232</v>
       </c>
       <c r="B2509" s="2" t="s">
@@ -34033,7 +34033,7 @@
       </c>
     </row>
     <row r="2510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2510" s="3" t="s">
+      <c r="A2510" s="1" t="s">
         <v>2233</v>
       </c>
       <c r="B2510" s="2" t="s">
@@ -34041,7 +34041,7 @@
       </c>
     </row>
     <row r="2511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2511" s="3" t="s">
+      <c r="A2511" s="1" t="s">
         <v>2233</v>
       </c>
       <c r="B2511" s="2" t="s">
@@ -34049,7 +34049,7 @@
       </c>
     </row>
     <row r="2512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2512" s="3" t="s">
+      <c r="A2512" s="1" t="s">
         <v>2234</v>
       </c>
       <c r="B2512" s="2" t="s">
@@ -34057,7 +34057,7 @@
       </c>
     </row>
     <row r="2513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2513" s="3" t="s">
+      <c r="A2513" s="1" t="s">
         <v>2234</v>
       </c>
       <c r="B2513" s="2" t="s">
@@ -34065,7 +34065,7 @@
       </c>
     </row>
     <row r="2514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2514" s="3" t="s">
+      <c r="A2514" s="1" t="s">
         <v>2234</v>
       </c>
       <c r="B2514" s="2" t="s">
@@ -34073,7 +34073,7 @@
       </c>
     </row>
     <row r="2515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2515" s="3" t="s">
+      <c r="A2515" s="1" t="s">
         <v>2234</v>
       </c>
       <c r="B2515" s="2" t="s">
@@ -34081,7 +34081,7 @@
       </c>
     </row>
     <row r="2516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2516" s="3" t="s">
+      <c r="A2516" s="1" t="s">
         <v>2234</v>
       </c>
       <c r="B2516" s="2" t="s">
@@ -34089,7 +34089,7 @@
       </c>
     </row>
     <row r="2517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2517" s="3" t="s">
+      <c r="A2517" s="1" t="s">
         <v>2235</v>
       </c>
       <c r="B2517" s="2" t="s">
@@ -34097,7 +34097,7 @@
       </c>
     </row>
     <row r="2518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2518" s="3" t="s">
+      <c r="A2518" s="1" t="s">
         <v>2235</v>
       </c>
       <c r="B2518" s="2" t="s">
@@ -34353,7 +34353,7 @@
       </c>
     </row>
     <row r="2550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2550" s="3" t="s">
+      <c r="A2550" s="1" t="s">
         <v>2264</v>
       </c>
       <c r="B2550" s="2" t="s">
@@ -34577,7 +34577,7 @@
       </c>
     </row>
     <row r="2578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2578" s="3" t="s">
+      <c r="A2578" s="1" t="s">
         <v>2293</v>
       </c>
       <c r="B2578" s="2" t="s">
@@ -34585,7 +34585,7 @@
       </c>
     </row>
     <row r="2579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2579" s="3" t="s">
+      <c r="A2579" s="1" t="s">
         <v>2294</v>
       </c>
       <c r="B2579" s="2" t="s">
@@ -34593,7 +34593,7 @@
       </c>
     </row>
     <row r="2580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2580" s="3" t="s">
+      <c r="A2580" s="1" t="s">
         <v>2295</v>
       </c>
       <c r="B2580" s="2" t="s">
@@ -34601,7 +34601,7 @@
       </c>
     </row>
     <row r="2581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2581" s="3" t="s">
+      <c r="A2581" s="1" t="s">
         <v>2296</v>
       </c>
       <c r="B2581" s="2" t="s">
@@ -34609,7 +34609,7 @@
       </c>
     </row>
     <row r="2582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2582" s="3" t="s">
+      <c r="A2582" s="1" t="s">
         <v>2296</v>
       </c>
       <c r="B2582" s="2" t="s">
@@ -34617,7 +34617,7 @@
       </c>
     </row>
     <row r="2583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2583" s="3" t="s">
+      <c r="A2583" s="1" t="s">
         <v>2297</v>
       </c>
       <c r="B2583" s="2" t="s">
@@ -34625,7 +34625,7 @@
       </c>
     </row>
     <row r="2584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2584" s="3" t="s">
+      <c r="A2584" s="1" t="s">
         <v>2298</v>
       </c>
       <c r="B2584" s="2" t="s">
@@ -34633,7 +34633,7 @@
       </c>
     </row>
     <row r="2585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2585" s="3" t="s">
+      <c r="A2585" s="1" t="s">
         <v>2299</v>
       </c>
       <c r="B2585" s="2" t="s">
@@ -34641,7 +34641,7 @@
       </c>
     </row>
     <row r="2586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2586" s="3" t="s">
+      <c r="A2586" s="1" t="s">
         <v>2300</v>
       </c>
       <c r="B2586" s="2" t="s">
@@ -34649,7 +34649,7 @@
       </c>
     </row>
     <row r="2587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2587" s="3" t="s">
+      <c r="A2587" s="1" t="s">
         <v>2300</v>
       </c>
       <c r="B2587" s="2" t="s">
@@ -34657,7 +34657,7 @@
       </c>
     </row>
     <row r="2588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2588" s="3" t="s">
+      <c r="A2588" s="1" t="s">
         <v>2301</v>
       </c>
       <c r="B2588" s="2" t="s">
@@ -34665,7 +34665,7 @@
       </c>
     </row>
     <row r="2589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2589" s="3" t="s">
+      <c r="A2589" s="1" t="s">
         <v>2301</v>
       </c>
       <c r="B2589" s="2" t="s">
@@ -34673,7 +34673,7 @@
       </c>
     </row>
     <row r="2590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2590" s="3" t="s">
+      <c r="A2590" s="1" t="s">
         <v>2302</v>
       </c>
       <c r="B2590" s="2" t="s">
@@ -34681,7 +34681,7 @@
       </c>
     </row>
     <row r="2591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2591" s="3" t="s">
+      <c r="A2591" s="1" t="s">
         <v>2303</v>
       </c>
       <c r="B2591" s="2" t="s">
@@ -34689,7 +34689,7 @@
       </c>
     </row>
     <row r="2592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2592" s="3" t="s">
+      <c r="A2592" s="1" t="s">
         <v>2304</v>
       </c>
       <c r="B2592" s="2" t="s">
@@ -34697,7 +34697,7 @@
       </c>
     </row>
     <row r="2593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2593" s="3" t="s">
+      <c r="A2593" s="1" t="s">
         <v>2304</v>
       </c>
       <c r="B2593" s="2" t="s">
@@ -34705,7 +34705,7 @@
       </c>
     </row>
     <row r="2594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2594" s="3" t="s">
+      <c r="A2594" s="1" t="s">
         <v>2305</v>
       </c>
       <c r="B2594" s="2" t="s">
@@ -34713,7 +34713,7 @@
       </c>
     </row>
     <row r="2595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2595" s="3" t="s">
+      <c r="A2595" s="1" t="s">
         <v>2305</v>
       </c>
       <c r="B2595" s="2" t="s">
@@ -34721,7 +34721,7 @@
       </c>
     </row>
     <row r="2596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2596" s="3" t="s">
+      <c r="A2596" s="1" t="s">
         <v>2305</v>
       </c>
       <c r="B2596" s="2" t="s">
@@ -34729,7 +34729,7 @@
       </c>
     </row>
     <row r="2597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2597" s="3" t="s">
+      <c r="A2597" s="1" t="s">
         <v>2305</v>
       </c>
       <c r="B2597" s="2" t="s">
@@ -34737,7 +34737,7 @@
       </c>
     </row>
     <row r="2598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2598" s="3" t="s">
+      <c r="A2598" s="1" t="s">
         <v>2305</v>
       </c>
       <c r="B2598" s="2" t="s">
@@ -34745,7 +34745,7 @@
       </c>
     </row>
     <row r="2599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2599" s="3" t="s">
+      <c r="A2599" s="1" t="s">
         <v>2306</v>
       </c>
       <c r="B2599" s="2" t="s">
@@ -34753,7 +34753,7 @@
       </c>
     </row>
     <row r="2600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2600" s="3" t="s">
+      <c r="A2600" s="1" t="s">
         <v>2306</v>
       </c>
       <c r="B2600" s="2" t="s">
@@ -34761,7 +34761,7 @@
       </c>
     </row>
     <row r="2601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2601" s="3" t="s">
+      <c r="A2601" s="1" t="s">
         <v>2306</v>
       </c>
       <c r="B2601" s="2" t="s">
@@ -34769,7 +34769,7 @@
       </c>
     </row>
     <row r="2602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2602" s="3" t="s">
+      <c r="A2602" s="1" t="s">
         <v>2307</v>
       </c>
       <c r="B2602" s="2" t="s">
@@ -34777,7 +34777,7 @@
       </c>
     </row>
     <row r="2603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2603" s="3" t="s">
+      <c r="A2603" s="1" t="s">
         <v>2307</v>
       </c>
       <c r="B2603" s="2" t="s">
@@ -34785,7 +34785,7 @@
       </c>
     </row>
     <row r="2604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2604" s="3" t="s">
+      <c r="A2604" s="1" t="s">
         <v>2307</v>
       </c>
       <c r="B2604" s="2" t="s">
@@ -34793,7 +34793,7 @@
       </c>
     </row>
     <row r="2605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2605" s="3" t="s">
+      <c r="A2605" s="1" t="s">
         <v>2307</v>
       </c>
       <c r="B2605" s="2" t="s">
@@ -34801,7 +34801,7 @@
       </c>
     </row>
     <row r="2606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2606" s="3" t="s">
+      <c r="A2606" s="1" t="s">
         <v>2307</v>
       </c>
       <c r="B2606" s="2" t="s">
@@ -34809,7 +34809,7 @@
       </c>
     </row>
     <row r="2607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2607" s="3" t="s">
+      <c r="A2607" s="1" t="s">
         <v>2307</v>
       </c>
       <c r="B2607" s="2" t="s">
@@ -34817,7 +34817,7 @@
       </c>
     </row>
     <row r="2608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2608" s="3" t="s">
+      <c r="A2608" s="1" t="s">
         <v>2307</v>
       </c>
       <c r="B2608" s="2" t="s">
@@ -34825,7 +34825,7 @@
       </c>
     </row>
     <row r="2609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2609" s="3" t="s">
+      <c r="A2609" s="1" t="s">
         <v>2307</v>
       </c>
       <c r="B2609" s="2" t="s">
@@ -34833,7 +34833,7 @@
       </c>
     </row>
     <row r="2610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2610" s="3" t="s">
+      <c r="A2610" s="1" t="s">
         <v>2307</v>
       </c>
       <c r="B2610" s="2" t="s">
@@ -34841,7 +34841,7 @@
       </c>
     </row>
     <row r="2611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2611" s="3" t="s">
+      <c r="A2611" s="1" t="s">
         <v>2308</v>
       </c>
       <c r="B2611" s="2" t="s">
@@ -34849,7 +34849,7 @@
       </c>
     </row>
     <row r="2612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2612" s="3" t="s">
+      <c r="A2612" s="1" t="s">
         <v>2309</v>
       </c>
       <c r="B2612" s="2" t="s">
@@ -34857,7 +34857,7 @@
       </c>
     </row>
     <row r="2613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2613" s="3" t="s">
+      <c r="A2613" s="1" t="s">
         <v>2309</v>
       </c>
       <c r="B2613" s="2" t="s">
@@ -34865,7 +34865,7 @@
       </c>
     </row>
     <row r="2614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2614" s="3" t="s">
+      <c r="A2614" s="1" t="s">
         <v>2310</v>
       </c>
       <c r="B2614" s="2" t="s">
@@ -34873,7 +34873,7 @@
       </c>
     </row>
     <row r="2615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2615" s="3" t="s">
+      <c r="A2615" s="1" t="s">
         <v>2311</v>
       </c>
       <c r="B2615" s="2" t="s">
@@ -34881,7 +34881,7 @@
       </c>
     </row>
     <row r="2616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2616" s="3" t="s">
+      <c r="A2616" s="1" t="s">
         <v>2311</v>
       </c>
       <c r="B2616" s="2" t="s">
@@ -34889,7 +34889,7 @@
       </c>
     </row>
     <row r="2617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2617" s="3" t="s">
+      <c r="A2617" s="1" t="s">
         <v>2312</v>
       </c>
       <c r="B2617" s="2" t="s">
@@ -34897,7 +34897,7 @@
       </c>
     </row>
     <row r="2618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2618" s="3" t="s">
+      <c r="A2618" s="1" t="s">
         <v>2312</v>
       </c>
       <c r="B2618" s="2" t="s">
@@ -34905,7 +34905,7 @@
       </c>
     </row>
     <row r="2619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2619" s="3" t="s">
+      <c r="A2619" s="1" t="s">
         <v>2312</v>
       </c>
       <c r="B2619" s="2" t="s">
@@ -35121,7 +35121,7 @@
       </c>
     </row>
     <row r="2646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2646" s="3" t="s">
+      <c r="A2646" s="1" t="s">
         <v>2328</v>
       </c>
       <c r="B2646" s="2" t="s">
@@ -35129,7 +35129,7 @@
       </c>
     </row>
     <row r="2647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2647" s="3" t="s">
+      <c r="A2647" s="1" t="s">
         <v>2328</v>
       </c>
       <c r="B2647" s="2" t="s">
@@ -35137,7 +35137,7 @@
       </c>
     </row>
     <row r="2648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2648" s="3" t="s">
+      <c r="A2648" s="1" t="s">
         <v>2329</v>
       </c>
       <c r="B2648" s="2" t="s">
@@ -35145,7 +35145,7 @@
       </c>
     </row>
     <row r="2649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2649" s="3" t="s">
+      <c r="A2649" s="1" t="s">
         <v>2329</v>
       </c>
       <c r="B2649" s="2" t="s">
@@ -35153,7 +35153,7 @@
       </c>
     </row>
     <row r="2650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2650" s="3" t="s">
+      <c r="A2650" s="1" t="s">
         <v>2332</v>
       </c>
       <c r="B2650" s="2" t="s">
@@ -35161,7 +35161,7 @@
       </c>
     </row>
     <row r="2651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2651" s="3" t="s">
+      <c r="A2651" s="1" t="s">
         <v>2333</v>
       </c>
       <c r="B2651" s="2" t="s">
@@ -35169,7 +35169,7 @@
       </c>
     </row>
     <row r="2652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2652" s="3" t="s">
+      <c r="A2652" s="1" t="s">
         <v>2334</v>
       </c>
       <c r="B2652" s="2" t="s">
@@ -35177,7 +35177,7 @@
       </c>
     </row>
     <row r="2653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2653" s="3" t="s">
+      <c r="A2653" s="1" t="s">
         <v>2336</v>
       </c>
       <c r="B2653" s="2" t="s">
@@ -35185,7 +35185,7 @@
       </c>
     </row>
     <row r="2654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2654" s="3" t="s">
+      <c r="A2654" s="1" t="s">
         <v>2336</v>
       </c>
       <c r="B2654" s="2" t="s">
@@ -35193,7 +35193,7 @@
       </c>
     </row>
     <row r="2655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2655" s="3" t="s">
+      <c r="A2655" s="1" t="s">
         <v>2337</v>
       </c>
       <c r="B2655" s="2" t="s">
@@ -35201,7 +35201,7 @@
       </c>
     </row>
     <row r="2656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2656" s="3" t="s">
+      <c r="A2656" s="1" t="s">
         <v>2338</v>
       </c>
       <c r="B2656" s="2" t="s">
@@ -35209,7 +35209,7 @@
       </c>
     </row>
     <row r="2657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2657" s="3" t="s">
+      <c r="A2657" s="1" t="s">
         <v>2338</v>
       </c>
       <c r="B2657" s="2" t="s">
@@ -35217,7 +35217,7 @@
       </c>
     </row>
     <row r="2658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2658" s="3" t="s">
+      <c r="A2658" s="1" t="s">
         <v>2339</v>
       </c>
       <c r="B2658" s="2" t="s">
@@ -35361,7 +35361,7 @@
       </c>
     </row>
     <row r="2676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2676" s="3" t="s">
+      <c r="A2676" s="1" t="s">
         <v>2363</v>
       </c>
       <c r="B2676" s="2" t="s">
@@ -35369,7 +35369,7 @@
       </c>
     </row>
     <row r="2677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2677" s="3" t="s">
+      <c r="A2677" s="1" t="s">
         <v>2365</v>
       </c>
       <c r="B2677" s="2" t="s">
@@ -35377,7 +35377,7 @@
       </c>
     </row>
     <row r="2678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2678" s="3" t="s">
+      <c r="A2678" s="1" t="s">
         <v>2367</v>
       </c>
       <c r="B2678" s="2" t="s">
@@ -35385,7 +35385,7 @@
       </c>
     </row>
     <row r="2679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2679" s="3" t="s">
+      <c r="A2679" s="1" t="s">
         <v>2369</v>
       </c>
       <c r="B2679" s="2" t="s">
@@ -35393,7 +35393,7 @@
       </c>
     </row>
     <row r="2680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2680" s="3" t="s">
+      <c r="A2680" s="1" t="s">
         <v>2369</v>
       </c>
       <c r="B2680" s="2" t="s">
@@ -35401,7 +35401,7 @@
       </c>
     </row>
     <row r="2681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2681" s="3" t="s">
+      <c r="A2681" s="1" t="s">
         <v>2370</v>
       </c>
       <c r="B2681" s="2" t="s">
@@ -35409,7 +35409,7 @@
       </c>
     </row>
     <row r="2682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2682" s="3" t="s">
+      <c r="A2682" s="1" t="s">
         <v>2371</v>
       </c>
       <c r="B2682" s="2" t="s">
@@ -35417,7 +35417,7 @@
       </c>
     </row>
     <row r="2683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2683" s="3" t="s">
+      <c r="A2683" s="1" t="s">
         <v>2372</v>
       </c>
       <c r="B2683" s="2" t="s">
@@ -35425,7 +35425,7 @@
       </c>
     </row>
     <row r="2684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2684" s="3" t="s">
+      <c r="A2684" s="1" t="s">
         <v>2372</v>
       </c>
       <c r="B2684" s="2" t="s">
@@ -35433,7 +35433,7 @@
       </c>
     </row>
     <row r="2685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2685" s="3" t="s">
+      <c r="A2685" s="1" t="s">
         <v>2373</v>
       </c>
       <c r="B2685" s="2" t="s">
@@ -35441,7 +35441,7 @@
       </c>
     </row>
     <row r="2686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2686" s="3" t="s">
+      <c r="A2686" s="1" t="s">
         <v>2374</v>
       </c>
       <c r="B2686" s="2" t="s">
@@ -35449,7 +35449,7 @@
       </c>
     </row>
     <row r="2687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2687" s="3" t="s">
+      <c r="A2687" s="1" t="s">
         <v>2374</v>
       </c>
       <c r="B2687" s="2" t="s">
@@ -35457,7 +35457,7 @@
       </c>
     </row>
     <row r="2688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2688" s="3" t="s">
+      <c r="A2688" s="1" t="s">
         <v>2374</v>
       </c>
       <c r="B2688" s="2" t="s">
@@ -35465,7 +35465,7 @@
       </c>
     </row>
     <row r="2689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2689" s="3" t="s">
+      <c r="A2689" s="1" t="s">
         <v>2374</v>
       </c>
       <c r="B2689" s="2" t="s">
@@ -35473,7 +35473,7 @@
       </c>
     </row>
     <row r="2690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2690" s="3" t="s">
+      <c r="A2690" s="1" t="s">
         <v>2379</v>
       </c>
       <c r="B2690" s="2" t="s">
@@ -35481,7 +35481,7 @@
       </c>
     </row>
     <row r="2691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2691" s="3" t="s">
+      <c r="A2691" s="1" t="s">
         <v>2380</v>
       </c>
       <c r="B2691" s="2" t="s">
@@ -35489,7 +35489,7 @@
       </c>
     </row>
     <row r="2692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2692" s="3" t="s">
+      <c r="A2692" s="1" t="s">
         <v>2381</v>
       </c>
       <c r="B2692" s="2" t="s">
@@ -35497,7 +35497,7 @@
       </c>
     </row>
     <row r="2693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2693" s="3" t="s">
+      <c r="A2693" s="1" t="s">
         <v>2381</v>
       </c>
       <c r="B2693" s="2" t="s">
@@ -35505,7 +35505,7 @@
       </c>
     </row>
     <row r="2694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2694" s="3" t="s">
+      <c r="A2694" s="1" t="s">
         <v>2381</v>
       </c>
       <c r="B2694" s="2" t="s">
@@ -35513,7 +35513,7 @@
       </c>
     </row>
     <row r="2695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2695" s="3" t="s">
+      <c r="A2695" s="1" t="s">
         <v>2384</v>
       </c>
       <c r="B2695" s="2" t="s">
@@ -35521,7 +35521,7 @@
       </c>
     </row>
     <row r="2696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2696" s="3" t="s">
+      <c r="A2696" s="1" t="s">
         <v>2384</v>
       </c>
       <c r="B2696" s="2" t="s">
@@ -35529,7 +35529,7 @@
       </c>
     </row>
     <row r="2697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2697" s="3" t="s">
+      <c r="A2697" s="1" t="s">
         <v>2385</v>
       </c>
       <c r="B2697" s="2" t="s">
@@ -35537,7 +35537,7 @@
       </c>
     </row>
     <row r="2698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2698" s="3" t="s">
+      <c r="A2698" s="1" t="s">
         <v>2386</v>
       </c>
       <c r="B2698" s="2" t="s">
@@ -35545,7 +35545,7 @@
       </c>
     </row>
     <row r="2699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2699" s="3" t="s">
+      <c r="A2699" s="1" t="s">
         <v>2387</v>
       </c>
       <c r="B2699" s="2" t="s">
@@ -35553,7 +35553,7 @@
       </c>
     </row>
     <row r="2700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2700" s="3" t="s">
+      <c r="A2700" s="1" t="s">
         <v>2388</v>
       </c>
       <c r="B2700" s="2" t="s">
@@ -35561,7 +35561,7 @@
       </c>
     </row>
     <row r="2701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2701" s="3" t="s">
+      <c r="A2701" s="1" t="s">
         <v>2389</v>
       </c>
       <c r="B2701" s="2" t="s">
@@ -35569,7 +35569,7 @@
       </c>
     </row>
     <row r="2702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2702" s="3" t="s">
+      <c r="A2702" s="1" t="s">
         <v>2389</v>
       </c>
       <c r="B2702" s="2" t="s">
@@ -35577,7 +35577,7 @@
       </c>
     </row>
     <row r="2703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2703" s="3" t="s">
+      <c r="A2703" s="1" t="s">
         <v>2389</v>
       </c>
       <c r="B2703" s="2" t="s">
@@ -35585,7 +35585,7 @@
       </c>
     </row>
     <row r="2704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2704" s="3" t="s">
+      <c r="A2704" s="1" t="s">
         <v>2389</v>
       </c>
       <c r="B2704" s="2" t="s">
@@ -35593,7 +35593,7 @@
       </c>
     </row>
     <row r="2705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2705" s="3" t="s">
+      <c r="A2705" s="1" t="s">
         <v>2389</v>
       </c>
       <c r="B2705" s="2" t="s">
@@ -35601,7 +35601,7 @@
       </c>
     </row>
     <row r="2706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2706" s="3" t="s">
+      <c r="A2706" s="1" t="s">
         <v>2389</v>
       </c>
       <c r="B2706" s="2" t="s">
@@ -35609,7 +35609,7 @@
       </c>
     </row>
     <row r="2707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2707" s="3" t="s">
+      <c r="A2707" s="1" t="s">
         <v>2390</v>
       </c>
       <c r="B2707" s="2" t="s">
@@ -35617,7 +35617,7 @@
       </c>
     </row>
     <row r="2708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2708" s="3" t="s">
+      <c r="A2708" s="1" t="s">
         <v>2390</v>
       </c>
       <c r="B2708" s="2" t="s">
@@ -35681,7 +35681,7 @@
       </c>
     </row>
     <row r="2716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2716" s="3" t="s">
+      <c r="A2716" s="1" t="s">
         <v>2394</v>
       </c>
       <c r="B2716" s="2" t="s">
@@ -35833,7 +35833,7 @@
       </c>
     </row>
     <row r="2735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2735" s="3" t="s">
+      <c r="A2735" s="1" t="s">
         <v>2417</v>
       </c>
       <c r="B2735" s="2" t="s">
@@ -35841,7 +35841,7 @@
       </c>
     </row>
     <row r="2736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2736" s="3" t="s">
+      <c r="A2736" s="1" t="s">
         <v>2419</v>
       </c>
       <c r="B2736" s="2" t="s">
@@ -35849,7 +35849,7 @@
       </c>
     </row>
     <row r="2737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2737" s="3" t="s">
+      <c r="A2737" s="1" t="s">
         <v>2419</v>
       </c>
       <c r="B2737" s="2" t="s">
@@ -35857,7 +35857,7 @@
       </c>
     </row>
     <row r="2738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2738" s="3" t="s">
+      <c r="A2738" s="1" t="s">
         <v>2420</v>
       </c>
       <c r="B2738" s="2" t="s">
@@ -35865,7 +35865,7 @@
       </c>
     </row>
     <row r="2739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2739" s="3" t="s">
+      <c r="A2739" s="1" t="s">
         <v>2421</v>
       </c>
       <c r="B2739" s="2" t="s">
@@ -35873,7 +35873,7 @@
       </c>
     </row>
     <row r="2740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2740" s="3" t="s">
+      <c r="A2740" s="1" t="s">
         <v>2422</v>
       </c>
       <c r="B2740" s="2" t="s">
@@ -35985,7 +35985,7 @@
       </c>
     </row>
     <row r="2754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2754" s="3" t="s">
+      <c r="A2754" s="1" t="s">
         <v>2434</v>
       </c>
       <c r="B2754" s="2" t="s">
@@ -35993,7 +35993,7 @@
       </c>
     </row>
     <row r="2755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2755" s="3" t="s">
+      <c r="A2755" s="1" t="s">
         <v>2435</v>
       </c>
       <c r="B2755" s="2" t="s">
@@ -36001,7 +36001,7 @@
       </c>
     </row>
     <row r="2756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2756" s="3" t="s">
+      <c r="A2756" s="1" t="s">
         <v>2436</v>
       </c>
       <c r="B2756" s="2" t="s">
@@ -36009,7 +36009,7 @@
       </c>
     </row>
     <row r="2757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2757" s="3" t="s">
+      <c r="A2757" s="1" t="s">
         <v>2437</v>
       </c>
       <c r="B2757" s="2" t="s">
@@ -36017,7 +36017,7 @@
       </c>
     </row>
     <row r="2758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2758" s="3" t="s">
+      <c r="A2758" s="1" t="s">
         <v>2437</v>
       </c>
       <c r="B2758" s="2" t="s">
@@ -36025,7 +36025,7 @@
       </c>
     </row>
     <row r="2759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2759" s="3" t="s">
+      <c r="A2759" s="1" t="s">
         <v>2437</v>
       </c>
       <c r="B2759" s="2" t="s">
@@ -36033,7 +36033,7 @@
       </c>
     </row>
     <row r="2760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2760" s="3" t="s">
+      <c r="A2760" s="1" t="s">
         <v>2438</v>
       </c>
       <c r="B2760" s="2" t="s">
@@ -36041,7 +36041,7 @@
       </c>
     </row>
     <row r="2761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2761" s="3" t="s">
+      <c r="A2761" s="1" t="s">
         <v>2438</v>
       </c>
       <c r="B2761" s="2" t="s">
@@ -36049,7 +36049,7 @@
       </c>
     </row>
     <row r="2762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2762" s="3" t="s">
+      <c r="A2762" s="1" t="s">
         <v>2440</v>
       </c>
       <c r="B2762" s="2" t="s">
@@ -36057,7 +36057,7 @@
       </c>
     </row>
     <row r="2763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2763" s="3" t="s">
+      <c r="A2763" s="1" t="s">
         <v>2441</v>
       </c>
       <c r="B2763" s="2" t="s">
@@ -36065,7 +36065,7 @@
       </c>
     </row>
     <row r="2764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2764" s="3" t="s">
+      <c r="A2764" s="1" t="s">
         <v>2442</v>
       </c>
       <c r="B2764" s="2" t="s">
@@ -36073,7 +36073,7 @@
       </c>
     </row>
     <row r="2765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2765" s="3" t="s">
+      <c r="A2765" s="1" t="s">
         <v>2443</v>
       </c>
       <c r="B2765" s="2" t="s">
@@ -36081,7 +36081,7 @@
       </c>
     </row>
     <row r="2766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2766" s="3" t="s">
+      <c r="A2766" s="1" t="s">
         <v>2444</v>
       </c>
       <c r="B2766" s="2" t="s">
@@ -36089,7 +36089,7 @@
       </c>
     </row>
     <row r="2767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2767" s="3" t="s">
+      <c r="A2767" s="1" t="s">
         <v>2445</v>
       </c>
       <c r="B2767" s="2" t="s">
@@ -36097,7 +36097,7 @@
       </c>
     </row>
     <row r="2768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2768" s="3" t="s">
+      <c r="A2768" s="1" t="s">
         <v>2446</v>
       </c>
       <c r="B2768" s="2" t="s">
@@ -36105,7 +36105,7 @@
       </c>
     </row>
     <row r="2769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2769" s="3" t="s">
+      <c r="A2769" s="1" t="s">
         <v>2447</v>
       </c>
       <c r="B2769" s="2" t="s">
@@ -36113,7 +36113,7 @@
       </c>
     </row>
     <row r="2770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2770" s="3" t="s">
+      <c r="A2770" s="1" t="s">
         <v>2448</v>
       </c>
       <c r="B2770" s="2" t="s">
@@ -36121,7 +36121,7 @@
       </c>
     </row>
     <row r="2771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2771" s="3" t="s">
+      <c r="A2771" s="1" t="s">
         <v>2449</v>
       </c>
       <c r="B2771" s="2" t="s">
@@ -36313,7 +36313,7 @@
       </c>
     </row>
     <row r="2795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2795" s="3" t="s">
+      <c r="A2795" s="1" t="s">
         <v>2476</v>
       </c>
       <c r="B2795" s="2" t="s">
@@ -36321,7 +36321,7 @@
       </c>
     </row>
     <row r="2796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2796" s="3" t="s">
+      <c r="A2796" s="1" t="s">
         <v>2477</v>
       </c>
       <c r="B2796" s="2" t="s">
@@ -36329,7 +36329,7 @@
       </c>
     </row>
     <row r="2797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2797" s="3" t="s">
+      <c r="A2797" s="1" t="s">
         <v>2477</v>
       </c>
       <c r="B2797" s="2" t="s">
@@ -36337,7 +36337,7 @@
       </c>
     </row>
     <row r="2798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2798" s="3" t="s">
+      <c r="A2798" s="1" t="s">
         <v>2477</v>
       </c>
       <c r="B2798" s="2" t="s">
@@ -36345,7 +36345,7 @@
       </c>
     </row>
     <row r="2799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2799" s="3" t="s">
+      <c r="A2799" s="1" t="s">
         <v>2477</v>
       </c>
       <c r="B2799" s="2" t="s">
@@ -36353,7 +36353,7 @@
       </c>
     </row>
     <row r="2800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2800" s="3" t="s">
+      <c r="A2800" s="1" t="s">
         <v>2477</v>
       </c>
       <c r="B2800" s="2" t="s">
@@ -36361,7 +36361,7 @@
       </c>
     </row>
     <row r="2801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2801" s="3" t="s">
+      <c r="A2801" s="1" t="s">
         <v>2477</v>
       </c>
       <c r="B2801" s="2" t="s">
@@ -36369,7 +36369,7 @@
       </c>
     </row>
     <row r="2802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2802" s="3" t="s">
+      <c r="A2802" s="1" t="s">
         <v>2478</v>
       </c>
       <c r="B2802" s="2" t="s">
@@ -36377,7 +36377,7 @@
       </c>
     </row>
     <row r="2803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2803" s="3" t="s">
+      <c r="A2803" s="1" t="s">
         <v>2478</v>
       </c>
       <c r="B2803" s="2" t="s">
@@ -36385,7 +36385,7 @@
       </c>
     </row>
     <row r="2804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2804" s="3" t="s">
+      <c r="A2804" s="1" t="s">
         <v>2479</v>
       </c>
       <c r="B2804" s="2" t="s">
@@ -36393,7 +36393,7 @@
       </c>
     </row>
     <row r="2805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2805" s="3" t="s">
+      <c r="A2805" s="1" t="s">
         <v>2479</v>
       </c>
       <c r="B2805" s="2" t="s">
@@ -36401,7 +36401,7 @@
       </c>
     </row>
     <row r="2806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2806" s="3" t="s">
+      <c r="A2806" s="1" t="s">
         <v>2480</v>
       </c>
       <c r="B2806" s="2" t="s">
@@ -36409,7 +36409,7 @@
       </c>
     </row>
     <row r="2807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2807" s="3" t="s">
+      <c r="A2807" s="1" t="s">
         <v>2481</v>
       </c>
       <c r="B2807" s="2" t="s">
@@ -36417,7 +36417,7 @@
       </c>
     </row>
     <row r="2808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2808" s="3" t="s">
+      <c r="A2808" s="1" t="s">
         <v>2482</v>
       </c>
       <c r="B2808" s="2" t="s">
@@ -36425,7 +36425,7 @@
       </c>
     </row>
     <row r="2809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2809" s="3" t="s">
+      <c r="A2809" s="1" t="s">
         <v>2483</v>
       </c>
       <c r="B2809" s="2" t="s">
@@ -36481,7 +36481,7 @@
       </c>
     </row>
     <row r="2816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2816" s="3" t="s">
+      <c r="A2816" s="1" t="s">
         <v>2489</v>
       </c>
       <c r="B2816" s="2" t="s">
@@ -36489,7 +36489,7 @@
       </c>
     </row>
     <row r="2817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2817" s="3" t="s">
+      <c r="A2817" s="1" t="s">
         <v>2490</v>
       </c>
       <c r="B2817" s="2" t="s">
@@ -36497,7 +36497,7 @@
       </c>
     </row>
     <row r="2818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2818" s="3" t="s">
+      <c r="A2818" s="1" t="s">
         <v>2491</v>
       </c>
       <c r="B2818" s="2" t="s">
@@ -36505,7 +36505,7 @@
       </c>
     </row>
     <row r="2819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2819" s="3" t="s">
+      <c r="A2819" s="1" t="s">
         <v>2492</v>
       </c>
       <c r="B2819" s="2" t="s">
@@ -36513,7 +36513,7 @@
       </c>
     </row>
     <row r="2820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2820" s="3" t="s">
+      <c r="A2820" s="1" t="s">
         <v>2494</v>
       </c>
       <c r="B2820" s="2" t="s">
@@ -36529,7 +36529,7 @@
       </c>
     </row>
     <row r="2822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2822" s="3" t="s">
+      <c r="A2822" s="1" t="s">
         <v>2495</v>
       </c>
       <c r="B2822" s="2" t="s">
@@ -36537,7 +36537,7 @@
       </c>
     </row>
     <row r="2823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2823" s="3" t="s">
+      <c r="A2823" s="1" t="s">
         <v>2497</v>
       </c>
       <c r="B2823" s="2" t="s">
@@ -36545,7 +36545,7 @@
       </c>
     </row>
     <row r="2824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2824" s="3" t="s">
+      <c r="A2824" s="1" t="s">
         <v>2499</v>
       </c>
       <c r="B2824" s="2" t="s">
@@ -36553,7 +36553,7 @@
       </c>
     </row>
     <row r="2825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2825" s="3" t="s">
+      <c r="A2825" s="1" t="s">
         <v>2500</v>
       </c>
       <c r="B2825" s="2" t="s">
@@ -36561,7 +36561,7 @@
       </c>
     </row>
     <row r="2826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2826" s="3" t="s">
+      <c r="A2826" s="1" t="s">
         <v>2501</v>
       </c>
       <c r="B2826" s="2" t="s">
@@ -36569,7 +36569,7 @@
       </c>
     </row>
     <row r="2827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2827" s="3" t="s">
+      <c r="A2827" s="1" t="s">
         <v>2503</v>
       </c>
       <c r="B2827" s="2" t="s">
@@ -36577,7 +36577,7 @@
       </c>
     </row>
     <row r="2828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2828" s="3" t="s">
+      <c r="A2828" s="1" t="s">
         <v>2503</v>
       </c>
       <c r="B2828" s="2" t="s">
@@ -36585,7 +36585,7 @@
       </c>
     </row>
     <row r="2829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2829" s="3" t="s">
+      <c r="A2829" s="1" t="s">
         <v>2504</v>
       </c>
       <c r="B2829" s="2" t="s">
@@ -36593,7 +36593,7 @@
       </c>
     </row>
     <row r="2830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2830" s="3" t="s">
+      <c r="A2830" s="1" t="s">
         <v>2506</v>
       </c>
       <c r="B2830" s="2" t="s">
@@ -36601,7 +36601,7 @@
       </c>
     </row>
     <row r="2831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2831" s="3" t="s">
+      <c r="A2831" s="1" t="s">
         <v>2506</v>
       </c>
       <c r="B2831" s="2" t="s">
@@ -36609,7 +36609,7 @@
       </c>
     </row>
     <row r="2832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2832" s="3" t="s">
+      <c r="A2832" s="1" t="s">
         <v>2508</v>
       </c>
       <c r="B2832" s="2" t="s">
@@ -36617,7 +36617,7 @@
       </c>
     </row>
     <row r="2833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2833" s="3" t="s">
+      <c r="A2833" s="1" t="s">
         <v>2508</v>
       </c>
       <c r="B2833" s="2" t="s">
@@ -36625,7 +36625,7 @@
       </c>
     </row>
     <row r="2834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2834" s="3" t="s">
+      <c r="A2834" s="1" t="s">
         <v>2510</v>
       </c>
       <c r="B2834" s="2" t="s">
@@ -36633,7 +36633,7 @@
       </c>
     </row>
     <row r="2835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2835" s="3" t="s">
+      <c r="A2835" s="1" t="s">
         <v>2511</v>
       </c>
       <c r="B2835" s="2" t="s">
@@ -36641,7 +36641,7 @@
       </c>
     </row>
     <row r="2836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2836" s="3" t="s">
+      <c r="A2836" s="1" t="s">
         <v>2512</v>
       </c>
       <c r="B2836" s="2" t="s">
@@ -36649,7 +36649,7 @@
       </c>
     </row>
     <row r="2837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2837" s="3" t="s">
+      <c r="A2837" s="1" t="s">
         <v>2513</v>
       </c>
       <c r="B2837" s="2" t="s">
@@ -36657,7 +36657,7 @@
       </c>
     </row>
     <row r="2838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2838" s="3" t="s">
+      <c r="A2838" s="1" t="s">
         <v>2513</v>
       </c>
       <c r="B2838" s="2" t="s">
@@ -36665,7 +36665,7 @@
       </c>
     </row>
     <row r="2839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2839" s="3" t="s">
+      <c r="A2839" s="1" t="s">
         <v>2514</v>
       </c>
       <c r="B2839" s="2" t="s">
@@ -36673,7 +36673,7 @@
       </c>
     </row>
     <row r="2840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2840" s="3" t="s">
+      <c r="A2840" s="1" t="s">
         <v>2514</v>
       </c>
       <c r="B2840" s="2" t="s">
@@ -36681,7 +36681,7 @@
       </c>
     </row>
     <row r="2841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2841" s="3" t="s">
+      <c r="A2841" s="1" t="s">
         <v>2515</v>
       </c>
       <c r="B2841" s="2" t="s">
@@ -36689,7 +36689,7 @@
       </c>
     </row>
     <row r="2842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2842" s="3" t="s">
+      <c r="A2842" s="1" t="s">
         <v>2516</v>
       </c>
       <c r="B2842" s="2" t="s">
@@ -36697,7 +36697,7 @@
       </c>
     </row>
     <row r="2843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2843" s="3" t="s">
+      <c r="A2843" s="1" t="s">
         <v>2517</v>
       </c>
       <c r="B2843" s="2" t="s">
@@ -36705,7 +36705,7 @@
       </c>
     </row>
     <row r="2844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2844" s="3" t="s">
+      <c r="A2844" s="1" t="s">
         <v>2518</v>
       </c>
       <c r="B2844" s="2" t="s">
@@ -36713,7 +36713,7 @@
       </c>
     </row>
     <row r="2845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2845" s="3" t="s">
+      <c r="A2845" s="1" t="s">
         <v>2519</v>
       </c>
       <c r="B2845" s="2" t="s">
@@ -36721,7 +36721,7 @@
       </c>
     </row>
     <row r="2846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2846" s="3" t="s">
+      <c r="A2846" s="1" t="s">
         <v>2520</v>
       </c>
       <c r="B2846" s="2" t="s">
@@ -36729,7 +36729,7 @@
       </c>
     </row>
     <row r="2847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2847" s="3" t="s">
+      <c r="A2847" s="1" t="s">
         <v>2521</v>
       </c>
       <c r="B2847" s="2" t="s">
@@ -36737,7 +36737,7 @@
       </c>
     </row>
     <row r="2848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2848" s="3" t="s">
+      <c r="A2848" s="1" t="s">
         <v>2522</v>
       </c>
       <c r="B2848" s="2" t="s">
@@ -36817,7 +36817,7 @@
       </c>
     </row>
     <row r="2858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2858" s="3" t="s">
+      <c r="A2858" s="1" t="s">
         <v>2531</v>
       </c>
       <c r="B2858" s="2" t="s">
@@ -36825,7 +36825,7 @@
       </c>
     </row>
     <row r="2859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2859" s="3" t="s">
+      <c r="A2859" s="1" t="s">
         <v>2531</v>
       </c>
       <c r="B2859" s="2" t="s">
@@ -36833,7 +36833,7 @@
       </c>
     </row>
     <row r="2860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2860" s="3" t="s">
+      <c r="A2860" s="1" t="s">
         <v>2532</v>
       </c>
       <c r="B2860" s="2" t="s">
@@ -36841,7 +36841,7 @@
       </c>
     </row>
     <row r="2861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2861" s="3" t="s">
+      <c r="A2861" s="1" t="s">
         <v>2534</v>
       </c>
       <c r="B2861" s="2" t="s">
@@ -36849,7 +36849,7 @@
       </c>
     </row>
     <row r="2862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2862" s="3" t="s">
+      <c r="A2862" s="1" t="s">
         <v>2534</v>
       </c>
       <c r="B2862" s="2" t="s">
@@ -36857,7 +36857,7 @@
       </c>
     </row>
     <row r="2863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2863" s="3" t="s">
+      <c r="A2863" s="1" t="s">
         <v>2535</v>
       </c>
       <c r="B2863" s="2" t="s">
@@ -36865,7 +36865,7 @@
       </c>
     </row>
     <row r="2864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2864" s="3" t="s">
+      <c r="A2864" s="1" t="s">
         <v>2535</v>
       </c>
       <c r="B2864" s="2" t="s">
@@ -36873,7 +36873,7 @@
       </c>
     </row>
     <row r="2865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2865" s="3" t="s">
+      <c r="A2865" s="1" t="s">
         <v>2535</v>
       </c>
       <c r="B2865" s="2" t="s">
@@ -36881,7 +36881,7 @@
       </c>
     </row>
     <row r="2866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2866" s="3" t="s">
+      <c r="A2866" s="1" t="s">
         <v>2535</v>
       </c>
       <c r="B2866" s="2" t="s">
@@ -36889,7 +36889,7 @@
       </c>
     </row>
     <row r="2867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2867" s="3" t="s">
+      <c r="A2867" s="1" t="s">
         <v>2536</v>
       </c>
       <c r="B2867" s="2" t="s">
@@ -36897,7 +36897,7 @@
       </c>
     </row>
     <row r="2868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2868" s="3" t="s">
+      <c r="A2868" s="1" t="s">
         <v>2538</v>
       </c>
       <c r="B2868" s="2" t="s">
@@ -36905,7 +36905,7 @@
       </c>
     </row>
     <row r="2869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2869" s="3" t="s">
+      <c r="A2869" s="1" t="s">
         <v>2538</v>
       </c>
       <c r="B2869" s="2" t="s">
@@ -36913,7 +36913,7 @@
       </c>
     </row>
     <row r="2870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2870" s="3" t="s">
+      <c r="A2870" s="1" t="s">
         <v>2538</v>
       </c>
       <c r="B2870" s="2" t="s">
@@ -36921,7 +36921,7 @@
       </c>
     </row>
     <row r="2871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2871" s="3" t="s">
+      <c r="A2871" s="1" t="s">
         <v>2541</v>
       </c>
       <c r="B2871" s="2" t="s">
@@ -36929,7 +36929,7 @@
       </c>
     </row>
     <row r="2872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2872" s="3" t="s">
+      <c r="A2872" s="1" t="s">
         <v>2541</v>
       </c>
       <c r="B2872" s="2" t="s">
@@ -36937,7 +36937,7 @@
       </c>
     </row>
     <row r="2873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2873" s="3" t="s">
+      <c r="A2873" s="1" t="s">
         <v>2541</v>
       </c>
       <c r="B2873" s="2" t="s">
@@ -36945,7 +36945,7 @@
       </c>
     </row>
     <row r="2874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2874" s="3" t="s">
+      <c r="A2874" s="1" t="s">
         <v>2544</v>
       </c>
       <c r="B2874" s="2" t="s">
@@ -36953,7 +36953,7 @@
       </c>
     </row>
     <row r="2875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2875" s="3" t="s">
+      <c r="A2875" s="1" t="s">
         <v>2546</v>
       </c>
       <c r="B2875" s="2" t="s">
@@ -36961,7 +36961,7 @@
       </c>
     </row>
     <row r="2876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2876" s="3" t="s">
+      <c r="A2876" s="1" t="s">
         <v>2547</v>
       </c>
       <c r="B2876" s="2" t="s">
@@ -36969,7 +36969,7 @@
       </c>
     </row>
     <row r="2877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2877" s="3" t="s">
+      <c r="A2877" s="1" t="s">
         <v>2548</v>
       </c>
       <c r="B2877" s="2" t="s">
@@ -36977,7 +36977,7 @@
       </c>
     </row>
     <row r="2878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2878" s="3" t="s">
+      <c r="A2878" s="1" t="s">
         <v>2549</v>
       </c>
       <c r="B2878" s="2" t="s">
@@ -36985,7 +36985,7 @@
       </c>
     </row>
     <row r="2879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2879" s="3" t="s">
+      <c r="A2879" s="1" t="s">
         <v>2550</v>
       </c>
       <c r="B2879" s="2" t="s">
@@ -36993,7 +36993,7 @@
       </c>
     </row>
     <row r="2880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2880" s="3" t="s">
+      <c r="A2880" s="1" t="s">
         <v>2550</v>
       </c>
       <c r="B2880" s="2" t="s">
@@ -37001,7 +37001,7 @@
       </c>
     </row>
     <row r="2881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2881" s="3" t="s">
+      <c r="A2881" s="1" t="s">
         <v>2551</v>
       </c>
       <c r="B2881" s="2" t="s">
@@ -37009,7 +37009,7 @@
       </c>
     </row>
     <row r="2882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2882" s="3" t="s">
+      <c r="A2882" s="1" t="s">
         <v>2552</v>
       </c>
       <c r="B2882" s="2" t="s">
@@ -37017,7 +37017,7 @@
       </c>
     </row>
     <row r="2883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2883" s="3" t="s">
+      <c r="A2883" s="1" t="s">
         <v>2554</v>
       </c>
       <c r="B2883" s="2" t="s">
@@ -37025,7 +37025,7 @@
       </c>
     </row>
     <row r="2884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2884" s="3" t="s">
+      <c r="A2884" s="1" t="s">
         <v>2556</v>
       </c>
       <c r="B2884" s="2" t="s">
@@ -37033,7 +37033,7 @@
       </c>
     </row>
     <row r="2885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2885" s="3" t="s">
+      <c r="A2885" s="1" t="s">
         <v>2557</v>
       </c>
       <c r="B2885" s="2" t="s">
@@ -37041,7 +37041,7 @@
       </c>
     </row>
     <row r="2886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2886" s="3" t="s">
+      <c r="A2886" s="1" t="s">
         <v>2558</v>
       </c>
       <c r="B2886" s="2" t="s">
@@ -37049,7 +37049,7 @@
       </c>
     </row>
     <row r="2887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2887" s="3" t="s">
+      <c r="A2887" s="1" t="s">
         <v>2560</v>
       </c>
       <c r="B2887" s="2" t="s">
@@ -37057,7 +37057,7 @@
       </c>
     </row>
     <row r="2888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2888" s="3" t="s">
+      <c r="A2888" s="1" t="s">
         <v>2561</v>
       </c>
       <c r="B2888" s="2" t="s">
@@ -37065,7 +37065,7 @@
       </c>
     </row>
     <row r="2889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2889" s="3" t="s">
+      <c r="A2889" s="1" t="s">
         <v>2562</v>
       </c>
       <c r="B2889" s="2" t="s">
@@ -37073,7 +37073,7 @@
       </c>
     </row>
     <row r="2890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2890" s="3" t="s">
+      <c r="A2890" s="1" t="s">
         <v>2563</v>
       </c>
       <c r="B2890" s="2" t="s">
@@ -37081,7 +37081,7 @@
       </c>
     </row>
     <row r="2891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2891" s="3" t="s">
+      <c r="A2891" s="1" t="s">
         <v>2564</v>
       </c>
       <c r="B2891" s="2" t="s">
@@ -37089,7 +37089,7 @@
       </c>
     </row>
     <row r="2892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2892" s="3" t="s">
+      <c r="A2892" s="1" t="s">
         <v>2565</v>
       </c>
       <c r="B2892" s="2" t="s">
@@ -37097,7 +37097,7 @@
       </c>
     </row>
     <row r="2893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2893" s="3" t="s">
+      <c r="A2893" s="1" t="s">
         <v>2566</v>
       </c>
       <c r="B2893" s="2" t="s">
@@ -37105,7 +37105,7 @@
       </c>
     </row>
     <row r="2894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2894" s="3" t="s">
+      <c r="A2894" s="1" t="s">
         <v>2567</v>
       </c>
       <c r="B2894" s="2" t="s">
@@ -37225,7 +37225,7 @@
       </c>
     </row>
     <row r="2909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2909" s="3" t="s">
+      <c r="A2909" s="1" t="s">
         <v>2585</v>
       </c>
       <c r="B2909" s="2" t="s">
@@ -37233,7 +37233,7 @@
       </c>
     </row>
     <row r="2910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2910" s="3" t="s">
+      <c r="A2910" s="1" t="s">
         <v>2586</v>
       </c>
       <c r="B2910" s="2" t="s">
@@ -37241,7 +37241,7 @@
       </c>
     </row>
     <row r="2911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2911" s="3" t="s">
+      <c r="A2911" s="1" t="s">
         <v>2588</v>
       </c>
       <c r="B2911" s="2" t="s">
@@ -37249,7 +37249,7 @@
       </c>
     </row>
     <row r="2912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2912" s="3" t="s">
+      <c r="A2912" s="1" t="s">
         <v>2590</v>
       </c>
       <c r="B2912" s="2" t="s">
@@ -37257,7 +37257,7 @@
       </c>
     </row>
     <row r="2913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2913" s="3" t="s">
+      <c r="A2913" s="1" t="s">
         <v>2592</v>
       </c>
       <c r="B2913" s="2" t="s">
@@ -37265,7 +37265,7 @@
       </c>
     </row>
     <row r="2914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2914" s="3" t="s">
+      <c r="A2914" s="1" t="s">
         <v>2594</v>
       </c>
       <c r="B2914" s="2" t="s">
@@ -37273,7 +37273,7 @@
       </c>
     </row>
     <row r="2915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2915" s="3" t="s">
+      <c r="A2915" s="1" t="s">
         <v>2596</v>
       </c>
       <c r="B2915" s="2" t="s">
@@ -37281,7 +37281,7 @@
       </c>
     </row>
     <row r="2916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2916" s="3" t="s">
+      <c r="A2916" s="1" t="s">
         <v>2596</v>
       </c>
       <c r="B2916" s="2" t="s">
@@ -37289,7 +37289,7 @@
       </c>
     </row>
     <row r="2917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2917" s="3" t="s">
+      <c r="A2917" s="1" t="s">
         <v>2596</v>
       </c>
       <c r="B2917" s="2" t="s">
@@ -37297,7 +37297,7 @@
       </c>
     </row>
     <row r="2918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2918" s="3" t="s">
+      <c r="A2918" s="1" t="s">
         <v>2596</v>
       </c>
       <c r="B2918" s="2" t="s">
@@ -37305,7 +37305,7 @@
       </c>
     </row>
     <row r="2919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2919" s="3" t="s">
+      <c r="A2919" s="1" t="s">
         <v>2596</v>
       </c>
       <c r="B2919" s="2" t="s">
@@ -37313,7 +37313,7 @@
       </c>
     </row>
     <row r="2920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2920" s="3" t="s">
+      <c r="A2920" s="1" t="s">
         <v>2596</v>
       </c>
       <c r="B2920" s="2" t="s">
@@ -37321,7 +37321,7 @@
       </c>
     </row>
     <row r="2921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2921" s="3" t="s">
+      <c r="A2921" s="1" t="s">
         <v>2596</v>
       </c>
       <c r="B2921" s="2" t="s">
@@ -37329,7 +37329,7 @@
       </c>
     </row>
     <row r="2922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2922" s="3" t="s">
+      <c r="A2922" s="1" t="s">
         <v>2597</v>
       </c>
       <c r="B2922" s="2" t="s">
@@ -37337,7 +37337,7 @@
       </c>
     </row>
     <row r="2923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2923" s="3" t="s">
+      <c r="A2923" s="1" t="s">
         <v>2598</v>
       </c>
       <c r="B2923" s="2" t="s">
@@ -37345,7 +37345,7 @@
       </c>
     </row>
     <row r="2924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2924" s="3" t="s">
+      <c r="A2924" s="1" t="s">
         <v>2599</v>
       </c>
       <c r="B2924" s="2" t="s">
@@ -37353,7 +37353,7 @@
       </c>
     </row>
     <row r="2925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2925" s="3" t="s">
+      <c r="A2925" s="1" t="s">
         <v>2599</v>
       </c>
       <c r="B2925" s="2" t="s">
@@ -37361,7 +37361,7 @@
       </c>
     </row>
     <row r="2926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2926" s="3" t="s">
+      <c r="A2926" s="1" t="s">
         <v>2600</v>
       </c>
       <c r="B2926" s="2" t="s">
@@ -37369,7 +37369,7 @@
       </c>
     </row>
     <row r="2927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2927" s="3" t="s">
+      <c r="A2927" s="1" t="s">
         <v>2601</v>
       </c>
       <c r="B2927" s="2" t="s">
@@ -37377,7 +37377,7 @@
       </c>
     </row>
     <row r="2928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2928" s="3" t="s">
+      <c r="A2928" s="1" t="s">
         <v>2602</v>
       </c>
       <c r="B2928" s="2" t="s">
@@ -37385,7 +37385,7 @@
       </c>
     </row>
     <row r="2929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2929" s="3" t="s">
+      <c r="A2929" s="1" t="s">
         <v>2603</v>
       </c>
       <c r="B2929" s="2" t="s">
@@ -37393,7 +37393,7 @@
       </c>
     </row>
     <row r="2930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2930" s="3" t="s">
+      <c r="A2930" s="1" t="s">
         <v>2604</v>
       </c>
       <c r="B2930" s="2" t="s">
@@ -37401,7 +37401,7 @@
       </c>
     </row>
     <row r="2931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2931" s="3" t="s">
+      <c r="A2931" s="1" t="s">
         <v>2604</v>
       </c>
       <c r="B2931" s="2" t="s">
@@ -37825,7 +37825,7 @@
       </c>
     </row>
     <row r="2984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2984" s="3" t="s">
+      <c r="A2984" s="1" t="s">
         <v>2660</v>
       </c>
       <c r="B2984" s="2" t="s">
@@ -37833,7 +37833,7 @@
       </c>
     </row>
     <row r="2985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2985" s="3" t="s">
+      <c r="A2985" s="1" t="s">
         <v>2661</v>
       </c>
       <c r="B2985" s="2" t="s">
@@ -37841,7 +37841,7 @@
       </c>
     </row>
     <row r="2986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2986" s="3" t="s">
+      <c r="A2986" s="1" t="s">
         <v>2662</v>
       </c>
       <c r="B2986" s="2" t="s">
@@ -37849,7 +37849,7 @@
       </c>
     </row>
     <row r="2987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2987" s="3" t="s">
+      <c r="A2987" s="1" t="s">
         <v>2664</v>
       </c>
       <c r="B2987" s="2" t="s">
@@ -37857,7 +37857,7 @@
       </c>
     </row>
     <row r="2988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2988" s="3" t="s">
+      <c r="A2988" s="1" t="s">
         <v>2665</v>
       </c>
       <c r="B2988" s="2" t="s">
@@ -37865,7 +37865,7 @@
       </c>
     </row>
     <row r="2989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2989" s="3" t="s">
+      <c r="A2989" s="1" t="s">
         <v>2666</v>
       </c>
       <c r="B2989" s="2" t="s">
@@ -37873,7 +37873,7 @@
       </c>
     </row>
     <row r="2990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2990" s="3" t="s">
+      <c r="A2990" s="1" t="s">
         <v>2666</v>
       </c>
       <c r="B2990" s="2" t="s">
@@ -37881,7 +37881,7 @@
       </c>
     </row>
     <row r="2991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2991" s="3" t="s">
+      <c r="A2991" s="1" t="s">
         <v>2666</v>
       </c>
       <c r="B2991" s="2" t="s">
@@ -37889,7 +37889,7 @@
       </c>
     </row>
     <row r="2992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2992" s="3" t="s">
+      <c r="A2992" s="1" t="s">
         <v>2666</v>
       </c>
       <c r="B2992" s="2" t="s">
@@ -37897,7 +37897,7 @@
       </c>
     </row>
     <row r="2993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2993" s="3" t="s">
+      <c r="A2993" s="1" t="s">
         <v>2668</v>
       </c>
       <c r="B2993" s="2" t="s">
@@ -37905,7 +37905,7 @@
       </c>
     </row>
     <row r="2994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2994" s="3" t="s">
+      <c r="A2994" s="1" t="s">
         <v>2670</v>
       </c>
       <c r="B2994" s="2" t="s">
@@ -37913,7 +37913,7 @@
       </c>
     </row>
     <row r="2995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2995" s="3" t="s">
+      <c r="A2995" s="1" t="s">
         <v>2671</v>
       </c>
       <c r="B2995" s="2" t="s">
@@ -37921,7 +37921,7 @@
       </c>
     </row>
     <row r="2996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2996" s="3" t="s">
+      <c r="A2996" s="1" t="s">
         <v>2672</v>
       </c>
       <c r="B2996" s="2" t="s">
@@ -37929,7 +37929,7 @@
       </c>
     </row>
     <row r="2997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2997" s="3" t="s">
+      <c r="A2997" s="1" t="s">
         <v>2673</v>
       </c>
       <c r="B2997" s="2" t="s">
@@ -37937,7 +37937,7 @@
       </c>
     </row>
     <row r="2998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2998" s="3" t="s">
+      <c r="A2998" s="1" t="s">
         <v>2675</v>
       </c>
       <c r="B2998" s="2" t="s">
@@ -37945,7 +37945,7 @@
       </c>
     </row>
     <row r="2999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2999" s="3" t="s">
+      <c r="A2999" s="1" t="s">
         <v>2676</v>
       </c>
       <c r="B2999" s="2" t="s">
@@ -37953,7 +37953,7 @@
       </c>
     </row>
     <row r="3000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3000" s="3" t="s">
+      <c r="A3000" s="1" t="s">
         <v>2676</v>
       </c>
       <c r="B3000" s="2" t="s">
@@ -37961,7 +37961,7 @@
       </c>
     </row>
     <row r="3001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3001" s="3" t="s">
+      <c r="A3001" s="1" t="s">
         <v>2677</v>
       </c>
       <c r="B3001" s="2" t="s">
@@ -37969,7 +37969,7 @@
       </c>
     </row>
     <row r="3002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3002" s="3" t="s">
+      <c r="A3002" s="1" t="s">
         <v>2677</v>
       </c>
       <c r="B3002" s="2" t="s">
@@ -37977,7 +37977,7 @@
       </c>
     </row>
     <row r="3003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3003" s="3" t="s">
+      <c r="A3003" s="1" t="s">
         <v>2679</v>
       </c>
       <c r="B3003" s="2" t="s">
@@ -37985,7 +37985,7 @@
       </c>
     </row>
     <row r="3004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3004" s="3" t="s">
+      <c r="A3004" s="1" t="s">
         <v>2679</v>
       </c>
       <c r="B3004" s="2" t="s">
@@ -37993,7 +37993,7 @@
       </c>
     </row>
     <row r="3005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3005" s="3" t="s">
+      <c r="A3005" s="1" t="s">
         <v>2681</v>
       </c>
       <c r="B3005" s="2" t="s">
@@ -38001,7 +38001,7 @@
       </c>
     </row>
     <row r="3006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3006" s="3" t="s">
+      <c r="A3006" s="1" t="s">
         <v>2682</v>
       </c>
       <c r="B3006" s="2" t="s">
@@ -38009,7 +38009,7 @@
       </c>
     </row>
     <row r="3007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3007" s="3" t="s">
+      <c r="A3007" s="1" t="s">
         <v>2683</v>
       </c>
       <c r="B3007" s="2" t="s">
@@ -38017,7 +38017,7 @@
       </c>
     </row>
     <row r="3008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3008" s="3" t="s">
+      <c r="A3008" s="1" t="s">
         <v>2684</v>
       </c>
       <c r="B3008" s="2" t="s">
@@ -38025,7 +38025,7 @@
       </c>
     </row>
     <row r="3009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3009" s="3" t="s">
+      <c r="A3009" s="1" t="s">
         <v>2685</v>
       </c>
       <c r="B3009" s="2" t="s">
@@ -38033,7 +38033,7 @@
       </c>
     </row>
     <row r="3010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3010" s="3" t="s">
+      <c r="A3010" s="1" t="s">
         <v>2686</v>
       </c>
       <c r="B3010" s="2" t="s">
@@ -38041,7 +38041,7 @@
       </c>
     </row>
     <row r="3011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3011" s="3" t="s">
+      <c r="A3011" s="1" t="s">
         <v>2686</v>
       </c>
       <c r="B3011" s="2" t="s">
@@ -39409,1162 +39409,1162 @@
       </c>
     </row>
     <row r="3182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3182" s="4" t="s">
+      <c r="A3182" s="3" t="s">
         <v>2813</v>
       </c>
-      <c r="B3182" s="5" t="s">
+      <c r="B3182" s="4" t="s">
         <v>2814</v>
       </c>
     </row>
     <row r="3183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3183" s="4" t="s">
+      <c r="A3183" s="3" t="s">
         <v>2815</v>
       </c>
-      <c r="B3183" s="5" t="s">
+      <c r="B3183" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3184" s="4" t="s">
+      <c r="A3184" s="3" t="s">
         <v>2816</v>
       </c>
-      <c r="B3184" s="5" t="s">
+      <c r="B3184" s="4" t="s">
         <v>2817</v>
       </c>
     </row>
     <row r="3185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3185" s="4" t="s">
+      <c r="A3185" s="5" t="s">
         <v>2818</v>
       </c>
-      <c r="B3185" s="5" t="s">
+      <c r="B3185" s="4" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="3186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3186" s="4" t="s">
+      <c r="A3186" s="5" t="s">
         <v>2819</v>
       </c>
-      <c r="B3186" s="5" t="s">
+      <c r="B3186" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3187" s="4" t="s">
+      <c r="A3187" s="5" t="s">
         <v>2819</v>
       </c>
-      <c r="B3187" s="5" t="s">
+      <c r="B3187" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3188" s="4" t="s">
+      <c r="A3188" s="5" t="s">
         <v>2820</v>
       </c>
-      <c r="B3188" s="5" t="s">
+      <c r="B3188" s="4" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="3189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3189" s="4" t="s">
+      <c r="A3189" s="3" t="s">
         <v>2821</v>
       </c>
-      <c r="B3189" s="5" t="s">
+      <c r="B3189" s="4" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="3190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3190" s="4" t="s">
+      <c r="A3190" s="3" t="s">
         <v>2822</v>
       </c>
-      <c r="B3190" s="5" t="s">
+      <c r="B3190" s="4" t="s">
         <v>2164</v>
       </c>
     </row>
     <row r="3191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3191" s="4" t="s">
+      <c r="A3191" s="3" t="s">
         <v>2823</v>
       </c>
-      <c r="B3191" s="5" t="s">
+      <c r="B3191" s="4" t="s">
         <v>2824</v>
       </c>
     </row>
     <row r="3192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3192" s="4" t="s">
+      <c r="A3192" s="3" t="s">
         <v>2825</v>
       </c>
-      <c r="B3192" s="5" t="s">
+      <c r="B3192" s="4" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="3193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3193" s="4" t="s">
+      <c r="A3193" s="3" t="s">
         <v>2825</v>
       </c>
-      <c r="B3193" s="5" t="s">
+      <c r="B3193" s="4" t="s">
         <v>2814</v>
       </c>
     </row>
     <row r="3194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3194" s="4" t="s">
+      <c r="A3194" s="3" t="s">
         <v>2826</v>
       </c>
-      <c r="B3194" s="5" t="s">
+      <c r="B3194" s="4" t="s">
         <v>2663</v>
       </c>
     </row>
     <row r="3195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3195" s="4" t="s">
+      <c r="A3195" s="3" t="s">
         <v>2827</v>
       </c>
-      <c r="B3195" s="5" t="s">
+      <c r="B3195" s="4" t="s">
         <v>2828</v>
       </c>
     </row>
     <row r="3196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3196" s="4" t="s">
+      <c r="A3196" s="3" t="s">
         <v>2827</v>
       </c>
-      <c r="B3196" s="5" t="s">
+      <c r="B3196" s="4" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="3197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3197" s="4" t="s">
+      <c r="A3197" s="3" t="s">
         <v>2829</v>
       </c>
-      <c r="B3197" s="5" t="s">
+      <c r="B3197" s="4" t="s">
         <v>2830</v>
       </c>
     </row>
     <row r="3198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3198" s="4" t="s">
+      <c r="A3198" s="3" t="s">
         <v>2831</v>
       </c>
-      <c r="B3198" s="5" t="s">
+      <c r="B3198" s="4" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="3199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3199" s="4" t="s">
+      <c r="A3199" s="3" t="s">
         <v>2832</v>
       </c>
-      <c r="B3199" s="5" t="s">
+      <c r="B3199" s="4" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="3200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3200" s="4" t="s">
+      <c r="A3200" s="3" t="s">
         <v>2832</v>
       </c>
-      <c r="B3200" s="5" t="s">
+      <c r="B3200" s="4" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="3201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3201" s="4" t="s">
+      <c r="A3201" s="3" t="s">
         <v>2833</v>
       </c>
-      <c r="B3201" s="5" t="s">
+      <c r="B3201" s="4" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="3202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3202" s="4" t="s">
+      <c r="A3202" s="3" t="s">
         <v>2833</v>
       </c>
-      <c r="B3202" s="5" t="s">
+      <c r="B3202" s="4" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="3203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3203" s="4" t="s">
+      <c r="A3203" s="3" t="s">
         <v>2833</v>
       </c>
-      <c r="B3203" s="5" t="s">
+      <c r="B3203" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3204" s="4" t="s">
+      <c r="A3204" s="3" t="s">
         <v>2833</v>
       </c>
-      <c r="B3204" s="5" t="s">
+      <c r="B3204" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3205" s="4" t="s">
+      <c r="A3205" s="3" t="s">
         <v>2833</v>
       </c>
-      <c r="B3205" s="5" t="s">
+      <c r="B3205" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3206" s="4" t="s">
+      <c r="A3206" s="3" t="s">
         <v>2834</v>
       </c>
-      <c r="B3206" s="5" t="s">
+      <c r="B3206" s="4" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="3207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3207" s="4" t="s">
+      <c r="A3207" s="5" t="s">
         <v>2835</v>
       </c>
-      <c r="B3207" s="5" t="s">
+      <c r="B3207" s="4" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="3208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3208" s="4" t="s">
+      <c r="A3208" s="5" t="s">
         <v>2835</v>
       </c>
-      <c r="B3208" s="5" t="s">
+      <c r="B3208" s="4" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="3209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3209" s="4" t="s">
+      <c r="A3209" s="5" t="s">
         <v>2835</v>
       </c>
-      <c r="B3209" s="5" t="s">
+      <c r="B3209" s="4" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="3210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3210" s="4" t="s">
+      <c r="A3210" s="5" t="s">
         <v>2835</v>
       </c>
-      <c r="B3210" s="5" t="s">
+      <c r="B3210" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3211" s="4" t="s">
+      <c r="A3211" s="5" t="s">
         <v>2836</v>
       </c>
-      <c r="B3211" s="5" t="s">
+      <c r="B3211" s="4" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="3212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3212" s="4" t="s">
+      <c r="A3212" s="5" t="s">
         <v>2836</v>
       </c>
-      <c r="B3212" s="5" t="s">
+      <c r="B3212" s="4" t="s">
         <v>2824</v>
       </c>
     </row>
     <row r="3213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3213" s="4" t="s">
+      <c r="A3213" s="5" t="s">
         <v>2836</v>
       </c>
-      <c r="B3213" s="5" t="s">
+      <c r="B3213" s="4" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="3214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3214" s="4" t="s">
+      <c r="A3214" s="5" t="s">
         <v>2836</v>
       </c>
-      <c r="B3214" s="5" t="s">
+      <c r="B3214" s="4" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="3215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3215" s="4" t="s">
+      <c r="A3215" s="5" t="s">
         <v>2836</v>
       </c>
-      <c r="B3215" s="5" t="s">
+      <c r="B3215" s="4" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="3216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3216" s="4" t="s">
+      <c r="A3216" s="5" t="s">
         <v>2836</v>
       </c>
-      <c r="B3216" s="5" t="s">
+      <c r="B3216" s="4" t="s">
         <v>2814</v>
       </c>
     </row>
     <row r="3217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3217" s="4" t="s">
+      <c r="A3217" s="5" t="s">
         <v>2837</v>
       </c>
-      <c r="B3217" s="5" t="s">
+      <c r="B3217" s="4" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="3218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3218" s="4" t="s">
+      <c r="A3218" s="3" t="s">
         <v>2838</v>
       </c>
-      <c r="B3218" s="5" t="s">
+      <c r="B3218" s="4" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="3219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3219" s="4" t="s">
+      <c r="A3219" s="3" t="s">
         <v>2838</v>
       </c>
-      <c r="B3219" s="5" t="s">
+      <c r="B3219" s="4" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="3220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3220" s="4" t="s">
+      <c r="A3220" s="3" t="s">
         <v>2839</v>
       </c>
-      <c r="B3220" s="5" t="s">
+      <c r="B3220" s="4" t="s">
         <v>2164</v>
       </c>
     </row>
     <row r="3221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3221" s="4" t="s">
+      <c r="A3221" s="3" t="s">
         <v>2839</v>
       </c>
-      <c r="B3221" s="5" t="s">
+      <c r="B3221" s="4" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="3222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3222" s="4" t="s">
+      <c r="A3222" s="3" t="s">
         <v>2839</v>
       </c>
-      <c r="B3222" s="5" t="s">
+      <c r="B3222" s="4" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="3223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3223" s="4" t="s">
+      <c r="A3223" s="3" t="s">
         <v>2840</v>
       </c>
-      <c r="B3223" s="5" t="s">
+      <c r="B3223" s="4" t="s">
         <v>2663</v>
       </c>
     </row>
     <row r="3224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3224" s="4" t="s">
+      <c r="A3224" s="3" t="s">
         <v>2841</v>
       </c>
-      <c r="B3224" s="5" t="s">
+      <c r="B3224" s="4" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="3225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3225" s="4" t="s">
+      <c r="A3225" s="3" t="s">
         <v>2842</v>
       </c>
-      <c r="B3225" s="5" t="s">
+      <c r="B3225" s="4" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="3226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3226" s="4" t="s">
+      <c r="A3226" s="3" t="s">
         <v>2843</v>
       </c>
-      <c r="B3226" s="5" t="s">
+      <c r="B3226" s="4" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="3227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3227" s="4" t="s">
+      <c r="A3227" s="3" t="s">
         <v>2844</v>
       </c>
-      <c r="B3227" s="5" t="s">
+      <c r="B3227" s="4" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="3228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3228" s="4" t="s">
+      <c r="A3228" s="3" t="s">
         <v>2845</v>
       </c>
-      <c r="B3228" s="5" t="s">
+      <c r="B3228" s="4" t="s">
         <v>2846</v>
       </c>
     </row>
     <row r="3229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3229" s="4" t="s">
+      <c r="A3229" s="3" t="s">
         <v>2845</v>
       </c>
-      <c r="B3229" s="5" t="s">
+      <c r="B3229" s="4" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="3230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3230" s="4" t="s">
+      <c r="A3230" s="3" t="s">
         <v>2845</v>
       </c>
-      <c r="B3230" s="5" t="s">
+      <c r="B3230" s="4" t="s">
         <v>2847</v>
       </c>
     </row>
     <row r="3231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3231" s="4" t="s">
+      <c r="A3231" s="3" t="s">
         <v>2845</v>
       </c>
-      <c r="B3231" s="5" t="s">
+      <c r="B3231" s="4" t="s">
         <v>2848</v>
       </c>
     </row>
     <row r="3232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3232" s="4" t="s">
+      <c r="A3232" s="3" t="s">
         <v>2845</v>
       </c>
-      <c r="B3232" s="5" t="s">
+      <c r="B3232" s="4" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="3233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3233" s="4" t="s">
+      <c r="A3233" s="3" t="s">
         <v>2845</v>
       </c>
-      <c r="B3233" s="5" t="s">
+      <c r="B3233" s="4" t="s">
         <v>2814</v>
       </c>
     </row>
     <row r="3234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3234" s="4" t="s">
+      <c r="A3234" s="3" t="s">
         <v>2849</v>
       </c>
-      <c r="B3234" s="5" t="s">
+      <c r="B3234" s="4" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="3235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3235" s="4" t="s">
+      <c r="A3235" s="3" t="s">
         <v>2849</v>
       </c>
-      <c r="B3235" s="5" t="s">
+      <c r="B3235" s="4" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="3236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3236" s="4" t="s">
+      <c r="A3236" s="3" t="s">
         <v>2850</v>
       </c>
-      <c r="B3236" s="5" t="s">
+      <c r="B3236" s="4" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="3237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3237" s="4" t="s">
+      <c r="A3237" s="3" t="s">
         <v>2851</v>
       </c>
-      <c r="B3237" s="5" t="s">
+      <c r="B3237" s="4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="3238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3238" s="4" t="s">
+      <c r="A3238" s="3" t="s">
         <v>2851</v>
       </c>
-      <c r="B3238" s="5" t="s">
+      <c r="B3238" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3239" s="4" t="s">
+      <c r="A3239" s="3" t="s">
         <v>2851</v>
       </c>
-      <c r="B3239" s="5" t="s">
+      <c r="B3239" s="4" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="3240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3240" s="4" t="s">
+      <c r="A3240" s="3" t="s">
         <v>2851</v>
       </c>
-      <c r="B3240" s="5" t="s">
+      <c r="B3240" s="4" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="3241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3241" s="4" t="s">
+      <c r="A3241" s="3" t="s">
         <v>2851</v>
       </c>
-      <c r="B3241" s="5" t="s">
+      <c r="B3241" s="4" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="3242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3242" s="4" t="s">
+      <c r="A3242" s="3" t="s">
         <v>2851</v>
       </c>
-      <c r="B3242" s="5" t="s">
+      <c r="B3242" s="4" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="3243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3243" s="4" t="s">
+      <c r="A3243" s="3" t="s">
         <v>2851</v>
       </c>
-      <c r="B3243" s="5" t="s">
+      <c r="B3243" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3244" s="4" t="s">
+      <c r="A3244" s="3" t="s">
         <v>2851</v>
       </c>
-      <c r="B3244" s="5" t="s">
+      <c r="B3244" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="3245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3245" s="4" t="s">
+      <c r="A3245" s="3" t="s">
         <v>2851</v>
       </c>
-      <c r="B3245" s="5" t="s">
+      <c r="B3245" s="4" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="3246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3246" s="4" t="s">
+      <c r="A3246" s="3" t="s">
         <v>2852</v>
       </c>
-      <c r="B3246" s="5" t="s">
+      <c r="B3246" s="4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="3247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3247" s="4" t="s">
+      <c r="A3247" s="3" t="s">
         <v>2852</v>
       </c>
-      <c r="B3247" s="5" t="s">
+      <c r="B3247" s="4" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="3248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3248" s="4" t="s">
+      <c r="A3248" s="3" t="s">
         <v>2852</v>
       </c>
-      <c r="B3248" s="5" t="s">
+      <c r="B3248" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3249" s="4" t="s">
+      <c r="A3249" s="3" t="s">
         <v>2853</v>
       </c>
-      <c r="B3249" s="5" t="s">
+      <c r="B3249" s="4" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="3250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3250" s="4" t="s">
+      <c r="A3250" s="3" t="s">
         <v>2854</v>
       </c>
-      <c r="B3250" s="5" t="s">
+      <c r="B3250" s="4" t="s">
         <v>2855</v>
       </c>
     </row>
     <row r="3251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3251" s="4" t="s">
+      <c r="A3251" s="3" t="s">
         <v>2854</v>
       </c>
-      <c r="B3251" s="5" t="s">
+      <c r="B3251" s="4" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="3252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3252" s="4" t="s">
+      <c r="A3252" s="3" t="s">
         <v>2854</v>
       </c>
-      <c r="B3252" s="5" t="s">
+      <c r="B3252" s="4" t="s">
         <v>2856</v>
       </c>
     </row>
     <row r="3253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3253" s="4" t="s">
+      <c r="A3253" s="3" t="s">
         <v>2854</v>
       </c>
-      <c r="B3253" s="5" t="s">
+      <c r="B3253" s="4" t="s">
         <v>2857</v>
       </c>
     </row>
     <row r="3254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3254" s="4" t="s">
+      <c r="A3254" s="3" t="s">
         <v>2854</v>
       </c>
-      <c r="B3254" s="5" t="s">
+      <c r="B3254" s="4" t="s">
         <v>2858</v>
       </c>
     </row>
     <row r="3255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3255" s="4" t="s">
+      <c r="A3255" s="3" t="s">
         <v>2854</v>
       </c>
-      <c r="B3255" s="5" t="s">
+      <c r="B3255" s="4" t="s">
         <v>2859</v>
       </c>
     </row>
     <row r="3256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3256" s="4" t="s">
+      <c r="A3256" s="5" t="s">
         <v>2860</v>
       </c>
-      <c r="B3256" s="5" t="s">
+      <c r="B3256" s="4" t="s">
         <v>2342</v>
       </c>
     </row>
     <row r="3257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3257" s="4" t="s">
+      <c r="A3257" s="5" t="s">
         <v>2860</v>
       </c>
-      <c r="B3257" s="5" t="s">
+      <c r="B3257" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3258" s="4" t="s">
+      <c r="A3258" s="5" t="s">
         <v>2860</v>
       </c>
-      <c r="B3258" s="5" t="s">
+      <c r="B3258" s="4" t="s">
         <v>2354</v>
       </c>
     </row>
     <row r="3259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3259" s="4" t="s">
+      <c r="A3259" s="5" t="s">
         <v>2860</v>
       </c>
-      <c r="B3259" s="5" t="s">
+      <c r="B3259" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3260" s="4" t="s">
+      <c r="A3260" s="5" t="s">
         <v>2860</v>
       </c>
-      <c r="B3260" s="5" t="s">
+      <c r="B3260" s="4" t="s">
         <v>1706</v>
       </c>
     </row>
     <row r="3261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3261" s="4" t="s">
+      <c r="A3261" s="5" t="s">
         <v>2860</v>
       </c>
-      <c r="B3261" s="5" t="s">
+      <c r="B3261" s="4" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="3262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3262" s="4" t="s">
+      <c r="A3262" s="5" t="s">
         <v>2860</v>
       </c>
-      <c r="B3262" s="5" t="s">
+      <c r="B3262" s="4" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="3263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3263" s="4" t="s">
+      <c r="A3263" s="5" t="s">
         <v>2860</v>
       </c>
-      <c r="B3263" s="5" t="s">
+      <c r="B3263" s="4" t="s">
         <v>2355</v>
       </c>
     </row>
     <row r="3264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3264" s="4" t="s">
+      <c r="A3264" s="5" t="s">
         <v>2860</v>
       </c>
-      <c r="B3264" s="5" t="s">
+      <c r="B3264" s="4" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="3265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3265" s="4" t="s">
+      <c r="A3265" s="5" t="s">
         <v>2860</v>
       </c>
-      <c r="B3265" s="5" t="s">
+      <c r="B3265" s="4" t="s">
         <v>1843</v>
       </c>
     </row>
     <row r="3266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3266" s="4" t="s">
+      <c r="A3266" s="5" t="s">
         <v>2860</v>
       </c>
-      <c r="B3266" s="5" t="s">
+      <c r="B3266" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3267" s="4" t="s">
+      <c r="A3267" s="5" t="s">
         <v>2860</v>
       </c>
-      <c r="B3267" s="5" t="s">
+      <c r="B3267" s="4" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="3268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3268" s="4" t="s">
+      <c r="A3268" s="5" t="s">
         <v>2860</v>
       </c>
-      <c r="B3268" s="5" t="s">
+      <c r="B3268" s="4" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="3269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3269" s="4" t="s">
+      <c r="A3269" s="5" t="s">
         <v>2860</v>
       </c>
-      <c r="B3269" s="5" t="s">
+      <c r="B3269" s="4" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="3270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3270" s="4" t="s">
+      <c r="A3270" s="5" t="s">
         <v>2861</v>
       </c>
-      <c r="B3270" s="5" t="s">
+      <c r="B3270" s="4" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="3271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3271" s="4" t="s">
+      <c r="A3271" s="5" t="s">
         <v>2862</v>
       </c>
-      <c r="B3271" s="5" t="s">
+      <c r="B3271" s="4" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="3272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3272" s="4" t="s">
+      <c r="A3272" s="5" t="s">
         <v>2862</v>
       </c>
-      <c r="B3272" s="5" t="s">
+      <c r="B3272" s="4" t="s">
         <v>2613</v>
       </c>
     </row>
     <row r="3273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3273" s="4" t="s">
+      <c r="A3273" s="5" t="s">
         <v>2862</v>
       </c>
-      <c r="B3273" s="5" t="s">
+      <c r="B3273" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3274" s="4" t="s">
+      <c r="A3274" s="5" t="s">
         <v>2862</v>
       </c>
-      <c r="B3274" s="5" t="s">
+      <c r="B3274" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3275" s="4" t="s">
+      <c r="A3275" s="5" t="s">
         <v>2863</v>
       </c>
-      <c r="B3275" s="5" t="s">
+      <c r="B3275" s="4" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="3276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3276" s="4" t="s">
+      <c r="A3276" s="5" t="s">
         <v>2864</v>
       </c>
-      <c r="B3276" s="5" t="s">
+      <c r="B3276" s="4" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="3277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3277" s="4" t="s">
+      <c r="A3277" s="5" t="s">
         <v>2864</v>
       </c>
-      <c r="B3277" s="5" t="s">
+      <c r="B3277" s="4" t="s">
         <v>2613</v>
       </c>
     </row>
     <row r="3278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3278" s="4" t="s">
+      <c r="A3278" s="5" t="s">
         <v>2864</v>
       </c>
-      <c r="B3278" s="5" t="s">
+      <c r="B3278" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3279" s="4" t="s">
+      <c r="A3279" s="5" t="s">
         <v>2865</v>
       </c>
-      <c r="B3279" s="5" t="s">
+      <c r="B3279" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3280" s="4" t="s">
+      <c r="A3280" s="5" t="s">
         <v>2866</v>
       </c>
-      <c r="B3280" s="5" t="s">
+      <c r="B3280" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="3281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3281" s="4" t="s">
+      <c r="A3281" s="5" t="s">
         <v>2867</v>
       </c>
-      <c r="B3281" s="5" t="s">
+      <c r="B3281" s="4" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="3282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3282" s="4" t="s">
+      <c r="A3282" s="5" t="s">
         <v>2867</v>
       </c>
-      <c r="B3282" s="5" t="s">
+      <c r="B3282" s="4" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="3283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3283" s="4" t="s">
+      <c r="A3283" s="5" t="s">
         <v>2867</v>
       </c>
-      <c r="B3283" s="5" t="s">
+      <c r="B3283" s="4" t="s">
         <v>2868</v>
       </c>
     </row>
     <row r="3284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3284" s="4" t="s">
+      <c r="A3284" s="5" t="s">
         <v>2867</v>
       </c>
-      <c r="B3284" s="5" t="s">
+      <c r="B3284" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3285" s="4" t="s">
+      <c r="A3285" s="5" t="s">
         <v>2867</v>
       </c>
-      <c r="B3285" s="5" t="s">
+      <c r="B3285" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3286" s="4" t="s">
+      <c r="A3286" s="5" t="s">
         <v>2867</v>
       </c>
-      <c r="B3286" s="5" t="s">
+      <c r="B3286" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="3287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3287" s="4" t="s">
+      <c r="A3287" s="5" t="s">
         <v>2869</v>
       </c>
-      <c r="B3287" s="5" t="s">
+      <c r="B3287" s="4" t="s">
         <v>2870</v>
       </c>
     </row>
     <row r="3288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3288" s="4" t="s">
+      <c r="A3288" s="5" t="s">
         <v>2869</v>
       </c>
-      <c r="B3288" s="5" t="s">
+      <c r="B3288" s="4" t="s">
         <v>2871</v>
       </c>
     </row>
     <row r="3289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3289" s="4" t="s">
+      <c r="A3289" s="3" t="s">
         <v>2872</v>
       </c>
-      <c r="B3289" s="5" t="s">
+      <c r="B3289" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3290" s="4" t="s">
+      <c r="A3290" s="3" t="s">
         <v>2872</v>
       </c>
-      <c r="B3290" s="5" t="s">
+      <c r="B3290" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3291" s="4" t="s">
+      <c r="A3291" s="3" t="s">
         <v>2872</v>
       </c>
-      <c r="B3291" s="5" t="s">
+      <c r="B3291" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3292" s="4" t="s">
+      <c r="A3292" s="3" t="s">
         <v>2872</v>
       </c>
-      <c r="B3292" s="5" t="s">
+      <c r="B3292" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3293" s="4" t="s">
+      <c r="A3293" s="3" t="s">
         <v>2873</v>
       </c>
-      <c r="B3293" s="5" t="s">
+      <c r="B3293" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="3294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3294" s="4" t="s">
+      <c r="A3294" s="5" t="s">
         <v>2874</v>
       </c>
-      <c r="B3294" s="5" t="s">
+      <c r="B3294" s="4" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="3295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3295" s="4" t="s">
+      <c r="A3295" s="5" t="s">
         <v>2875</v>
       </c>
-      <c r="B3295" s="5" t="s">
+      <c r="B3295" s="4" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="3296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3296" s="4" t="s">
+      <c r="A3296" s="5" t="s">
         <v>2875</v>
       </c>
-      <c r="B3296" s="5" t="s">
+      <c r="B3296" s="4" t="s">
         <v>1974</v>
       </c>
     </row>
     <row r="3297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3297" s="4" t="s">
+      <c r="A3297" s="5" t="s">
         <v>2875</v>
       </c>
-      <c r="B3297" s="5" t="s">
+      <c r="B3297" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="3298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3298" s="4" t="s">
+      <c r="A3298" s="5" t="s">
         <v>2876</v>
       </c>
-      <c r="B3298" s="5" t="s">
+      <c r="B3298" s="4" t="s">
         <v>2454</v>
       </c>
     </row>
     <row r="3299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3299" s="4" t="s">
+      <c r="A3299" s="5" t="s">
         <v>2877</v>
       </c>
-      <c r="B3299" s="5" t="s">
+      <c r="B3299" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="3300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3300" s="4" t="s">
+      <c r="A3300" s="5" t="s">
         <v>2878</v>
       </c>
-      <c r="B3300" s="5" t="s">
+      <c r="B3300" s="4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="3301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3301" s="4" t="s">
+      <c r="A3301" s="5" t="s">
         <v>2878</v>
       </c>
-      <c r="B3301" s="5" t="s">
+      <c r="B3301" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3302" s="4" t="s">
+      <c r="A3302" s="5" t="s">
         <v>2878</v>
       </c>
-      <c r="B3302" s="5" t="s">
+      <c r="B3302" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3303" s="4" t="s">
+      <c r="A3303" s="5" t="s">
         <v>2878</v>
       </c>
-      <c r="B3303" s="5" t="s">
+      <c r="B3303" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3304" s="4" t="s">
+      <c r="A3304" s="5" t="s">
         <v>2879</v>
       </c>
-      <c r="B3304" s="5" t="s">
+      <c r="B3304" s="4" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="3305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3305" s="4" t="s">
+      <c r="A3305" s="5" t="s">
         <v>2880</v>
       </c>
-      <c r="B3305" s="5" t="s">
+      <c r="B3305" s="4" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="3306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3306" s="4" t="s">
+      <c r="A3306" s="5" t="s">
         <v>2880</v>
       </c>
-      <c r="B3306" s="5" t="s">
+      <c r="B3306" s="4" t="s">
         <v>2868</v>
       </c>
     </row>
     <row r="3307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3307" s="4" t="s">
+      <c r="A3307" s="5" t="s">
         <v>2881</v>
       </c>
-      <c r="B3307" s="5" t="s">
+      <c r="B3307" s="4" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="3308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3308" s="4" t="s">
+      <c r="A3308" s="5" t="s">
         <v>2882</v>
       </c>
-      <c r="B3308" s="5" t="s">
+      <c r="B3308" s="4" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="3309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3309" s="4" t="s">
+      <c r="A3309" s="5" t="s">
         <v>2883</v>
       </c>
-      <c r="B3309" s="5" t="s">
+      <c r="B3309" s="4" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="3310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3310" s="4" t="s">
+      <c r="A3310" s="5" t="s">
         <v>2884</v>
       </c>
-      <c r="B3310" s="5" t="s">
+      <c r="B3310" s="4" t="s">
         <v>1706</v>
       </c>
     </row>
     <row r="3311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3311" s="4" t="s">
+      <c r="A3311" s="5" t="s">
         <v>2885</v>
       </c>
-      <c r="B3311" s="5" t="s">
+      <c r="B3311" s="4" t="s">
         <v>1843</v>
       </c>
     </row>
     <row r="3312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3312" s="4" t="s">
+      <c r="A3312" s="5" t="s">
         <v>2886</v>
       </c>
-      <c r="B3312" s="5" t="s">
+      <c r="B3312" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3313" s="4" t="s">
+      <c r="A3313" s="5" t="s">
         <v>2886</v>
       </c>
-      <c r="B3313" s="5" t="s">
+      <c r="B3313" s="4" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="3314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3314" s="4" t="s">
+      <c r="A3314" s="5" t="s">
         <v>2887</v>
       </c>
-      <c r="B3314" s="5" t="s">
+      <c r="B3314" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="3315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3315" s="4" t="s">
+      <c r="A3315" s="5" t="s">
         <v>2887</v>
       </c>
-      <c r="B3315" s="5" t="s">
+      <c r="B3315" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3316" s="4" t="s">
+      <c r="A3316" s="5" t="s">
         <v>2888</v>
       </c>
-      <c r="B3316" s="5" t="s">
+      <c r="B3316" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3317" s="4" t="s">
+      <c r="A3317" s="3" t="s">
         <v>2889</v>
       </c>
-      <c r="B3317" s="5" t="s">
+      <c r="B3317" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3318" s="4" t="s">
+      <c r="A3318" s="3" t="s">
         <v>2890</v>
       </c>
-      <c r="B3318" s="5" t="s">
+      <c r="B3318" s="4" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="3319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3319" s="4" t="s">
+      <c r="A3319" s="3" t="s">
         <v>2891</v>
       </c>
-      <c r="B3319" s="5" t="s">
+      <c r="B3319" s="4" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3320" s="4" t="s">
+      <c r="A3320" s="3" t="s">
         <v>2892</v>
       </c>
-      <c r="B3320" s="5" t="s">
+      <c r="B3320" s="4" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="3321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3321" s="4" t="s">
+      <c r="A3321" s="3" t="s">
         <v>2893</v>
       </c>
-      <c r="B3321" s="5" t="s">
+      <c r="B3321" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3322" s="4" t="s">
+      <c r="A3322" s="3" t="s">
         <v>2894</v>
       </c>
-      <c r="B3322" s="5" t="s">
+      <c r="B3322" s="4" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="3323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3323" s="4" t="s">
+      <c r="A3323" s="3" t="s">
         <v>2894</v>
       </c>
-      <c r="B3323" s="5" t="s">
+      <c r="B3323" s="4" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="3324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3324" s="4" t="s">
+      <c r="A3324" s="3" t="s">
         <v>2894</v>
       </c>
-      <c r="B3324" s="5" t="s">
+      <c r="B3324" s="4" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="3325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3325" s="4" t="s">
+      <c r="A3325" s="3" t="s">
         <v>2895</v>
       </c>
-      <c r="B3325" s="5" t="s">
+      <c r="B3325" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3326" s="4" t="s">
+      <c r="A3326" s="3" t="s">
         <v>2896</v>
       </c>
-      <c r="B3326" s="5" t="s">
+      <c r="B3326" s="4" t="s">
         <v>2897</v>
       </c>
     </row>
